--- a/database/industries/folad/kechad/product/monthly.xlsx
+++ b/database/industries/folad/kechad/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D216C8C2-D16E-4A9F-9A35-8542033C2503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2287313F-1BF9-4D9C-B86C-9246CE2E0054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="13">
-        <v>587979</v>
+        <v>67796</v>
       </c>
       <c r="BA62" s="13">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>943449</v>
       </c>
       <c r="AZ65" s="11">
-        <v>182805</v>
+        <v>227228</v>
       </c>
       <c r="BA65" s="11">
         <v>392631</v>
@@ -9771,7 +9771,7 @@
         <v>16252496</v>
       </c>
       <c r="AZ73" s="15">
-        <v>32007075</v>
+        <v>31531315</v>
       </c>
       <c r="BA73" s="15">
         <v>31691572</v>
@@ -11795,7 +11795,7 @@
         <v>1806029</v>
       </c>
       <c r="AZ89" s="13">
-        <v>1070889</v>
+        <v>1331123</v>
       </c>
       <c r="BA89" s="13">
         <v>-347574</v>

--- a/database/industries/folad/kechad/product/monthly.xlsx
+++ b/database/industries/folad/kechad/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2287313F-1BF9-4D9C-B86C-9246CE2E0054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE905A29-5FEC-442F-8AF5-DB38532EB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کچاد-معدنی‌وصنعتی‌چادرملو</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سنگ دانه بندی</t>
@@ -1436,85 +1436,85 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>31835</v>
+        <v>30180</v>
       </c>
       <c r="F11" s="11">
-        <v>30180</v>
+        <v>40205</v>
       </c>
       <c r="G11" s="11">
-        <v>40205</v>
+        <v>31875</v>
       </c>
       <c r="H11" s="11">
-        <v>31875</v>
+        <v>24225</v>
       </c>
       <c r="I11" s="11">
-        <v>24225</v>
+        <v>25500</v>
       </c>
       <c r="J11" s="11">
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="K11" s="11">
-        <v>17000</v>
+        <v>35700</v>
       </c>
       <c r="L11" s="11">
         <v>35700</v>
       </c>
       <c r="M11" s="11">
-        <v>35700</v>
+        <v>54570</v>
       </c>
       <c r="N11" s="11">
-        <v>54570</v>
+        <v>15825</v>
       </c>
       <c r="O11" s="11">
-        <v>15825</v>
+        <v>27900</v>
       </c>
       <c r="P11" s="11">
-        <v>27900</v>
+        <v>33975</v>
       </c>
       <c r="Q11" s="11">
-        <v>33975</v>
+        <v>33375</v>
       </c>
       <c r="R11" s="11">
-        <v>33375</v>
+        <v>30000</v>
       </c>
       <c r="S11" s="11">
-        <v>30000</v>
+        <v>27225</v>
       </c>
       <c r="T11" s="11">
-        <v>27225</v>
+        <v>48000</v>
       </c>
       <c r="U11" s="11">
-        <v>48000</v>
+        <v>160130</v>
       </c>
       <c r="V11" s="11">
-        <v>160130</v>
+        <v>15525</v>
       </c>
       <c r="W11" s="11">
-        <v>15525</v>
+        <v>31500</v>
       </c>
       <c r="X11" s="11">
         <v>31500</v>
       </c>
       <c r="Y11" s="11">
+        <v>30750</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>30825</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>31575</v>
+      </c>
+      <c r="AB11" s="11">
         <v>31500</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>30750</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>30825</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>31575</v>
       </c>
       <c r="AC11" s="11">
         <v>31500</v>
       </c>
       <c r="AD11" s="11">
-        <v>31500</v>
+        <v>19472</v>
       </c>
       <c r="AE11" s="11">
-        <v>19472</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="11">
         <v>0</v>
@@ -1595,154 +1595,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>292064</v>
+        <v>282080</v>
       </c>
       <c r="F12" s="13">
-        <v>282080</v>
+        <v>324266</v>
       </c>
       <c r="G12" s="13">
-        <v>324266</v>
+        <v>317836</v>
       </c>
       <c r="H12" s="13">
-        <v>317836</v>
+        <v>289649</v>
       </c>
       <c r="I12" s="13">
-        <v>289649</v>
+        <v>328616</v>
       </c>
       <c r="J12" s="13">
-        <v>328616</v>
+        <v>339399</v>
       </c>
       <c r="K12" s="13">
-        <v>339399</v>
+        <v>365223</v>
       </c>
       <c r="L12" s="13">
-        <v>365223</v>
+        <v>307434</v>
       </c>
       <c r="M12" s="13">
-        <v>307434</v>
+        <v>354855</v>
       </c>
       <c r="N12" s="13">
-        <v>354855</v>
+        <v>340180</v>
       </c>
       <c r="O12" s="13">
-        <v>340180</v>
+        <v>0</v>
       </c>
       <c r="P12" s="13">
-        <v>0</v>
+        <v>228822</v>
       </c>
       <c r="Q12" s="13">
-        <v>228822</v>
+        <v>350202</v>
       </c>
       <c r="R12" s="13">
-        <v>350202</v>
+        <v>334843</v>
       </c>
       <c r="S12" s="13">
-        <v>334843</v>
+        <v>293356</v>
       </c>
       <c r="T12" s="13">
-        <v>293356</v>
+        <v>333177</v>
       </c>
       <c r="U12" s="13">
-        <v>333177</v>
+        <v>277380</v>
       </c>
       <c r="V12" s="13">
-        <v>277380</v>
+        <v>331301</v>
       </c>
       <c r="W12" s="13">
-        <v>331301</v>
+        <v>194569</v>
       </c>
       <c r="X12" s="13">
-        <v>194569</v>
+        <v>344676</v>
       </c>
       <c r="Y12" s="13">
-        <v>344676</v>
+        <v>328099</v>
       </c>
       <c r="Z12" s="13">
-        <v>328099</v>
+        <v>334795</v>
       </c>
       <c r="AA12" s="13">
-        <v>334795</v>
+        <v>341465</v>
       </c>
       <c r="AB12" s="13">
-        <v>341465</v>
+        <v>306003</v>
       </c>
       <c r="AC12" s="13">
-        <v>306003</v>
+        <v>278359</v>
       </c>
       <c r="AD12" s="13">
-        <v>278359</v>
+        <v>295020</v>
       </c>
       <c r="AE12" s="13">
-        <v>295020</v>
+        <v>329188</v>
       </c>
       <c r="AF12" s="13">
-        <v>329188</v>
+        <v>335894</v>
       </c>
       <c r="AG12" s="13">
-        <v>335894</v>
+        <v>310803</v>
       </c>
       <c r="AH12" s="13">
-        <v>310803</v>
+        <v>278428</v>
       </c>
       <c r="AI12" s="13">
-        <v>278428</v>
+        <v>343838</v>
       </c>
       <c r="AJ12" s="13">
-        <v>343838</v>
+        <v>68654</v>
       </c>
       <c r="AK12" s="13">
-        <v>68654</v>
+        <v>286498</v>
       </c>
       <c r="AL12" s="13">
-        <v>286498</v>
+        <v>367954</v>
       </c>
       <c r="AM12" s="13">
-        <v>367954</v>
+        <v>368522</v>
       </c>
       <c r="AN12" s="13">
-        <v>368522</v>
+        <v>370603</v>
       </c>
       <c r="AO12" s="13">
-        <v>370603</v>
+        <v>344629</v>
       </c>
       <c r="AP12" s="13">
-        <v>344629</v>
+        <v>334942</v>
       </c>
       <c r="AQ12" s="13">
-        <v>334942</v>
+        <v>388118</v>
       </c>
       <c r="AR12" s="13">
-        <v>388118</v>
+        <v>332414</v>
       </c>
       <c r="AS12" s="13">
-        <v>332414</v>
+        <v>324997</v>
       </c>
       <c r="AT12" s="13">
-        <v>324997</v>
+        <v>393264</v>
       </c>
       <c r="AU12" s="13">
-        <v>393264</v>
+        <v>395162</v>
       </c>
       <c r="AV12" s="13">
-        <v>395162</v>
+        <v>396524</v>
       </c>
       <c r="AW12" s="13">
-        <v>396524</v>
+        <v>690</v>
       </c>
       <c r="AX12" s="13">
-        <v>690</v>
+        <v>250670</v>
       </c>
       <c r="AY12" s="13">
-        <v>250670</v>
+        <v>393617</v>
       </c>
       <c r="AZ12" s="13">
-        <v>393617</v>
+        <v>381018</v>
       </c>
       <c r="BA12" s="13">
-        <v>381018</v>
+        <v>374932</v>
       </c>
       <c r="BB12" s="13">
-        <v>374932</v>
+        <v>366624</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1754,154 +1754,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>763807</v>
+        <v>795302</v>
       </c>
       <c r="F13" s="11">
-        <v>795302</v>
+        <v>736016</v>
       </c>
       <c r="G13" s="11">
-        <v>736016</v>
+        <v>812679</v>
       </c>
       <c r="H13" s="11">
-        <v>812679</v>
+        <v>672117</v>
       </c>
       <c r="I13" s="11">
-        <v>672117</v>
+        <v>670749</v>
       </c>
       <c r="J13" s="11">
-        <v>670749</v>
+        <v>847800</v>
       </c>
       <c r="K13" s="11">
-        <v>847800</v>
+        <v>831969</v>
       </c>
       <c r="L13" s="11">
-        <v>831969</v>
+        <v>696861</v>
       </c>
       <c r="M13" s="11">
-        <v>696861</v>
+        <v>700883</v>
       </c>
       <c r="N13" s="11">
-        <v>700883</v>
+        <v>791952</v>
       </c>
       <c r="O13" s="11">
-        <v>791952</v>
+        <v>766088</v>
       </c>
       <c r="P13" s="11">
-        <v>766088</v>
+        <v>626101</v>
       </c>
       <c r="Q13" s="11">
-        <v>626101</v>
+        <v>596493</v>
       </c>
       <c r="R13" s="11">
-        <v>596493</v>
+        <v>562837</v>
       </c>
       <c r="S13" s="11">
-        <v>562837</v>
+        <v>810477</v>
       </c>
       <c r="T13" s="11">
-        <v>810477</v>
+        <v>845176</v>
       </c>
       <c r="U13" s="11">
-        <v>845176</v>
+        <v>678333</v>
       </c>
       <c r="V13" s="11">
-        <v>678333</v>
+        <v>668253</v>
       </c>
       <c r="W13" s="11">
-        <v>668253</v>
+        <v>910592</v>
       </c>
       <c r="X13" s="11">
-        <v>910592</v>
+        <v>804246</v>
       </c>
       <c r="Y13" s="11">
-        <v>804246</v>
+        <v>890890</v>
       </c>
       <c r="Z13" s="11">
-        <v>890890</v>
+        <v>957594</v>
       </c>
       <c r="AA13" s="11">
-        <v>957594</v>
+        <v>795743</v>
       </c>
       <c r="AB13" s="11">
-        <v>795743</v>
+        <v>859658</v>
       </c>
       <c r="AC13" s="11">
-        <v>859658</v>
+        <v>1003908</v>
       </c>
       <c r="AD13" s="11">
-        <v>1003908</v>
+        <v>883640</v>
       </c>
       <c r="AE13" s="11">
-        <v>883640</v>
+        <v>886252</v>
       </c>
       <c r="AF13" s="11">
-        <v>886252</v>
+        <v>895984</v>
       </c>
       <c r="AG13" s="11">
-        <v>895984</v>
+        <v>879248</v>
       </c>
       <c r="AH13" s="11">
-        <v>879248</v>
+        <v>862967</v>
       </c>
       <c r="AI13" s="11">
-        <v>862967</v>
+        <v>925235</v>
       </c>
       <c r="AJ13" s="11">
-        <v>925235</v>
+        <v>1039936</v>
       </c>
       <c r="AK13" s="11">
-        <v>1039936</v>
+        <v>928134</v>
       </c>
       <c r="AL13" s="11">
-        <v>928134</v>
+        <v>919854</v>
       </c>
       <c r="AM13" s="11">
-        <v>919854</v>
+        <v>940094</v>
       </c>
       <c r="AN13" s="11">
-        <v>940094</v>
+        <v>896262</v>
       </c>
       <c r="AO13" s="11">
-        <v>896262</v>
+        <v>945244</v>
       </c>
       <c r="AP13" s="11">
-        <v>945244</v>
+        <v>885132</v>
       </c>
       <c r="AQ13" s="11">
-        <v>885132</v>
+        <v>877087</v>
       </c>
       <c r="AR13" s="11">
-        <v>877087</v>
+        <v>925572</v>
       </c>
       <c r="AS13" s="11">
-        <v>925572</v>
+        <v>876760</v>
       </c>
       <c r="AT13" s="11">
-        <v>876760</v>
+        <v>916434</v>
       </c>
       <c r="AU13" s="11">
-        <v>916434</v>
+        <v>970646</v>
       </c>
       <c r="AV13" s="11">
-        <v>970646</v>
+        <v>794876</v>
       </c>
       <c r="AW13" s="11">
-        <v>794876</v>
+        <v>653562</v>
       </c>
       <c r="AX13" s="11">
-        <v>653562</v>
+        <v>790247</v>
       </c>
       <c r="AY13" s="11">
-        <v>790247</v>
+        <v>767240</v>
       </c>
       <c r="AZ13" s="11">
-        <v>767240</v>
+        <v>863908</v>
       </c>
       <c r="BA13" s="11">
-        <v>863908</v>
+        <v>867784</v>
       </c>
       <c r="BB13" s="11">
-        <v>867784</v>
+        <v>934499</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1913,154 +1913,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1606</v>
+        <v>1570</v>
       </c>
       <c r="F14" s="13">
-        <v>1570</v>
+        <v>3004</v>
       </c>
       <c r="G14" s="13">
-        <v>3004</v>
+        <v>1632</v>
       </c>
       <c r="H14" s="13">
-        <v>1632</v>
+        <v>437</v>
       </c>
       <c r="I14" s="13">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J14" s="13">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="K14" s="13">
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="L14" s="13">
-        <v>1546</v>
+        <v>1948</v>
       </c>
       <c r="M14" s="13">
-        <v>1948</v>
+        <v>4027</v>
       </c>
       <c r="N14" s="13">
-        <v>4027</v>
+        <v>4784</v>
       </c>
       <c r="O14" s="13">
-        <v>4784</v>
+        <v>6059</v>
       </c>
       <c r="P14" s="13">
-        <v>6059</v>
+        <v>6084</v>
       </c>
       <c r="Q14" s="13">
-        <v>6084</v>
+        <v>4062</v>
       </c>
       <c r="R14" s="13">
-        <v>4062</v>
+        <v>2437</v>
       </c>
       <c r="S14" s="13">
-        <v>2437</v>
+        <v>8095</v>
       </c>
       <c r="T14" s="13">
-        <v>8095</v>
+        <v>7472</v>
       </c>
       <c r="U14" s="13">
-        <v>7472</v>
+        <v>0</v>
       </c>
       <c r="V14" s="13">
-        <v>0</v>
+        <v>1973</v>
       </c>
       <c r="W14" s="13">
-        <v>1973</v>
+        <v>5207</v>
       </c>
       <c r="X14" s="13">
-        <v>5207</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="13">
-        <v>0</v>
+        <v>3822</v>
       </c>
       <c r="Z14" s="13">
-        <v>3822</v>
+        <v>9439</v>
       </c>
       <c r="AA14" s="13">
-        <v>9439</v>
+        <v>5730</v>
       </c>
       <c r="AB14" s="13">
-        <v>5730</v>
+        <v>6341</v>
       </c>
       <c r="AC14" s="13">
-        <v>6341</v>
+        <v>7281</v>
       </c>
       <c r="AD14" s="13">
-        <v>7281</v>
+        <v>2632</v>
       </c>
       <c r="AE14" s="13">
-        <v>2632</v>
+        <v>8109</v>
       </c>
       <c r="AF14" s="13">
-        <v>8109</v>
+        <v>4435</v>
       </c>
       <c r="AG14" s="13">
-        <v>4435</v>
+        <v>3983</v>
       </c>
       <c r="AH14" s="13">
-        <v>3983</v>
+        <v>843</v>
       </c>
       <c r="AI14" s="13">
-        <v>843</v>
+        <v>4668</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4668</v>
+        <v>10867</v>
       </c>
       <c r="AK14" s="13">
-        <v>10867</v>
+        <v>10227</v>
       </c>
       <c r="AL14" s="13">
-        <v>10227</v>
+        <v>9582</v>
       </c>
       <c r="AM14" s="13">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="13">
-        <v>0</v>
+        <v>2544</v>
       </c>
       <c r="AO14" s="13">
-        <v>2544</v>
+        <v>3773</v>
       </c>
       <c r="AP14" s="13">
-        <v>3773</v>
+        <v>1597</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1597</v>
+        <v>5913</v>
       </c>
       <c r="AR14" s="13">
-        <v>5913</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="13">
-        <v>0</v>
+        <v>30998</v>
       </c>
       <c r="AT14" s="13">
-        <v>30998</v>
+        <v>3352</v>
       </c>
       <c r="AU14" s="13">
-        <v>3352</v>
+        <v>655</v>
       </c>
       <c r="AV14" s="13">
-        <v>655</v>
+        <v>6437</v>
       </c>
       <c r="AW14" s="13">
-        <v>6437</v>
+        <v>4238</v>
       </c>
       <c r="AX14" s="13">
-        <v>4238</v>
+        <v>5858</v>
       </c>
       <c r="AY14" s="13">
-        <v>5858</v>
+        <v>5666</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5666</v>
+        <v>5809</v>
       </c>
       <c r="BA14" s="13">
-        <v>5809</v>
+        <v>4339</v>
       </c>
       <c r="BB14" s="13">
-        <v>5765</v>
+        <v>15419</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2072,154 +2072,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>60893</v>
+        <v>80311</v>
       </c>
       <c r="F15" s="11">
-        <v>80311</v>
+        <v>83411</v>
       </c>
       <c r="G15" s="11">
-        <v>83411</v>
+        <v>84588</v>
       </c>
       <c r="H15" s="11">
-        <v>84588</v>
+        <v>70055</v>
       </c>
       <c r="I15" s="11">
-        <v>70055</v>
+        <v>65965</v>
       </c>
       <c r="J15" s="11">
-        <v>65965</v>
+        <v>87626</v>
       </c>
       <c r="K15" s="11">
-        <v>87626</v>
+        <v>87762</v>
       </c>
       <c r="L15" s="11">
-        <v>87762</v>
+        <v>86655</v>
       </c>
       <c r="M15" s="11">
-        <v>86655</v>
+        <v>83000</v>
       </c>
       <c r="N15" s="11">
-        <v>83000</v>
+        <v>62853</v>
       </c>
       <c r="O15" s="11">
-        <v>62853</v>
+        <v>88291</v>
       </c>
       <c r="P15" s="11">
-        <v>88291</v>
+        <v>75591</v>
       </c>
       <c r="Q15" s="11">
-        <v>75591</v>
+        <v>90845</v>
       </c>
       <c r="R15" s="11">
-        <v>90845</v>
+        <v>87538</v>
       </c>
       <c r="S15" s="11">
-        <v>87538</v>
+        <v>90862</v>
       </c>
       <c r="T15" s="11">
-        <v>90862</v>
+        <v>91552</v>
       </c>
       <c r="U15" s="11">
-        <v>91552</v>
+        <v>88924</v>
       </c>
       <c r="V15" s="11">
-        <v>88924</v>
+        <v>88910</v>
       </c>
       <c r="W15" s="11">
-        <v>88910</v>
+        <v>78412</v>
       </c>
       <c r="X15" s="11">
-        <v>78412</v>
+        <v>86843</v>
       </c>
       <c r="Y15" s="11">
-        <v>86843</v>
+        <v>73984</v>
       </c>
       <c r="Z15" s="11">
-        <v>73984</v>
+        <v>65365</v>
       </c>
       <c r="AA15" s="11">
-        <v>65365</v>
+        <v>85628</v>
       </c>
       <c r="AB15" s="11">
-        <v>85628</v>
+        <v>78693</v>
       </c>
       <c r="AC15" s="11">
-        <v>78693</v>
+        <v>94386</v>
       </c>
       <c r="AD15" s="11">
-        <v>94386</v>
+        <v>93249</v>
       </c>
       <c r="AE15" s="11">
-        <v>93249</v>
+        <v>87025</v>
       </c>
       <c r="AF15" s="11">
-        <v>87025</v>
+        <v>95122</v>
       </c>
       <c r="AG15" s="11">
-        <v>95122</v>
+        <v>97881</v>
       </c>
       <c r="AH15" s="11">
-        <v>97881</v>
+        <v>105435</v>
       </c>
       <c r="AI15" s="11">
-        <v>105435</v>
+        <v>99174</v>
       </c>
       <c r="AJ15" s="11">
-        <v>99174</v>
+        <v>101603</v>
       </c>
       <c r="AK15" s="11">
-        <v>101603</v>
+        <v>49773</v>
       </c>
       <c r="AL15" s="11">
-        <v>49773</v>
+        <v>36472</v>
       </c>
       <c r="AM15" s="11">
-        <v>36472</v>
+        <v>63803</v>
       </c>
       <c r="AN15" s="11">
-        <v>63803</v>
+        <v>94137</v>
       </c>
       <c r="AO15" s="11">
-        <v>94137</v>
+        <v>101456</v>
       </c>
       <c r="AP15" s="11">
-        <v>101456</v>
+        <v>107576</v>
       </c>
       <c r="AQ15" s="11">
-        <v>107576</v>
+        <v>102471</v>
       </c>
       <c r="AR15" s="11">
-        <v>102471</v>
+        <v>88471</v>
       </c>
       <c r="AS15" s="11">
-        <v>88471</v>
+        <v>104427</v>
       </c>
       <c r="AT15" s="11">
-        <v>104427</v>
+        <v>108137</v>
       </c>
       <c r="AU15" s="11">
-        <v>108137</v>
+        <v>112234</v>
       </c>
       <c r="AV15" s="11">
-        <v>112234</v>
+        <v>101579</v>
       </c>
       <c r="AW15" s="11">
-        <v>101579</v>
+        <v>95146</v>
       </c>
       <c r="AX15" s="11">
-        <v>95146</v>
+        <v>63630</v>
       </c>
       <c r="AY15" s="11">
-        <v>63630</v>
+        <v>110792</v>
       </c>
       <c r="AZ15" s="11">
-        <v>110792</v>
+        <v>106024</v>
       </c>
       <c r="BA15" s="11">
-        <v>106024</v>
+        <v>107008</v>
       </c>
       <c r="BB15" s="11">
-        <v>107008</v>
+        <v>103816</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2245,140 +2245,140 @@
       <c r="I16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>62</v>
+      <c r="J16" s="13">
+        <v>118301</v>
       </c>
       <c r="K16" s="13">
-        <v>118301</v>
+        <v>122424</v>
       </c>
       <c r="L16" s="13">
-        <v>122424</v>
+        <v>104633</v>
       </c>
       <c r="M16" s="13">
-        <v>104633</v>
+        <v>131336</v>
       </c>
       <c r="N16" s="13">
-        <v>131336</v>
+        <v>146305</v>
       </c>
       <c r="O16" s="13">
-        <v>146305</v>
+        <v>136552</v>
       </c>
       <c r="P16" s="13">
-        <v>136552</v>
+        <v>118231</v>
       </c>
       <c r="Q16" s="13">
-        <v>118231</v>
+        <v>132818</v>
       </c>
       <c r="R16" s="13">
-        <v>132818</v>
+        <v>142503</v>
       </c>
       <c r="S16" s="13">
-        <v>142503</v>
+        <v>149220</v>
       </c>
       <c r="T16" s="13">
-        <v>149220</v>
+        <v>142034</v>
       </c>
       <c r="U16" s="13">
-        <v>142034</v>
+        <v>137100</v>
       </c>
       <c r="V16" s="13">
-        <v>137100</v>
+        <v>138219</v>
       </c>
       <c r="W16" s="13">
-        <v>138219</v>
+        <v>138617</v>
       </c>
       <c r="X16" s="13">
-        <v>138617</v>
+        <v>144545</v>
       </c>
       <c r="Y16" s="13">
-        <v>144545</v>
+        <v>138241</v>
       </c>
       <c r="Z16" s="13">
-        <v>138241</v>
+        <v>147473</v>
       </c>
       <c r="AA16" s="13">
-        <v>147473</v>
+        <v>125260</v>
       </c>
       <c r="AB16" s="13">
-        <v>125260</v>
+        <v>76829</v>
       </c>
       <c r="AC16" s="13">
-        <v>76829</v>
+        <v>144233</v>
       </c>
       <c r="AD16" s="13">
-        <v>144233</v>
+        <v>140137</v>
       </c>
       <c r="AE16" s="13">
-        <v>140137</v>
+        <v>125206</v>
       </c>
       <c r="AF16" s="13">
-        <v>125206</v>
+        <v>140848</v>
       </c>
       <c r="AG16" s="13">
-        <v>140848</v>
+        <v>143235</v>
       </c>
       <c r="AH16" s="13">
-        <v>143235</v>
+        <v>155877</v>
       </c>
       <c r="AI16" s="13">
-        <v>155877</v>
+        <v>135308</v>
       </c>
       <c r="AJ16" s="13">
-        <v>135308</v>
+        <v>155380</v>
       </c>
       <c r="AK16" s="13">
-        <v>155380</v>
+        <v>111591</v>
       </c>
       <c r="AL16" s="13">
-        <v>111591</v>
+        <v>137296</v>
       </c>
       <c r="AM16" s="13">
-        <v>137296</v>
+        <v>119155</v>
       </c>
       <c r="AN16" s="13">
-        <v>119155</v>
+        <v>50166</v>
       </c>
       <c r="AO16" s="13">
-        <v>50166</v>
+        <v>134534</v>
       </c>
       <c r="AP16" s="13">
-        <v>134534</v>
+        <v>134942</v>
       </c>
       <c r="AQ16" s="13">
-        <v>134942</v>
+        <v>132751</v>
       </c>
       <c r="AR16" s="13">
-        <v>132751</v>
+        <v>55848</v>
       </c>
       <c r="AS16" s="13">
-        <v>55848</v>
+        <v>141888</v>
       </c>
       <c r="AT16" s="13">
-        <v>141888</v>
+        <v>156041</v>
       </c>
       <c r="AU16" s="13">
-        <v>156041</v>
+        <v>156503</v>
       </c>
       <c r="AV16" s="13">
-        <v>156503</v>
+        <v>152322</v>
       </c>
       <c r="AW16" s="13">
-        <v>152322</v>
+        <v>155946</v>
       </c>
       <c r="AX16" s="13">
-        <v>155946</v>
+        <v>144644</v>
       </c>
       <c r="AY16" s="13">
-        <v>144644</v>
+        <v>157360</v>
       </c>
       <c r="AZ16" s="13">
-        <v>157360</v>
+        <v>152513</v>
       </c>
       <c r="BA16" s="13">
-        <v>152513</v>
+        <v>143914</v>
       </c>
       <c r="BB16" s="13">
-        <v>143914</v>
+        <v>113966</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2677,8 +2677,8 @@
       <c r="AU18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AV18" s="13" t="s">
-        <v>62</v>
+      <c r="AV18" s="13">
+        <v>0</v>
       </c>
       <c r="AW18" s="13">
         <v>0</v>
@@ -2722,8 +2722,8 @@
       <c r="I19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>62</v>
+      <c r="J19" s="11">
+        <v>0</v>
       </c>
       <c r="K19" s="11">
         <v>0</v>
@@ -2890,11 +2890,11 @@
       <c r="L20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>62</v>
+      <c r="M20" s="13">
+        <v>167243</v>
       </c>
       <c r="N20" s="13">
-        <v>167243</v>
+        <v>0</v>
       </c>
       <c r="O20" s="13">
         <v>0</v>
@@ -2917,8 +2917,8 @@
       <c r="U20" s="13">
         <v>0</v>
       </c>
-      <c r="V20" s="13">
-        <v>0</v>
+      <c r="V20" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="W20" s="13" t="s">
         <v>62</v>
@@ -2926,8 +2926,8 @@
       <c r="X20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>62</v>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="AS20" s="13">
-        <v>0</v>
+        <v>47674</v>
       </c>
       <c r="AT20" s="13">
-        <v>47674</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="13">
         <v>0</v>
@@ -3002,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="AX20" s="13">
-        <v>0</v>
+        <v>16366</v>
       </c>
       <c r="AY20" s="13">
-        <v>16366</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="13">
         <v>0</v>
       </c>
       <c r="BA20" s="13">
-        <v>0</v>
+        <v>7480</v>
       </c>
       <c r="BB20" s="13">
-        <v>0</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3058,8 +3058,8 @@
       <c r="O21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="11" t="s">
-        <v>62</v>
+      <c r="P21" s="11">
+        <v>0</v>
       </c>
       <c r="Q21" s="11">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="AG21" s="11">
-        <v>0</v>
+        <v>281933</v>
       </c>
       <c r="AH21" s="11">
-        <v>281933</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="11">
         <v>0</v>
@@ -3140,40 +3140,40 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="11">
-        <v>0</v>
+        <v>153085</v>
       </c>
       <c r="AR21" s="11">
-        <v>153085</v>
+        <v>290605</v>
       </c>
       <c r="AS21" s="11">
-        <v>290605</v>
+        <v>280405</v>
       </c>
       <c r="AT21" s="11">
-        <v>280405</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="11">
-        <v>0</v>
+        <v>537011</v>
       </c>
       <c r="AV21" s="11">
-        <v>537011</v>
+        <v>288700</v>
       </c>
       <c r="AW21" s="11">
-        <v>288700</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="11">
-        <v>0</v>
+        <v>593728</v>
       </c>
       <c r="AY21" s="11">
-        <v>593728</v>
+        <v>295882</v>
       </c>
       <c r="AZ21" s="11">
-        <v>295882</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="11">
-        <v>286743</v>
+        <v>290462</v>
       </c>
       <c r="BB21" s="11">
-        <v>290462</v>
+        <v>289741</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3458,8 +3458,8 @@
       <c r="X24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="15" t="s">
-        <v>62</v>
+      <c r="Y24" s="15">
+        <v>0</v>
       </c>
       <c r="Z24" s="15">
         <v>0</v>
@@ -3556,154 +3556,154 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17">
-        <v>1150205</v>
+        <v>1189443</v>
       </c>
       <c r="F25" s="17">
-        <v>1189443</v>
+        <v>1186902</v>
       </c>
       <c r="G25" s="17">
-        <v>1186902</v>
+        <v>1248610</v>
       </c>
       <c r="H25" s="17">
-        <v>1248610</v>
+        <v>1056483</v>
       </c>
       <c r="I25" s="17">
-        <v>1056483</v>
+        <v>1091261</v>
       </c>
       <c r="J25" s="17">
-        <v>1091261</v>
+        <v>1410126</v>
       </c>
       <c r="K25" s="17">
-        <v>1410126</v>
+        <v>1444624</v>
       </c>
       <c r="L25" s="17">
-        <v>1444624</v>
+        <v>1233231</v>
       </c>
       <c r="M25" s="17">
-        <v>1233231</v>
+        <v>1495914</v>
       </c>
       <c r="N25" s="17">
-        <v>1495914</v>
+        <v>1361899</v>
       </c>
       <c r="O25" s="17">
-        <v>1361899</v>
+        <v>1024890</v>
       </c>
       <c r="P25" s="17">
-        <v>1024890</v>
+        <v>1088804</v>
       </c>
       <c r="Q25" s="17">
-        <v>1088804</v>
+        <v>1207795</v>
       </c>
       <c r="R25" s="17">
-        <v>1207795</v>
+        <v>1160158</v>
       </c>
       <c r="S25" s="17">
-        <v>1160158</v>
+        <v>1379235</v>
       </c>
       <c r="T25" s="17">
-        <v>1379235</v>
+        <v>1467411</v>
       </c>
       <c r="U25" s="17">
-        <v>1467411</v>
+        <v>1341867</v>
       </c>
       <c r="V25" s="17">
-        <v>1341867</v>
+        <v>1244181</v>
       </c>
       <c r="W25" s="17">
-        <v>1244181</v>
+        <v>1358897</v>
       </c>
       <c r="X25" s="17">
-        <v>1358897</v>
+        <v>1411810</v>
       </c>
       <c r="Y25" s="17">
-        <v>1411810</v>
+        <v>1465786</v>
       </c>
       <c r="Z25" s="17">
-        <v>1465786</v>
+        <v>1545491</v>
       </c>
       <c r="AA25" s="17">
-        <v>1545491</v>
+        <v>1385401</v>
       </c>
       <c r="AB25" s="17">
-        <v>1385401</v>
+        <v>1359024</v>
       </c>
       <c r="AC25" s="17">
-        <v>1359024</v>
+        <v>1559667</v>
       </c>
       <c r="AD25" s="17">
-        <v>1559667</v>
+        <v>1434150</v>
       </c>
       <c r="AE25" s="17">
-        <v>1434150</v>
+        <v>1435780</v>
       </c>
       <c r="AF25" s="17">
-        <v>1435780</v>
+        <v>1472283</v>
       </c>
       <c r="AG25" s="17">
-        <v>1472283</v>
+        <v>1717083</v>
       </c>
       <c r="AH25" s="17">
-        <v>1717083</v>
+        <v>1403550</v>
       </c>
       <c r="AI25" s="17">
-        <v>1403550</v>
+        <v>1508223</v>
       </c>
       <c r="AJ25" s="17">
-        <v>1508223</v>
+        <v>1376440</v>
       </c>
       <c r="AK25" s="17">
-        <v>1376440</v>
+        <v>1386223</v>
       </c>
       <c r="AL25" s="17">
-        <v>1386223</v>
+        <v>1471158</v>
       </c>
       <c r="AM25" s="17">
-        <v>1471158</v>
+        <v>1491574</v>
       </c>
       <c r="AN25" s="17">
-        <v>1491574</v>
+        <v>1413712</v>
       </c>
       <c r="AO25" s="17">
-        <v>1413712</v>
+        <v>1529636</v>
       </c>
       <c r="AP25" s="17">
-        <v>1529636</v>
+        <v>1464189</v>
       </c>
       <c r="AQ25" s="17">
-        <v>1464189</v>
+        <v>1659425</v>
       </c>
       <c r="AR25" s="17">
-        <v>1659425</v>
+        <v>1692910</v>
       </c>
       <c r="AS25" s="17">
-        <v>1692910</v>
+        <v>1807149</v>
       </c>
       <c r="AT25" s="17">
-        <v>1807149</v>
+        <v>1577228</v>
       </c>
       <c r="AU25" s="17">
-        <v>1577228</v>
+        <v>2172211</v>
       </c>
       <c r="AV25" s="17">
-        <v>2172211</v>
+        <v>1740438</v>
       </c>
       <c r="AW25" s="17">
-        <v>1740438</v>
+        <v>909582</v>
       </c>
       <c r="AX25" s="17">
-        <v>909582</v>
+        <v>1865143</v>
       </c>
       <c r="AY25" s="17">
-        <v>1865143</v>
+        <v>1730557</v>
       </c>
       <c r="AZ25" s="17">
-        <v>1730557</v>
+        <v>1509272</v>
       </c>
       <c r="BA25" s="17">
-        <v>1796015</v>
+        <v>1795919</v>
       </c>
       <c r="BB25" s="17">
-        <v>1789865</v>
+        <v>1825756</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4149,37 +4149,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>21758</v>
+        <v>62883</v>
       </c>
       <c r="F32" s="11">
-        <v>62883</v>
+        <v>476</v>
       </c>
       <c r="G32" s="11">
-        <v>476</v>
+        <v>25406</v>
       </c>
       <c r="H32" s="11">
-        <v>25406</v>
+        <v>35686</v>
       </c>
       <c r="I32" s="11">
-        <v>35686</v>
+        <v>0</v>
       </c>
       <c r="J32" s="11">
-        <v>0</v>
+        <v>28133</v>
       </c>
       <c r="K32" s="11">
-        <v>28133</v>
+        <v>21878</v>
       </c>
       <c r="L32" s="11">
-        <v>21878</v>
+        <v>20</v>
       </c>
       <c r="M32" s="11">
-        <v>20</v>
+        <v>35407</v>
       </c>
       <c r="N32" s="11">
-        <v>35407</v>
+        <v>9613</v>
       </c>
       <c r="O32" s="11">
-        <v>9613</v>
+        <v>0</v>
       </c>
       <c r="P32" s="11">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="11">
-        <v>0</v>
+        <v>28714</v>
       </c>
       <c r="U32" s="11">
-        <v>28714</v>
+        <v>31297</v>
       </c>
       <c r="V32" s="11">
-        <v>31297</v>
+        <v>0</v>
       </c>
       <c r="W32" s="11">
         <v>0</v>
@@ -4212,25 +4212,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="11">
-        <v>0</v>
+        <v>58320</v>
       </c>
       <c r="AA32" s="11">
-        <v>58320</v>
+        <v>38153</v>
       </c>
       <c r="AB32" s="11">
-        <v>38153</v>
+        <v>20777</v>
       </c>
       <c r="AC32" s="11">
-        <v>20777</v>
+        <v>29227</v>
       </c>
       <c r="AD32" s="11">
-        <v>29227</v>
+        <v>12631</v>
       </c>
       <c r="AE32" s="11">
-        <v>12631</v>
+        <v>37367</v>
       </c>
       <c r="AF32" s="11">
-        <v>37367</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="11">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>0</v>
       </c>
       <c r="AN32" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO32" s="11">
-        <v>23</v>
+        <v>3000</v>
       </c>
       <c r="AP32" s="11">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="11">
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="AR32" s="11">
-        <v>3011</v>
+        <v>-6</v>
       </c>
       <c r="AS32" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="11">
         <v>0</v>
@@ -4308,154 +4308,154 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>333074</v>
+        <v>313519</v>
       </c>
       <c r="F33" s="13">
-        <v>313519</v>
+        <v>358494</v>
       </c>
       <c r="G33" s="13">
-        <v>358494</v>
+        <v>227633</v>
       </c>
       <c r="H33" s="13">
-        <v>227633</v>
+        <v>147403</v>
       </c>
       <c r="I33" s="13">
-        <v>147403</v>
+        <v>147567</v>
       </c>
       <c r="J33" s="13">
-        <v>147567</v>
+        <v>193299</v>
       </c>
       <c r="K33" s="13">
-        <v>193299</v>
+        <v>130145</v>
       </c>
       <c r="L33" s="13">
-        <v>130145</v>
+        <v>154322</v>
       </c>
       <c r="M33" s="13">
-        <v>154322</v>
+        <v>174719</v>
       </c>
       <c r="N33" s="13">
-        <v>174719</v>
+        <v>139229</v>
       </c>
       <c r="O33" s="13">
-        <v>139229</v>
+        <v>7315</v>
       </c>
       <c r="P33" s="13">
-        <v>7315</v>
+        <v>52593</v>
       </c>
       <c r="Q33" s="13">
-        <v>52593</v>
+        <v>138726</v>
       </c>
       <c r="R33" s="13">
-        <v>138726</v>
+        <v>132115</v>
       </c>
       <c r="S33" s="13">
-        <v>132115</v>
+        <v>123144</v>
       </c>
       <c r="T33" s="13">
-        <v>123144</v>
+        <v>128645</v>
       </c>
       <c r="U33" s="13">
-        <v>128645</v>
+        <v>102646</v>
       </c>
       <c r="V33" s="13">
-        <v>102646</v>
+        <v>110030</v>
       </c>
       <c r="W33" s="13">
-        <v>110030</v>
+        <v>42901</v>
       </c>
       <c r="X33" s="13">
-        <v>42901</v>
+        <v>92670</v>
       </c>
       <c r="Y33" s="13">
-        <v>92670</v>
+        <v>105230</v>
       </c>
       <c r="Z33" s="13">
-        <v>105230</v>
+        <v>91665</v>
       </c>
       <c r="AA33" s="13">
-        <v>91665</v>
+        <v>122578</v>
       </c>
       <c r="AB33" s="13">
-        <v>122578</v>
+        <v>167229</v>
       </c>
       <c r="AC33" s="13">
-        <v>167229</v>
+        <v>134104</v>
       </c>
       <c r="AD33" s="13">
-        <v>134104</v>
+        <v>108748</v>
       </c>
       <c r="AE33" s="13">
-        <v>108748</v>
+        <v>140237</v>
       </c>
       <c r="AF33" s="13">
-        <v>140237</v>
+        <v>154133</v>
       </c>
       <c r="AG33" s="13">
-        <v>154133</v>
+        <v>149185</v>
       </c>
       <c r="AH33" s="13">
-        <v>149185</v>
+        <v>84707</v>
       </c>
       <c r="AI33" s="13">
-        <v>84707</v>
+        <v>69710</v>
       </c>
       <c r="AJ33" s="13">
-        <v>69710</v>
+        <v>49780</v>
       </c>
       <c r="AK33" s="13">
-        <v>49780</v>
+        <v>37790</v>
       </c>
       <c r="AL33" s="13">
-        <v>37790</v>
+        <v>173871</v>
       </c>
       <c r="AM33" s="13">
-        <v>173871</v>
+        <v>166349</v>
       </c>
       <c r="AN33" s="13">
-        <v>166349</v>
+        <v>254035</v>
       </c>
       <c r="AO33" s="13">
-        <v>254035</v>
+        <v>185338</v>
       </c>
       <c r="AP33" s="13">
-        <v>185338</v>
+        <v>158771</v>
       </c>
       <c r="AQ33" s="13">
-        <v>158771</v>
+        <v>173801</v>
       </c>
       <c r="AR33" s="13">
-        <v>173801</v>
+        <v>247192</v>
       </c>
       <c r="AS33" s="13">
-        <v>247192</v>
+        <v>200717</v>
       </c>
       <c r="AT33" s="13">
-        <v>200717</v>
+        <v>204234</v>
       </c>
       <c r="AU33" s="13">
-        <v>204234</v>
+        <v>145789</v>
       </c>
       <c r="AV33" s="13">
-        <v>145789</v>
+        <v>91838</v>
       </c>
       <c r="AW33" s="13">
-        <v>91838</v>
+        <v>42626</v>
       </c>
       <c r="AX33" s="13">
-        <v>42626</v>
+        <v>111900</v>
       </c>
       <c r="AY33" s="13">
-        <v>111900</v>
+        <v>150587</v>
       </c>
       <c r="AZ33" s="13">
-        <v>150587</v>
+        <v>145564</v>
       </c>
       <c r="BA33" s="13">
-        <v>145564</v>
+        <v>152661</v>
       </c>
       <c r="BB33" s="13">
-        <v>152661</v>
+        <v>78987</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4467,154 +4467,154 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>407888</v>
+        <v>453945</v>
       </c>
       <c r="F34" s="11">
-        <v>453945</v>
+        <v>494475</v>
       </c>
       <c r="G34" s="11">
-        <v>494475</v>
+        <v>500439</v>
       </c>
       <c r="H34" s="11">
-        <v>500439</v>
+        <v>420490</v>
       </c>
       <c r="I34" s="11">
-        <v>420490</v>
+        <v>378976</v>
       </c>
       <c r="J34" s="11">
-        <v>378976</v>
+        <v>476363</v>
       </c>
       <c r="K34" s="11">
-        <v>476363</v>
+        <v>482951</v>
       </c>
       <c r="L34" s="11">
-        <v>482951</v>
+        <v>418892</v>
       </c>
       <c r="M34" s="11">
-        <v>418892</v>
+        <v>405551</v>
       </c>
       <c r="N34" s="11">
-        <v>405551</v>
+        <v>472174</v>
       </c>
       <c r="O34" s="11">
-        <v>472174</v>
+        <v>530812</v>
       </c>
       <c r="P34" s="11">
-        <v>530812</v>
+        <v>508542</v>
       </c>
       <c r="Q34" s="11">
-        <v>508542</v>
+        <v>372043</v>
       </c>
       <c r="R34" s="11">
-        <v>372043</v>
+        <v>335147</v>
       </c>
       <c r="S34" s="11">
-        <v>335147</v>
+        <v>408451</v>
       </c>
       <c r="T34" s="11">
-        <v>408451</v>
+        <v>414979</v>
       </c>
       <c r="U34" s="11">
-        <v>414979</v>
+        <v>334257</v>
       </c>
       <c r="V34" s="11">
-        <v>334257</v>
+        <v>338048</v>
       </c>
       <c r="W34" s="11">
-        <v>338048</v>
+        <v>543871</v>
       </c>
       <c r="X34" s="11">
-        <v>543871</v>
+        <v>418016</v>
       </c>
       <c r="Y34" s="11">
-        <v>418016</v>
+        <v>445515</v>
       </c>
       <c r="Z34" s="11">
-        <v>445515</v>
+        <v>438003</v>
       </c>
       <c r="AA34" s="11">
-        <v>438003</v>
+        <v>529527</v>
       </c>
       <c r="AB34" s="11">
-        <v>529527</v>
+        <v>651090</v>
       </c>
       <c r="AC34" s="11">
-        <v>651090</v>
+        <v>680662</v>
       </c>
       <c r="AD34" s="11">
-        <v>680662</v>
+        <v>660912</v>
       </c>
       <c r="AE34" s="11">
-        <v>660912</v>
+        <v>685654</v>
       </c>
       <c r="AF34" s="11">
-        <v>685654</v>
+        <v>818316</v>
       </c>
       <c r="AG34" s="11">
-        <v>818316</v>
+        <v>731218</v>
       </c>
       <c r="AH34" s="11">
-        <v>731218</v>
+        <v>694298</v>
       </c>
       <c r="AI34" s="11">
-        <v>694298</v>
+        <v>702417</v>
       </c>
       <c r="AJ34" s="11">
-        <v>702417</v>
+        <v>729397</v>
       </c>
       <c r="AK34" s="11">
-        <v>729397</v>
+        <v>730469</v>
       </c>
       <c r="AL34" s="11">
-        <v>730469</v>
+        <v>688770</v>
       </c>
       <c r="AM34" s="11">
-        <v>688770</v>
+        <v>708142</v>
       </c>
       <c r="AN34" s="11">
-        <v>708142</v>
+        <v>528007</v>
       </c>
       <c r="AO34" s="11">
-        <v>528007</v>
+        <v>570551</v>
       </c>
       <c r="AP34" s="11">
-        <v>570551</v>
+        <v>611278</v>
       </c>
       <c r="AQ34" s="11">
-        <v>611278</v>
+        <v>569298</v>
       </c>
       <c r="AR34" s="11">
-        <v>569298</v>
+        <v>602378</v>
       </c>
       <c r="AS34" s="11">
-        <v>602378</v>
+        <v>513064</v>
       </c>
       <c r="AT34" s="11">
-        <v>513064</v>
+        <v>562918</v>
       </c>
       <c r="AU34" s="11">
-        <v>562918</v>
+        <v>500010</v>
       </c>
       <c r="AV34" s="11">
-        <v>500010</v>
+        <v>624784</v>
       </c>
       <c r="AW34" s="11">
-        <v>624784</v>
+        <v>624301</v>
       </c>
       <c r="AX34" s="11">
-        <v>624301</v>
+        <v>445033</v>
       </c>
       <c r="AY34" s="11">
-        <v>445033</v>
+        <v>517851</v>
       </c>
       <c r="AZ34" s="11">
-        <v>517851</v>
+        <v>491151</v>
       </c>
       <c r="BA34" s="11">
-        <v>491151</v>
+        <v>616125</v>
       </c>
       <c r="BB34" s="11">
-        <v>464380</v>
+        <v>356312</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4626,154 +4626,154 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>240</v>
+        <v>1271</v>
       </c>
       <c r="F35" s="13">
-        <v>1271</v>
+        <v>5184</v>
       </c>
       <c r="G35" s="13">
-        <v>5184</v>
+        <v>809</v>
       </c>
       <c r="H35" s="13">
-        <v>809</v>
+        <v>413</v>
       </c>
       <c r="I35" s="13">
-        <v>413</v>
+        <v>773</v>
       </c>
       <c r="J35" s="13">
-        <v>773</v>
+        <v>277</v>
       </c>
       <c r="K35" s="13">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="L35" s="13">
-        <v>203</v>
+        <v>15664</v>
       </c>
       <c r="M35" s="13">
-        <v>15664</v>
+        <v>9306</v>
       </c>
       <c r="N35" s="13">
-        <v>9306</v>
+        <v>786</v>
       </c>
       <c r="O35" s="13">
-        <v>786</v>
+        <v>7164</v>
       </c>
       <c r="P35" s="13">
-        <v>7164</v>
+        <v>11052</v>
       </c>
       <c r="Q35" s="13">
-        <v>11052</v>
+        <v>2631</v>
       </c>
       <c r="R35" s="13">
-        <v>2631</v>
+        <v>0</v>
       </c>
       <c r="S35" s="13">
         <v>0</v>
       </c>
       <c r="T35" s="13">
-        <v>0</v>
+        <v>4880</v>
       </c>
       <c r="U35" s="13">
-        <v>4880</v>
+        <v>4981</v>
       </c>
       <c r="V35" s="13">
-        <v>4981</v>
+        <v>54</v>
       </c>
       <c r="W35" s="13">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="X35" s="13">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="Y35" s="13">
-        <v>1015</v>
+        <v>7140</v>
       </c>
       <c r="Z35" s="13">
-        <v>7140</v>
+        <v>19921</v>
       </c>
       <c r="AA35" s="13">
-        <v>19921</v>
+        <v>2349</v>
       </c>
       <c r="AB35" s="13">
-        <v>2349</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="13">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="AD35" s="13">
-        <v>1119</v>
+        <v>6014</v>
       </c>
       <c r="AE35" s="13">
-        <v>6014</v>
+        <v>12817</v>
       </c>
       <c r="AF35" s="13">
-        <v>12817</v>
+        <v>1947</v>
       </c>
       <c r="AG35" s="13">
-        <v>1947</v>
+        <v>810</v>
       </c>
       <c r="AH35" s="13">
-        <v>810</v>
+        <v>664</v>
       </c>
       <c r="AI35" s="13">
-        <v>664</v>
+        <v>22805</v>
       </c>
       <c r="AJ35" s="13">
-        <v>22805</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="13">
-        <v>0</v>
+        <v>9940</v>
       </c>
       <c r="AL35" s="13">
-        <v>9940</v>
+        <v>1243</v>
       </c>
       <c r="AM35" s="13">
-        <v>1243</v>
+        <v>2062</v>
       </c>
       <c r="AN35" s="13">
-        <v>2062</v>
+        <v>9229</v>
       </c>
       <c r="AO35" s="13">
-        <v>9229</v>
+        <v>2967</v>
       </c>
       <c r="AP35" s="13">
-        <v>2967</v>
+        <v>9566</v>
       </c>
       <c r="AQ35" s="13">
+        <v>13202</v>
+      </c>
+      <c r="AR35" s="13">
         <v>9566</v>
       </c>
-      <c r="AR35" s="13">
-        <v>13202</v>
-      </c>
       <c r="AS35" s="13">
-        <v>9566</v>
+        <v>2812</v>
       </c>
       <c r="AT35" s="13">
-        <v>2812</v>
+        <v>161</v>
       </c>
       <c r="AU35" s="13">
-        <v>161</v>
+        <v>5897</v>
       </c>
       <c r="AV35" s="13">
-        <v>5897</v>
+        <v>6031</v>
       </c>
       <c r="AW35" s="13">
-        <v>6031</v>
+        <v>4036</v>
       </c>
       <c r="AX35" s="13">
-        <v>4036</v>
+        <v>19819</v>
       </c>
       <c r="AY35" s="13">
-        <v>19819</v>
+        <v>10169</v>
       </c>
       <c r="AZ35" s="13">
-        <v>10169</v>
+        <v>11047</v>
       </c>
       <c r="BA35" s="13">
-        <v>11047</v>
+        <v>3830</v>
       </c>
       <c r="BB35" s="13">
-        <v>3837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4785,154 +4785,154 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>50543</v>
+        <v>70060</v>
       </c>
       <c r="F36" s="11">
-        <v>70060</v>
+        <v>41357</v>
       </c>
       <c r="G36" s="11">
-        <v>41357</v>
+        <v>126443</v>
       </c>
       <c r="H36" s="11">
-        <v>126443</v>
+        <v>45353</v>
       </c>
       <c r="I36" s="11">
-        <v>45353</v>
+        <v>105030</v>
       </c>
       <c r="J36" s="11">
-        <v>105030</v>
+        <v>58557</v>
       </c>
       <c r="K36" s="11">
-        <v>58557</v>
+        <v>73082</v>
       </c>
       <c r="L36" s="11">
-        <v>73082</v>
+        <v>70913</v>
       </c>
       <c r="M36" s="11">
-        <v>70913</v>
+        <v>140677</v>
       </c>
       <c r="N36" s="11">
-        <v>140677</v>
+        <v>79921</v>
       </c>
       <c r="O36" s="11">
-        <v>79921</v>
+        <v>73466</v>
       </c>
       <c r="P36" s="11">
-        <v>73466</v>
+        <v>50500</v>
       </c>
       <c r="Q36" s="11">
-        <v>50500</v>
+        <v>95064</v>
       </c>
       <c r="R36" s="11">
-        <v>95064</v>
+        <v>60493</v>
       </c>
       <c r="S36" s="11">
-        <v>60493</v>
+        <v>98150</v>
       </c>
       <c r="T36" s="11">
-        <v>98150</v>
+        <v>124400</v>
       </c>
       <c r="U36" s="11">
-        <v>124400</v>
+        <v>73905</v>
       </c>
       <c r="V36" s="11">
-        <v>73905</v>
+        <v>15635</v>
       </c>
       <c r="W36" s="11">
-        <v>15635</v>
+        <v>57527</v>
       </c>
       <c r="X36" s="11">
-        <v>57527</v>
+        <v>62218</v>
       </c>
       <c r="Y36" s="11">
-        <v>62218</v>
+        <v>77803</v>
       </c>
       <c r="Z36" s="11">
-        <v>77803</v>
+        <v>150340</v>
       </c>
       <c r="AA36" s="11">
-        <v>150340</v>
+        <v>56784</v>
       </c>
       <c r="AB36" s="11">
-        <v>56784</v>
+        <v>100756</v>
       </c>
       <c r="AC36" s="11">
-        <v>100756</v>
+        <v>80097</v>
       </c>
       <c r="AD36" s="11">
-        <v>80097</v>
+        <v>92925</v>
       </c>
       <c r="AE36" s="11">
-        <v>92925</v>
+        <v>79147</v>
       </c>
       <c r="AF36" s="11">
-        <v>79147</v>
+        <v>142621</v>
       </c>
       <c r="AG36" s="11">
-        <v>142621</v>
+        <v>92055</v>
       </c>
       <c r="AH36" s="11">
-        <v>92055</v>
+        <v>60584</v>
       </c>
       <c r="AI36" s="11">
-        <v>60584</v>
+        <v>54380</v>
       </c>
       <c r="AJ36" s="11">
-        <v>54380</v>
+        <v>126846</v>
       </c>
       <c r="AK36" s="11">
-        <v>126846</v>
+        <v>59447</v>
       </c>
       <c r="AL36" s="11">
-        <v>59447</v>
+        <v>75784</v>
       </c>
       <c r="AM36" s="11">
-        <v>75784</v>
+        <v>59022</v>
       </c>
       <c r="AN36" s="11">
-        <v>59022</v>
+        <v>86189</v>
       </c>
       <c r="AO36" s="11">
-        <v>86189</v>
+        <v>70231</v>
       </c>
       <c r="AP36" s="11">
-        <v>70231</v>
+        <v>98856</v>
       </c>
       <c r="AQ36" s="11">
-        <v>98856</v>
+        <v>98548</v>
       </c>
       <c r="AR36" s="11">
-        <v>98548</v>
+        <v>109015</v>
       </c>
       <c r="AS36" s="11">
-        <v>109015</v>
+        <v>118762</v>
       </c>
       <c r="AT36" s="11">
-        <v>118762</v>
+        <v>103900</v>
       </c>
       <c r="AU36" s="11">
-        <v>103900</v>
+        <v>92852</v>
       </c>
       <c r="AV36" s="11">
-        <v>92852</v>
+        <v>111548</v>
       </c>
       <c r="AW36" s="11">
-        <v>111548</v>
+        <v>93372</v>
       </c>
       <c r="AX36" s="11">
-        <v>93372</v>
+        <v>65747</v>
       </c>
       <c r="AY36" s="11">
-        <v>65747</v>
+        <v>80303</v>
       </c>
       <c r="AZ36" s="11">
-        <v>80303</v>
+        <v>98236</v>
       </c>
       <c r="BA36" s="11">
-        <v>98236</v>
+        <v>129838</v>
       </c>
       <c r="BB36" s="11">
-        <v>129835</v>
+        <v>121441</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4958,110 +4958,110 @@
       <c r="I37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>62</v>
+      <c r="J37" s="13">
+        <v>6645</v>
       </c>
       <c r="K37" s="13">
-        <v>6645</v>
+        <v>6814</v>
       </c>
       <c r="L37" s="13">
-        <v>6814</v>
+        <v>33659</v>
       </c>
       <c r="M37" s="13">
-        <v>33659</v>
+        <v>24603</v>
       </c>
       <c r="N37" s="13">
-        <v>24603</v>
+        <v>74916</v>
       </c>
       <c r="O37" s="13">
-        <v>74916</v>
+        <v>23011</v>
       </c>
       <c r="P37" s="13">
-        <v>23011</v>
+        <v>28699</v>
       </c>
       <c r="Q37" s="13">
-        <v>28699</v>
+        <v>36688</v>
       </c>
       <c r="R37" s="13">
-        <v>36688</v>
+        <v>30082</v>
       </c>
       <c r="S37" s="13">
-        <v>30082</v>
+        <v>47678</v>
       </c>
       <c r="T37" s="13">
-        <v>47678</v>
+        <v>24360</v>
       </c>
       <c r="U37" s="13">
-        <v>24360</v>
+        <v>26812</v>
       </c>
       <c r="V37" s="13">
-        <v>26812</v>
+        <v>8429</v>
       </c>
       <c r="W37" s="13">
-        <v>8429</v>
+        <v>15457</v>
       </c>
       <c r="X37" s="13">
-        <v>15457</v>
+        <v>27703</v>
       </c>
       <c r="Y37" s="13">
-        <v>27703</v>
+        <v>15424</v>
       </c>
       <c r="Z37" s="13">
-        <v>15424</v>
+        <v>624</v>
       </c>
       <c r="AA37" s="13">
-        <v>624</v>
+        <v>33282</v>
       </c>
       <c r="AB37" s="13">
-        <v>33282</v>
+        <v>24012</v>
       </c>
       <c r="AC37" s="13">
-        <v>24012</v>
+        <v>47821</v>
       </c>
       <c r="AD37" s="13">
-        <v>47821</v>
+        <v>32854</v>
       </c>
       <c r="AE37" s="13">
-        <v>32854</v>
+        <v>13029</v>
       </c>
       <c r="AF37" s="13">
-        <v>13029</v>
+        <v>15524</v>
       </c>
       <c r="AG37" s="13">
-        <v>15524</v>
+        <v>20787</v>
       </c>
       <c r="AH37" s="13">
-        <v>20787</v>
+        <v>17715</v>
       </c>
       <c r="AI37" s="13">
-        <v>17715</v>
+        <v>9417</v>
       </c>
       <c r="AJ37" s="13">
-        <v>9417</v>
+        <v>11565</v>
       </c>
       <c r="AK37" s="13">
-        <v>11565</v>
+        <v>18014</v>
       </c>
       <c r="AL37" s="13">
-        <v>18014</v>
+        <v>30181</v>
       </c>
       <c r="AM37" s="13">
-        <v>30181</v>
+        <v>24591</v>
       </c>
       <c r="AN37" s="13">
-        <v>24591</v>
+        <v>31214</v>
       </c>
       <c r="AO37" s="13">
-        <v>31214</v>
+        <v>24206</v>
       </c>
       <c r="AP37" s="13">
-        <v>24206</v>
+        <v>1179</v>
       </c>
       <c r="AQ37" s="13">
-        <v>1179</v>
+        <v>4641</v>
       </c>
       <c r="AR37" s="13">
-        <v>4641</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="13">
         <v>0</v>
@@ -5070,28 +5070,28 @@
         <v>0</v>
       </c>
       <c r="AU37" s="13">
-        <v>0</v>
+        <v>11874</v>
       </c>
       <c r="AV37" s="13">
-        <v>11874</v>
+        <v>8116</v>
       </c>
       <c r="AW37" s="13">
-        <v>8116</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="13">
         <v>0</v>
       </c>
       <c r="AY37" s="13">
-        <v>0</v>
+        <v>25662</v>
       </c>
       <c r="AZ37" s="13">
-        <v>25662</v>
+        <v>34689</v>
       </c>
       <c r="BA37" s="13">
-        <v>34689</v>
+        <v>45837</v>
       </c>
       <c r="BB37" s="13">
-        <v>45837</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5103,154 +5103,154 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>259339</v>
+        <v>281097</v>
       </c>
       <c r="F38" s="11">
-        <v>281097</v>
+        <v>275241</v>
       </c>
       <c r="G38" s="11">
-        <v>275241</v>
+        <v>270659</v>
       </c>
       <c r="H38" s="11">
-        <v>270659</v>
+        <v>248756</v>
       </c>
       <c r="I38" s="11">
-        <v>248756</v>
+        <v>270469</v>
       </c>
       <c r="J38" s="11">
-        <v>270469</v>
+        <v>318025</v>
       </c>
       <c r="K38" s="11">
-        <v>318025</v>
+        <v>316929</v>
       </c>
       <c r="L38" s="11">
-        <v>316929</v>
+        <v>291054</v>
       </c>
       <c r="M38" s="11">
-        <v>291054</v>
+        <v>254476</v>
       </c>
       <c r="N38" s="11">
-        <v>254476</v>
+        <v>281607</v>
       </c>
       <c r="O38" s="11">
-        <v>281607</v>
+        <v>179086</v>
       </c>
       <c r="P38" s="11">
-        <v>179086</v>
+        <v>169177</v>
       </c>
       <c r="Q38" s="11">
-        <v>169177</v>
+        <v>275391</v>
       </c>
       <c r="R38" s="11">
-        <v>275391</v>
+        <v>263758</v>
       </c>
       <c r="S38" s="11">
-        <v>263758</v>
+        <v>324577</v>
       </c>
       <c r="T38" s="11">
-        <v>324577</v>
+        <v>311216</v>
       </c>
       <c r="U38" s="11">
-        <v>311216</v>
+        <v>285832</v>
       </c>
       <c r="V38" s="11">
-        <v>285832</v>
+        <v>315365</v>
       </c>
       <c r="W38" s="11">
-        <v>315365</v>
+        <v>198207</v>
       </c>
       <c r="X38" s="11">
-        <v>198207</v>
+        <v>285127</v>
       </c>
       <c r="Y38" s="11">
-        <v>285127</v>
+        <v>290751</v>
       </c>
       <c r="Z38" s="11">
-        <v>290751</v>
+        <v>299857</v>
       </c>
       <c r="AA38" s="11">
-        <v>299857</v>
+        <v>268548</v>
       </c>
       <c r="AB38" s="11">
-        <v>268548</v>
+        <v>282113</v>
       </c>
       <c r="AC38" s="11">
-        <v>282113</v>
+        <v>232510</v>
       </c>
       <c r="AD38" s="11">
-        <v>232510</v>
+        <v>337728</v>
       </c>
       <c r="AE38" s="11">
-        <v>337728</v>
+        <v>288745</v>
       </c>
       <c r="AF38" s="11">
-        <v>288745</v>
+        <v>214681</v>
       </c>
       <c r="AG38" s="11">
-        <v>214681</v>
+        <v>281536</v>
       </c>
       <c r="AH38" s="11">
-        <v>281536</v>
+        <v>301556</v>
       </c>
       <c r="AI38" s="11">
-        <v>301556</v>
+        <v>288973</v>
       </c>
       <c r="AJ38" s="11">
-        <v>288973</v>
+        <v>210163</v>
       </c>
       <c r="AK38" s="11">
-        <v>210163</v>
+        <v>207067</v>
       </c>
       <c r="AL38" s="11">
-        <v>207067</v>
+        <v>259349</v>
       </c>
       <c r="AM38" s="11">
-        <v>259349</v>
+        <v>495271</v>
       </c>
       <c r="AN38" s="11">
-        <v>495271</v>
+        <v>351184</v>
       </c>
       <c r="AO38" s="11">
-        <v>351184</v>
+        <v>351003</v>
       </c>
       <c r="AP38" s="11">
-        <v>351003</v>
+        <v>387527</v>
       </c>
       <c r="AQ38" s="11">
-        <v>387527</v>
+        <v>348139</v>
       </c>
       <c r="AR38" s="11">
-        <v>348139</v>
+        <v>406156</v>
       </c>
       <c r="AS38" s="11">
-        <v>406156</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="11">
-        <v>0</v>
+        <v>367788</v>
       </c>
       <c r="AU38" s="11">
-        <v>367788</v>
+        <v>408019</v>
       </c>
       <c r="AV38" s="11">
-        <v>408019</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="11">
-        <v>0</v>
+        <v>60861</v>
       </c>
       <c r="AX38" s="11">
-        <v>60861</v>
+        <v>311357</v>
       </c>
       <c r="AY38" s="11">
-        <v>311357</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="11">
-        <v>0</v>
+        <v>413449</v>
       </c>
       <c r="BA38" s="11">
-        <v>413449</v>
+        <v>1022427</v>
       </c>
       <c r="BB38" s="11">
-        <v>398718</v>
+        <v>335681</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5390,8 +5390,8 @@
       <c r="AU39" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AV39" s="13" t="s">
-        <v>62</v>
+      <c r="AV39" s="13">
+        <v>0</v>
       </c>
       <c r="AW39" s="13">
         <v>0</v>
@@ -5435,140 +5435,140 @@
       <c r="I40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>62</v>
+      <c r="J40" s="11">
+        <v>147804</v>
       </c>
       <c r="K40" s="11">
-        <v>147804</v>
+        <v>151258</v>
       </c>
       <c r="L40" s="11">
-        <v>151258</v>
+        <v>130124</v>
       </c>
       <c r="M40" s="11">
-        <v>130124</v>
+        <v>163284</v>
       </c>
       <c r="N40" s="11">
-        <v>163284</v>
+        <v>197250</v>
       </c>
       <c r="O40" s="11">
-        <v>197250</v>
+        <v>180716</v>
       </c>
       <c r="P40" s="11">
-        <v>180716</v>
+        <v>165080</v>
       </c>
       <c r="Q40" s="11">
-        <v>165080</v>
+        <v>184478</v>
       </c>
       <c r="R40" s="11">
-        <v>184478</v>
+        <v>192382</v>
       </c>
       <c r="S40" s="11">
-        <v>192382</v>
+        <v>201492</v>
       </c>
       <c r="T40" s="11">
-        <v>201492</v>
+        <v>194945</v>
       </c>
       <c r="U40" s="11">
-        <v>194945</v>
+        <v>189990</v>
       </c>
       <c r="V40" s="11">
-        <v>189990</v>
+        <v>191978</v>
       </c>
       <c r="W40" s="11">
-        <v>191978</v>
+        <v>193346</v>
       </c>
       <c r="X40" s="11">
-        <v>193346</v>
+        <v>197376</v>
       </c>
       <c r="Y40" s="11">
-        <v>197376</v>
+        <v>188922</v>
       </c>
       <c r="Z40" s="11">
-        <v>188922</v>
+        <v>199944</v>
       </c>
       <c r="AA40" s="11">
-        <v>199944</v>
+        <v>159346</v>
       </c>
       <c r="AB40" s="11">
-        <v>159346</v>
+        <v>114432</v>
       </c>
       <c r="AC40" s="11">
-        <v>114432</v>
+        <v>191179</v>
       </c>
       <c r="AD40" s="11">
-        <v>191179</v>
+        <v>186668</v>
       </c>
       <c r="AE40" s="11">
-        <v>186668</v>
+        <v>169712</v>
       </c>
       <c r="AF40" s="11">
-        <v>169712</v>
+        <v>190368</v>
       </c>
       <c r="AG40" s="11">
-        <v>190368</v>
+        <v>188484</v>
       </c>
       <c r="AH40" s="11">
-        <v>188484</v>
+        <v>207458</v>
       </c>
       <c r="AI40" s="11">
-        <v>207458</v>
+        <v>178326</v>
       </c>
       <c r="AJ40" s="11">
-        <v>178326</v>
+        <v>202029</v>
       </c>
       <c r="AK40" s="11">
-        <v>202029</v>
+        <v>151836</v>
       </c>
       <c r="AL40" s="11">
-        <v>151836</v>
+        <v>188924</v>
       </c>
       <c r="AM40" s="11">
-        <v>188924</v>
+        <v>157515</v>
       </c>
       <c r="AN40" s="11">
-        <v>157515</v>
+        <v>76458</v>
       </c>
       <c r="AO40" s="11">
-        <v>76458</v>
+        <v>168846</v>
       </c>
       <c r="AP40" s="11">
-        <v>168846</v>
+        <v>185188</v>
       </c>
       <c r="AQ40" s="11">
-        <v>185188</v>
+        <v>175966</v>
       </c>
       <c r="AR40" s="11">
-        <v>175966</v>
+        <v>72996</v>
       </c>
       <c r="AS40" s="11">
-        <v>72996</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="11">
-        <v>0</v>
+        <v>208018</v>
       </c>
       <c r="AU40" s="11">
-        <v>208018</v>
+        <v>206162</v>
       </c>
       <c r="AV40" s="11">
-        <v>206162</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="11">
-        <v>0</v>
+        <v>204652</v>
       </c>
       <c r="AX40" s="11">
-        <v>204652</v>
+        <v>194176</v>
       </c>
       <c r="AY40" s="11">
-        <v>194176</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="11">
-        <v>0</v>
+        <v>197586</v>
       </c>
       <c r="BA40" s="11">
-        <v>197586</v>
+        <v>592496</v>
       </c>
       <c r="BB40" s="11">
-        <v>189932</v>
+        <v>149124</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5603,11 +5603,11 @@
       <c r="L41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M41" s="13" t="s">
-        <v>62</v>
+      <c r="M41" s="13">
+        <v>167243</v>
       </c>
       <c r="N41" s="13">
-        <v>167243</v>
+        <v>0</v>
       </c>
       <c r="O41" s="13">
         <v>0</v>
@@ -5630,8 +5630,8 @@
       <c r="U41" s="13">
         <v>0</v>
       </c>
-      <c r="V41" s="13">
-        <v>0</v>
+      <c r="V41" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="W41" s="13" t="s">
         <v>62</v>
@@ -5639,8 +5639,8 @@
       <c r="X41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Y41" s="13" t="s">
-        <v>62</v>
+      <c r="Y41" s="13">
+        <v>0</v>
       </c>
       <c r="Z41" s="13">
         <v>0</v>
@@ -5667,19 +5667,19 @@
         <v>0</v>
       </c>
       <c r="AH41" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AI41" s="13">
-        <v>71</v>
+        <v>55944</v>
       </c>
       <c r="AJ41" s="13">
-        <v>55944</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="13">
-        <v>0</v>
+        <v>36136</v>
       </c>
       <c r="AL41" s="13">
-        <v>36136</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="13">
         <v>0</v>
@@ -5688,37 +5688,37 @@
         <v>0</v>
       </c>
       <c r="AO41" s="13">
-        <v>0</v>
+        <v>8113</v>
       </c>
       <c r="AP41" s="13">
-        <v>8113</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="13">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="AR41" s="13">
-        <v>618</v>
+        <v>11439</v>
       </c>
       <c r="AS41" s="13">
-        <v>11439</v>
+        <v>18816</v>
       </c>
       <c r="AT41" s="13">
-        <v>18816</v>
+        <v>5668</v>
       </c>
       <c r="AU41" s="13">
-        <v>5668</v>
+        <v>248</v>
       </c>
       <c r="AV41" s="13">
-        <v>248</v>
+        <v>816</v>
       </c>
       <c r="AW41" s="13">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="13">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="AY41" s="13">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="13">
         <v>0</v>
@@ -5771,8 +5771,8 @@
       <c r="O42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P42" s="11" t="s">
-        <v>62</v>
+      <c r="P42" s="11">
+        <v>0</v>
       </c>
       <c r="Q42" s="11">
         <v>0</v>
@@ -5805,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="AA42" s="11">
-        <v>0</v>
+        <v>202178</v>
       </c>
       <c r="AB42" s="11">
-        <v>202178</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="11">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="AG42" s="11">
-        <v>0</v>
+        <v>332501</v>
       </c>
       <c r="AH42" s="11">
-        <v>332501</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="11">
         <v>0</v>
@@ -5853,40 +5853,40 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="11">
-        <v>0</v>
+        <v>153085</v>
       </c>
       <c r="AR42" s="11">
-        <v>153085</v>
+        <v>162543</v>
       </c>
       <c r="AS42" s="11">
-        <v>162543</v>
+        <v>1509910</v>
       </c>
       <c r="AT42" s="11">
-        <v>1509910</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="11">
-        <v>0</v>
+        <v>444063</v>
       </c>
       <c r="AV42" s="11">
-        <v>444063</v>
+        <v>152003</v>
       </c>
       <c r="AW42" s="11">
-        <v>152003</v>
+        <v>90974</v>
       </c>
       <c r="AX42" s="11">
-        <v>90974</v>
+        <v>265812</v>
       </c>
       <c r="AY42" s="11">
-        <v>265812</v>
+        <v>170704</v>
       </c>
       <c r="AZ42" s="11">
-        <v>170704</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="11">
-        <v>632882</v>
+        <v>216774</v>
       </c>
       <c r="BB42" s="11">
-        <v>216774</v>
+        <v>159294</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -6171,8 +6171,8 @@
       <c r="X45" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Y45" s="15" t="s">
-        <v>62</v>
+      <c r="Y45" s="15">
+        <v>0</v>
       </c>
       <c r="Z45" s="15">
         <v>0</v>
@@ -6385,8 +6385,8 @@
       <c r="X47" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y47" s="17" t="s">
-        <v>62</v>
+      <c r="Y47" s="17">
+        <v>0</v>
       </c>
       <c r="Z47" s="17">
         <v>0</v>
@@ -6483,154 +6483,154 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>1072842</v>
+        <v>1182775</v>
       </c>
       <c r="F48" s="15">
-        <v>1182775</v>
+        <v>1175227</v>
       </c>
       <c r="G48" s="15">
-        <v>1175227</v>
+        <v>1151389</v>
       </c>
       <c r="H48" s="15">
-        <v>1151389</v>
+        <v>898101</v>
       </c>
       <c r="I48" s="15">
-        <v>898101</v>
+        <v>902815</v>
       </c>
       <c r="J48" s="15">
-        <v>902815</v>
+        <v>1229103</v>
       </c>
       <c r="K48" s="15">
-        <v>1229103</v>
+        <v>1183260</v>
       </c>
       <c r="L48" s="15">
-        <v>1183260</v>
+        <v>1114648</v>
       </c>
       <c r="M48" s="15">
-        <v>1114648</v>
+        <v>1375266</v>
       </c>
       <c r="N48" s="15">
-        <v>1375266</v>
+        <v>1255496</v>
       </c>
       <c r="O48" s="15">
-        <v>1255496</v>
+        <v>1001570</v>
       </c>
       <c r="P48" s="15">
-        <v>1001570</v>
+        <v>985643</v>
       </c>
       <c r="Q48" s="15">
-        <v>985643</v>
+        <v>1105021</v>
       </c>
       <c r="R48" s="15">
-        <v>1105021</v>
+        <v>1013977</v>
       </c>
       <c r="S48" s="15">
-        <v>1013977</v>
+        <v>1203492</v>
       </c>
       <c r="T48" s="15">
-        <v>1203492</v>
+        <v>1232139</v>
       </c>
       <c r="U48" s="15">
-        <v>1232139</v>
+        <v>1049720</v>
       </c>
       <c r="V48" s="15">
-        <v>1049720</v>
+        <v>979539</v>
       </c>
       <c r="W48" s="15">
-        <v>979539</v>
+        <v>1051309</v>
       </c>
       <c r="X48" s="15">
-        <v>1051309</v>
+        <v>1084125</v>
       </c>
       <c r="Y48" s="15">
-        <v>1084125</v>
+        <v>1130785</v>
       </c>
       <c r="Z48" s="15">
-        <v>1130785</v>
+        <v>1258674</v>
       </c>
       <c r="AA48" s="15">
-        <v>1258674</v>
+        <v>1412745</v>
       </c>
       <c r="AB48" s="15">
-        <v>1412745</v>
+        <v>1360409</v>
       </c>
       <c r="AC48" s="15">
-        <v>1360409</v>
+        <v>1396719</v>
       </c>
       <c r="AD48" s="15">
-        <v>1396719</v>
+        <v>1438480</v>
       </c>
       <c r="AE48" s="15">
-        <v>1438480</v>
+        <v>1426708</v>
       </c>
       <c r="AF48" s="15">
-        <v>1426708</v>
+        <v>1537590</v>
       </c>
       <c r="AG48" s="15">
-        <v>1537590</v>
+        <v>1796576</v>
       </c>
       <c r="AH48" s="15">
-        <v>1796576</v>
+        <v>1367053</v>
       </c>
       <c r="AI48" s="15">
-        <v>1367053</v>
+        <v>1381972</v>
       </c>
       <c r="AJ48" s="15">
-        <v>1381972</v>
+        <v>1329780</v>
       </c>
       <c r="AK48" s="15">
-        <v>1329780</v>
+        <v>1250699</v>
       </c>
       <c r="AL48" s="15">
-        <v>1250699</v>
+        <v>1418122</v>
       </c>
       <c r="AM48" s="15">
-        <v>1418122</v>
+        <v>1612952</v>
       </c>
       <c r="AN48" s="15">
-        <v>1612952</v>
+        <v>1336339</v>
       </c>
       <c r="AO48" s="15">
-        <v>1336339</v>
+        <v>1384255</v>
       </c>
       <c r="AP48" s="15">
-        <v>1384255</v>
+        <v>1452365</v>
       </c>
       <c r="AQ48" s="15">
-        <v>1452365</v>
+        <v>1540309</v>
       </c>
       <c r="AR48" s="15">
-        <v>1540309</v>
+        <v>1621279</v>
       </c>
       <c r="AS48" s="15">
-        <v>1621279</v>
+        <v>2364081</v>
       </c>
       <c r="AT48" s="15">
-        <v>2364081</v>
+        <v>1452687</v>
       </c>
       <c r="AU48" s="15">
-        <v>1452687</v>
+        <v>1814914</v>
       </c>
       <c r="AV48" s="15">
-        <v>1814914</v>
+        <v>995136</v>
       </c>
       <c r="AW48" s="15">
-        <v>995136</v>
+        <v>1120822</v>
       </c>
       <c r="AX48" s="15">
-        <v>1120822</v>
+        <v>1414341</v>
       </c>
       <c r="AY48" s="15">
-        <v>1414341</v>
+        <v>955276</v>
       </c>
       <c r="AZ48" s="15">
-        <v>955276</v>
+        <v>1391722</v>
       </c>
       <c r="BA48" s="15">
-        <v>2024604</v>
+        <v>2779988</v>
       </c>
       <c r="BB48" s="15">
-        <v>1601974</v>
+        <v>1209373</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -7076,37 +7076,37 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>15975</v>
+        <v>73368</v>
       </c>
       <c r="F55" s="11">
-        <v>73368</v>
+        <v>1657</v>
       </c>
       <c r="G55" s="11">
-        <v>1657</v>
+        <v>46964</v>
       </c>
       <c r="H55" s="11">
-        <v>46964</v>
+        <v>53530</v>
       </c>
       <c r="I55" s="11">
-        <v>53530</v>
+        <v>0</v>
       </c>
       <c r="J55" s="11">
-        <v>0</v>
+        <v>42199</v>
       </c>
       <c r="K55" s="11">
-        <v>42199</v>
+        <v>41821</v>
       </c>
       <c r="L55" s="11">
-        <v>41821</v>
+        <v>19</v>
       </c>
       <c r="M55" s="11">
-        <v>19</v>
+        <v>88518</v>
       </c>
       <c r="N55" s="11">
-        <v>88518</v>
+        <v>24033</v>
       </c>
       <c r="O55" s="11">
-        <v>24033</v>
+        <v>0</v>
       </c>
       <c r="P55" s="11">
         <v>0</v>
@@ -7121,13 +7121,13 @@
         <v>0</v>
       </c>
       <c r="T55" s="11">
-        <v>0</v>
+        <v>73855</v>
       </c>
       <c r="U55" s="11">
-        <v>73855</v>
+        <v>97070</v>
       </c>
       <c r="V55" s="11">
-        <v>97070</v>
+        <v>0</v>
       </c>
       <c r="W55" s="11">
         <v>0</v>
@@ -7139,25 +7139,25 @@
         <v>0</v>
       </c>
       <c r="Z55" s="11">
-        <v>0</v>
+        <v>260080</v>
       </c>
       <c r="AA55" s="11">
-        <v>260080</v>
+        <v>170145</v>
       </c>
       <c r="AB55" s="11">
-        <v>170145</v>
+        <v>92656</v>
       </c>
       <c r="AC55" s="11">
-        <v>92656</v>
+        <v>130339</v>
       </c>
       <c r="AD55" s="11">
-        <v>130339</v>
+        <v>56328</v>
       </c>
       <c r="AE55" s="11">
-        <v>56328</v>
+        <v>448751</v>
       </c>
       <c r="AF55" s="11">
-        <v>448751</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="11">
         <v>0</v>
@@ -7181,22 +7181,22 @@
         <v>0</v>
       </c>
       <c r="AN55" s="11">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="AO55" s="11">
-        <v>412</v>
+        <v>55243</v>
       </c>
       <c r="AP55" s="11">
-        <v>55243</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="11">
-        <v>0</v>
+        <v>51187</v>
       </c>
       <c r="AR55" s="11">
-        <v>51187</v>
+        <v>345</v>
       </c>
       <c r="AS55" s="11">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="11">
         <v>0</v>
@@ -7235,154 +7235,154 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>1898204</v>
+        <v>1833706</v>
       </c>
       <c r="F56" s="13">
-        <v>1833706</v>
+        <v>3111120</v>
       </c>
       <c r="G56" s="13">
-        <v>3111120</v>
+        <v>1975466</v>
       </c>
       <c r="H56" s="13">
-        <v>1975466</v>
+        <v>1279208</v>
       </c>
       <c r="I56" s="13">
-        <v>1279208</v>
+        <v>1280633</v>
       </c>
       <c r="J56" s="13">
-        <v>1280633</v>
+        <v>1677426</v>
       </c>
       <c r="K56" s="13">
-        <v>1677426</v>
+        <v>1129434</v>
       </c>
       <c r="L56" s="13">
-        <v>1129434</v>
+        <v>1386649</v>
       </c>
       <c r="M56" s="13">
-        <v>1386649</v>
+        <v>1519184</v>
       </c>
       <c r="N56" s="13">
-        <v>1519184</v>
+        <v>1212806</v>
       </c>
       <c r="O56" s="13">
-        <v>1212806</v>
+        <v>71662</v>
       </c>
       <c r="P56" s="13">
-        <v>71662</v>
+        <v>540979</v>
       </c>
       <c r="Q56" s="13">
-        <v>540979</v>
+        <v>1305469</v>
       </c>
       <c r="R56" s="13">
-        <v>1305469</v>
+        <v>1221118</v>
       </c>
       <c r="S56" s="13">
-        <v>1221118</v>
+        <v>1213962</v>
       </c>
       <c r="T56" s="13">
-        <v>1213962</v>
+        <v>1269477</v>
       </c>
       <c r="U56" s="13">
-        <v>1269477</v>
+        <v>1121497</v>
       </c>
       <c r="V56" s="13">
-        <v>1121497</v>
+        <v>1325055</v>
       </c>
       <c r="W56" s="13">
-        <v>1325055</v>
+        <v>516644</v>
       </c>
       <c r="X56" s="13">
-        <v>516644</v>
+        <v>1149405</v>
       </c>
       <c r="Y56" s="13">
-        <v>1149405</v>
+        <v>1535794</v>
       </c>
       <c r="Z56" s="13">
-        <v>1535794</v>
+        <v>1338261</v>
       </c>
       <c r="AA56" s="13">
-        <v>1338261</v>
+        <v>2036519</v>
       </c>
       <c r="AB56" s="13">
-        <v>2036519</v>
+        <v>4207552</v>
       </c>
       <c r="AC56" s="13">
-        <v>4207552</v>
+        <v>3662702</v>
       </c>
       <c r="AD56" s="13">
-        <v>3662702</v>
+        <v>2884065</v>
       </c>
       <c r="AE56" s="13">
-        <v>2884065</v>
+        <v>4127580</v>
       </c>
       <c r="AF56" s="13">
-        <v>4127580</v>
+        <v>4789640</v>
       </c>
       <c r="AG56" s="13">
-        <v>4789640</v>
+        <v>4668160</v>
       </c>
       <c r="AH56" s="13">
-        <v>4668160</v>
+        <v>2650568</v>
       </c>
       <c r="AI56" s="13">
-        <v>2650568</v>
+        <v>2387640</v>
       </c>
       <c r="AJ56" s="13">
-        <v>2387640</v>
+        <v>1773710</v>
       </c>
       <c r="AK56" s="13">
-        <v>1773710</v>
+        <v>1503659</v>
       </c>
       <c r="AL56" s="13">
-        <v>1503659</v>
+        <v>7444390</v>
       </c>
       <c r="AM56" s="13">
-        <v>7444390</v>
+        <v>7384593</v>
       </c>
       <c r="AN56" s="13">
-        <v>7384593</v>
+        <v>10572240</v>
       </c>
       <c r="AO56" s="13">
-        <v>10572240</v>
+        <v>7963345</v>
       </c>
       <c r="AP56" s="13">
-        <v>7963345</v>
+        <v>6668197</v>
       </c>
       <c r="AQ56" s="13">
-        <v>6668197</v>
+        <v>7180136</v>
       </c>
       <c r="AR56" s="13">
-        <v>7180136</v>
+        <v>7623034</v>
       </c>
       <c r="AS56" s="13">
-        <v>7623034</v>
+        <v>8031464</v>
       </c>
       <c r="AT56" s="13">
-        <v>8031464</v>
+        <v>8440392</v>
       </c>
       <c r="AU56" s="13">
-        <v>8440392</v>
+        <v>6852399</v>
       </c>
       <c r="AV56" s="13">
-        <v>6852399</v>
+        <v>3772125</v>
       </c>
       <c r="AW56" s="13">
-        <v>3772125</v>
+        <v>1738104</v>
       </c>
       <c r="AX56" s="13">
-        <v>1738104</v>
+        <v>492860</v>
       </c>
       <c r="AY56" s="13">
-        <v>492860</v>
+        <v>4415177</v>
       </c>
       <c r="AZ56" s="13">
-        <v>4415177</v>
+        <v>4032118</v>
       </c>
       <c r="BA56" s="13">
-        <v>4032118</v>
+        <v>4509588</v>
       </c>
       <c r="BB56" s="13">
-        <v>4461065</v>
+        <v>2398114</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7394,154 +7394,154 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>1424931</v>
+        <v>1585828</v>
       </c>
       <c r="F57" s="11">
-        <v>1585828</v>
+        <v>2758270</v>
       </c>
       <c r="G57" s="11">
-        <v>2758270</v>
+        <v>2833676</v>
       </c>
       <c r="H57" s="11">
-        <v>2833676</v>
+        <v>2379802</v>
       </c>
       <c r="I57" s="11">
-        <v>2379802</v>
+        <v>2136540</v>
       </c>
       <c r="J57" s="11">
-        <v>2136540</v>
+        <v>2714431</v>
       </c>
       <c r="K57" s="11">
-        <v>2714431</v>
+        <v>2736235</v>
       </c>
       <c r="L57" s="11">
-        <v>2736235</v>
+        <v>2342247</v>
       </c>
       <c r="M57" s="11">
-        <v>2342247</v>
+        <v>2191501</v>
       </c>
       <c r="N57" s="11">
-        <v>2191501</v>
+        <v>2560837</v>
       </c>
       <c r="O57" s="11">
-        <v>2560837</v>
+        <v>3429312</v>
       </c>
       <c r="P57" s="11">
-        <v>3429312</v>
+        <v>3416104</v>
       </c>
       <c r="Q57" s="11">
-        <v>3416104</v>
+        <v>2286410</v>
       </c>
       <c r="R57" s="11">
-        <v>2286410</v>
+        <v>2030664</v>
       </c>
       <c r="S57" s="11">
-        <v>2030664</v>
+        <v>2632274</v>
       </c>
       <c r="T57" s="11">
-        <v>2632274</v>
+        <v>2674422</v>
       </c>
       <c r="U57" s="11">
-        <v>2674422</v>
+        <v>2387366</v>
       </c>
       <c r="V57" s="11">
-        <v>2387366</v>
+        <v>2666685</v>
       </c>
       <c r="W57" s="11">
-        <v>2666685</v>
+        <v>4277305</v>
       </c>
       <c r="X57" s="11">
-        <v>4277305</v>
+        <v>3386000</v>
       </c>
       <c r="Y57" s="11">
-        <v>3386000</v>
+        <v>4243464</v>
       </c>
       <c r="Z57" s="11">
-        <v>4243464</v>
+        <v>4132426</v>
       </c>
       <c r="AA57" s="11">
-        <v>4132426</v>
+        <v>6044451</v>
       </c>
       <c r="AB57" s="11">
-        <v>6044451</v>
+        <v>10964890</v>
       </c>
       <c r="AC57" s="11">
-        <v>10964890</v>
+        <v>12432806</v>
       </c>
       <c r="AD57" s="11">
-        <v>12432806</v>
+        <v>11733850</v>
       </c>
       <c r="AE57" s="11">
-        <v>11733850</v>
+        <v>13529840</v>
       </c>
       <c r="AF57" s="11">
-        <v>13529840</v>
+        <v>16886572</v>
       </c>
       <c r="AG57" s="11">
-        <v>16886572</v>
+        <v>15174088</v>
       </c>
       <c r="AH57" s="11">
-        <v>15174088</v>
+        <v>15064665</v>
       </c>
       <c r="AI57" s="11">
-        <v>15064665</v>
+        <v>15971545</v>
       </c>
       <c r="AJ57" s="11">
-        <v>15971545</v>
+        <v>18563476</v>
       </c>
       <c r="AK57" s="11">
-        <v>18563476</v>
+        <v>20760834</v>
       </c>
       <c r="AL57" s="11">
-        <v>20760834</v>
+        <v>21064393</v>
       </c>
       <c r="AM57" s="11">
-        <v>21064393</v>
+        <v>22003935</v>
       </c>
       <c r="AN57" s="11">
-        <v>22003935</v>
+        <v>15695812</v>
       </c>
       <c r="AO57" s="11">
-        <v>15695812</v>
+        <v>17510501</v>
       </c>
       <c r="AP57" s="11">
-        <v>17510501</v>
+        <v>18112310</v>
       </c>
       <c r="AQ57" s="11">
-        <v>18112310</v>
+        <v>16799317</v>
       </c>
       <c r="AR57" s="11">
-        <v>16799317</v>
+        <v>8711103</v>
       </c>
       <c r="AS57" s="11">
-        <v>8711103</v>
+        <v>14664054</v>
       </c>
       <c r="AT57" s="11">
-        <v>14664054</v>
+        <v>15786055</v>
       </c>
       <c r="AU57" s="11">
-        <v>15786055</v>
+        <v>18816710</v>
       </c>
       <c r="AV57" s="11">
-        <v>18816710</v>
+        <v>20292369</v>
       </c>
       <c r="AW57" s="11">
-        <v>20292369</v>
+        <v>19283565</v>
       </c>
       <c r="AX57" s="11">
-        <v>19283565</v>
+        <v>5372957</v>
       </c>
       <c r="AY57" s="11">
-        <v>5372957</v>
+        <v>13878514</v>
       </c>
       <c r="AZ57" s="11">
-        <v>13878514</v>
+        <v>11378426</v>
       </c>
       <c r="BA57" s="11">
-        <v>11378426</v>
+        <v>16812049</v>
       </c>
       <c r="BB57" s="11">
-        <v>11545822</v>
+        <v>9578146</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7553,154 +7553,154 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>515</v>
+        <v>3075</v>
       </c>
       <c r="F58" s="13">
-        <v>3075</v>
+        <v>15484</v>
       </c>
       <c r="G58" s="13">
-        <v>15484</v>
+        <v>2427</v>
       </c>
       <c r="H58" s="13">
-        <v>2427</v>
+        <v>1238</v>
       </c>
       <c r="I58" s="13">
-        <v>1238</v>
+        <v>2319</v>
       </c>
       <c r="J58" s="13">
-        <v>2319</v>
+        <v>832</v>
       </c>
       <c r="K58" s="13">
-        <v>832</v>
+        <v>610</v>
       </c>
       <c r="L58" s="13">
-        <v>610</v>
+        <v>55156</v>
       </c>
       <c r="M58" s="13">
-        <v>55156</v>
+        <v>32862</v>
       </c>
       <c r="N58" s="13">
-        <v>32862</v>
+        <v>2865</v>
       </c>
       <c r="O58" s="13">
-        <v>2865</v>
+        <v>25801</v>
       </c>
       <c r="P58" s="13">
-        <v>25801</v>
+        <v>41677</v>
       </c>
       <c r="Q58" s="13">
-        <v>41677</v>
+        <v>9603</v>
       </c>
       <c r="R58" s="13">
-        <v>9603</v>
+        <v>0</v>
       </c>
       <c r="S58" s="13">
         <v>0</v>
       </c>
       <c r="T58" s="13">
-        <v>0</v>
+        <v>17660</v>
       </c>
       <c r="U58" s="13">
-        <v>17660</v>
+        <v>18018</v>
       </c>
       <c r="V58" s="13">
-        <v>18018</v>
+        <v>232</v>
       </c>
       <c r="W58" s="13">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="X58" s="13">
-        <v>0</v>
+        <v>3693</v>
       </c>
       <c r="Y58" s="13">
-        <v>3693</v>
+        <v>51086</v>
       </c>
       <c r="Z58" s="13">
-        <v>51086</v>
+        <v>79850</v>
       </c>
       <c r="AA58" s="13">
-        <v>79850</v>
+        <v>8456</v>
       </c>
       <c r="AB58" s="13">
-        <v>8456</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="13">
-        <v>0</v>
+        <v>8059</v>
       </c>
       <c r="AD58" s="13">
-        <v>8059</v>
+        <v>35628</v>
       </c>
       <c r="AE58" s="13">
-        <v>35628</v>
+        <v>269161</v>
       </c>
       <c r="AF58" s="13">
-        <v>269161</v>
+        <v>40880</v>
       </c>
       <c r="AG58" s="13">
-        <v>40880</v>
+        <v>17010</v>
       </c>
       <c r="AH58" s="13">
-        <v>17010</v>
+        <v>13944</v>
       </c>
       <c r="AI58" s="13">
-        <v>13944</v>
+        <v>339951</v>
       </c>
       <c r="AJ58" s="13">
-        <v>339951</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="13">
-        <v>0</v>
+        <v>208746</v>
       </c>
       <c r="AL58" s="13">
-        <v>208746</v>
+        <v>26112</v>
       </c>
       <c r="AM58" s="13">
-        <v>26112</v>
+        <v>37820</v>
       </c>
       <c r="AN58" s="13">
-        <v>37820</v>
+        <v>193805</v>
       </c>
       <c r="AO58" s="13">
-        <v>193805</v>
+        <v>55913</v>
       </c>
       <c r="AP58" s="13">
-        <v>55913</v>
+        <v>158782</v>
       </c>
       <c r="AQ58" s="13">
-        <v>158782</v>
+        <v>238356</v>
       </c>
       <c r="AR58" s="13">
-        <v>238356</v>
+        <v>165208</v>
       </c>
       <c r="AS58" s="13">
-        <v>165208</v>
+        <v>91277</v>
       </c>
       <c r="AT58" s="13">
-        <v>91277</v>
+        <v>2761</v>
       </c>
       <c r="AU58" s="13">
-        <v>2761</v>
+        <v>122323</v>
       </c>
       <c r="AV58" s="13">
-        <v>122323</v>
+        <v>145964</v>
       </c>
       <c r="AW58" s="13">
-        <v>145964</v>
+        <v>84232</v>
       </c>
       <c r="AX58" s="13">
-        <v>84232</v>
+        <v>463358</v>
       </c>
       <c r="AY58" s="13">
-        <v>463358</v>
+        <v>226886</v>
       </c>
       <c r="AZ58" s="13">
-        <v>226886</v>
+        <v>233905</v>
       </c>
       <c r="BA58" s="13">
-        <v>233905</v>
+        <v>99971</v>
       </c>
       <c r="BB58" s="13">
-        <v>81892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7712,154 +7712,154 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>1829966</v>
+        <v>2463860</v>
       </c>
       <c r="F59" s="11">
-        <v>2463860</v>
+        <v>1419324</v>
       </c>
       <c r="G59" s="11">
-        <v>1419324</v>
+        <v>3532665</v>
       </c>
       <c r="H59" s="11">
-        <v>3532665</v>
+        <v>1297741</v>
       </c>
       <c r="I59" s="11">
-        <v>1297741</v>
+        <v>3820244</v>
       </c>
       <c r="J59" s="11">
-        <v>3820244</v>
+        <v>2282183</v>
       </c>
       <c r="K59" s="11">
-        <v>2282183</v>
+        <v>2942883</v>
       </c>
       <c r="L59" s="11">
-        <v>2942883</v>
+        <v>2730053</v>
       </c>
       <c r="M59" s="11">
-        <v>2730053</v>
+        <v>5612321</v>
       </c>
       <c r="N59" s="11">
-        <v>5612321</v>
+        <v>2979285</v>
       </c>
       <c r="O59" s="11">
-        <v>2979285</v>
+        <v>2753110</v>
       </c>
       <c r="P59" s="11">
-        <v>2753110</v>
+        <v>1745907</v>
       </c>
       <c r="Q59" s="11">
-        <v>1745907</v>
+        <v>3379336</v>
       </c>
       <c r="R59" s="11">
-        <v>3379336</v>
+        <v>2232604</v>
       </c>
       <c r="S59" s="11">
-        <v>2232604</v>
+        <v>3928217</v>
       </c>
       <c r="T59" s="11">
-        <v>3928217</v>
+        <v>5590941</v>
       </c>
       <c r="U59" s="11">
-        <v>5590941</v>
+        <v>3470600</v>
       </c>
       <c r="V59" s="11">
-        <v>3470600</v>
+        <v>719077</v>
       </c>
       <c r="W59" s="11">
-        <v>719077</v>
+        <v>2616031</v>
       </c>
       <c r="X59" s="11">
-        <v>2616031</v>
+        <v>3301963</v>
       </c>
       <c r="Y59" s="11">
-        <v>3301963</v>
+        <v>4713163</v>
       </c>
       <c r="Z59" s="11">
-        <v>4713163</v>
+        <v>10607848</v>
       </c>
       <c r="AA59" s="11">
-        <v>10607848</v>
+        <v>4763912</v>
       </c>
       <c r="AB59" s="11">
-        <v>4763912</v>
+        <v>9415943</v>
       </c>
       <c r="AC59" s="11">
-        <v>9415943</v>
+        <v>8130511</v>
       </c>
       <c r="AD59" s="11">
-        <v>8130511</v>
+        <v>9591836</v>
       </c>
       <c r="AE59" s="11">
-        <v>9591836</v>
+        <v>8448065</v>
       </c>
       <c r="AF59" s="11">
-        <v>8448065</v>
+        <v>16617292</v>
       </c>
       <c r="AG59" s="11">
-        <v>16617292</v>
+        <v>10893009</v>
       </c>
       <c r="AH59" s="11">
-        <v>10893009</v>
+        <v>6537114</v>
       </c>
       <c r="AI59" s="11">
-        <v>6537114</v>
+        <v>6063083</v>
       </c>
       <c r="AJ59" s="11">
-        <v>6063083</v>
+        <v>15442178</v>
       </c>
       <c r="AK59" s="11">
-        <v>15442178</v>
+        <v>7570718</v>
       </c>
       <c r="AL59" s="11">
-        <v>7570718</v>
+        <v>9777889</v>
       </c>
       <c r="AM59" s="11">
-        <v>9777889</v>
+        <v>7829271</v>
       </c>
       <c r="AN59" s="11">
-        <v>7829271</v>
+        <v>11026868</v>
       </c>
       <c r="AO59" s="11">
-        <v>11026868</v>
+        <v>9577593</v>
       </c>
       <c r="AP59" s="11">
-        <v>9577593</v>
+        <v>13734248</v>
       </c>
       <c r="AQ59" s="11">
-        <v>13734248</v>
+        <v>12813136</v>
       </c>
       <c r="AR59" s="11">
-        <v>12813136</v>
+        <v>14166063</v>
       </c>
       <c r="AS59" s="11">
-        <v>14166063</v>
+        <v>15818458</v>
       </c>
       <c r="AT59" s="11">
-        <v>15818458</v>
+        <v>14738349</v>
       </c>
       <c r="AU59" s="11">
-        <v>14738349</v>
+        <v>14543645</v>
       </c>
       <c r="AV59" s="11">
-        <v>14543645</v>
+        <v>17401378</v>
       </c>
       <c r="AW59" s="11">
-        <v>17401378</v>
+        <v>13665134</v>
       </c>
       <c r="AX59" s="11">
-        <v>13665134</v>
+        <v>8944817</v>
       </c>
       <c r="AY59" s="11">
-        <v>8944817</v>
+        <v>10771223</v>
       </c>
       <c r="AZ59" s="11">
-        <v>10771223</v>
+        <v>13086285</v>
       </c>
       <c r="BA59" s="11">
-        <v>13086285</v>
+        <v>17747864</v>
       </c>
       <c r="BB59" s="11">
-        <v>17747864</v>
+        <v>17127666</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7885,140 +7885,140 @@
       <c r="I60" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J60" s="13" t="s">
-        <v>62</v>
+      <c r="J60" s="13">
+        <v>101126</v>
       </c>
       <c r="K60" s="13">
-        <v>101126</v>
+        <v>91986</v>
       </c>
       <c r="L60" s="13">
-        <v>91986</v>
+        <v>571902</v>
       </c>
       <c r="M60" s="13">
-        <v>571902</v>
+        <v>410260</v>
       </c>
       <c r="N60" s="13">
-        <v>410260</v>
+        <v>1243080</v>
       </c>
       <c r="O60" s="13">
-        <v>1243080</v>
+        <v>379293</v>
       </c>
       <c r="P60" s="13">
-        <v>379293</v>
+        <v>537268</v>
       </c>
       <c r="Q60" s="13">
-        <v>537268</v>
+        <v>645057</v>
       </c>
       <c r="R60" s="13">
-        <v>645057</v>
+        <v>564927</v>
       </c>
       <c r="S60" s="13">
-        <v>564927</v>
+        <v>1013092</v>
       </c>
       <c r="T60" s="13">
-        <v>1013092</v>
+        <v>548502</v>
       </c>
       <c r="U60" s="13">
-        <v>548502</v>
+        <v>678357</v>
       </c>
       <c r="V60" s="13">
-        <v>678357</v>
+        <v>236003</v>
       </c>
       <c r="W60" s="13">
-        <v>236003</v>
+        <v>415031</v>
       </c>
       <c r="X60" s="13">
-        <v>415031</v>
+        <v>714760</v>
       </c>
       <c r="Y60" s="13">
-        <v>714760</v>
+        <v>455389</v>
       </c>
       <c r="Z60" s="13">
-        <v>455389</v>
+        <v>28730</v>
       </c>
       <c r="AA60" s="13">
-        <v>28730</v>
+        <v>1259140</v>
       </c>
       <c r="AB60" s="13">
-        <v>1259140</v>
+        <v>966902</v>
       </c>
       <c r="AC60" s="13">
-        <v>966902</v>
+        <v>1932085</v>
       </c>
       <c r="AD60" s="13">
-        <v>1932085</v>
+        <v>1665195</v>
       </c>
       <c r="AE60" s="13">
-        <v>1665195</v>
+        <v>664878</v>
       </c>
       <c r="AF60" s="13">
-        <v>664878</v>
+        <v>806764</v>
       </c>
       <c r="AG60" s="13">
-        <v>806764</v>
+        <v>1285748</v>
       </c>
       <c r="AH60" s="13">
-        <v>1285748</v>
+        <v>1195921</v>
       </c>
       <c r="AI60" s="13">
-        <v>1195921</v>
+        <v>640736</v>
       </c>
       <c r="AJ60" s="13">
-        <v>640736</v>
+        <v>839228</v>
       </c>
       <c r="AK60" s="13">
-        <v>839228</v>
+        <v>1443862</v>
       </c>
       <c r="AL60" s="13">
-        <v>1443862</v>
+        <v>2308364</v>
       </c>
       <c r="AM60" s="13">
-        <v>2308364</v>
+        <v>2026429</v>
       </c>
       <c r="AN60" s="13">
-        <v>2026429</v>
+        <v>2513345</v>
       </c>
       <c r="AO60" s="13">
-        <v>2513345</v>
+        <v>1901577</v>
       </c>
       <c r="AP60" s="13">
-        <v>1901577</v>
+        <v>93847</v>
       </c>
       <c r="AQ60" s="13">
-        <v>93847</v>
+        <v>384700</v>
       </c>
       <c r="AR60" s="13">
-        <v>384700</v>
+        <v>-9776</v>
       </c>
       <c r="AS60" s="13">
-        <v>-9776</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="13">
         <v>0</v>
       </c>
       <c r="AU60" s="13">
-        <v>0</v>
+        <v>1115927</v>
       </c>
       <c r="AV60" s="13">
-        <v>1115927</v>
+        <v>762619</v>
       </c>
       <c r="AW60" s="13">
-        <v>762619</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="13">
         <v>0</v>
       </c>
       <c r="AY60" s="13">
-        <v>0</v>
+        <v>1944491</v>
       </c>
       <c r="AZ60" s="13">
-        <v>1944491</v>
+        <v>2568207</v>
       </c>
       <c r="BA60" s="13">
-        <v>2568207</v>
+        <v>3456472</v>
       </c>
       <c r="BB60" s="13">
-        <v>3399411</v>
+        <v>635557</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8317,20 +8317,20 @@
       <c r="AU62" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AV62" s="13" t="s">
-        <v>62</v>
+      <c r="AV62" s="13">
+        <v>586923</v>
       </c>
       <c r="AW62" s="13">
-        <v>586923</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
         <v>0</v>
       </c>
       <c r="AY62" s="13">
-        <v>0</v>
+        <v>67796</v>
       </c>
       <c r="AZ62" s="13">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="13">
         <v>0</v>
@@ -8362,8 +8362,8 @@
       <c r="I63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>62</v>
+      <c r="J63" s="11">
+        <v>0</v>
       </c>
       <c r="K63" s="11">
         <v>0</v>
@@ -8530,11 +8530,11 @@
       <c r="L64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M64" s="13" t="s">
-        <v>62</v>
+      <c r="M64" s="13">
+        <v>751537</v>
       </c>
       <c r="N64" s="13">
-        <v>751537</v>
+        <v>0</v>
       </c>
       <c r="O64" s="13">
         <v>0</v>
@@ -8557,8 +8557,8 @@
       <c r="U64" s="13">
         <v>0</v>
       </c>
-      <c r="V64" s="13">
-        <v>0</v>
+      <c r="V64" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="W64" s="13" t="s">
         <v>62</v>
@@ -8566,8 +8566,8 @@
       <c r="X64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>62</v>
+      <c r="Y64" s="13">
+        <v>0</v>
       </c>
       <c r="Z64" s="13">
         <v>0</v>
@@ -8594,19 +8594,19 @@
         <v>0</v>
       </c>
       <c r="AH64" s="13">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="AI64" s="13">
-        <v>887</v>
+        <v>699302</v>
       </c>
       <c r="AJ64" s="13">
-        <v>699302</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="13">
-        <v>0</v>
+        <v>451702</v>
       </c>
       <c r="AL64" s="13">
-        <v>451702</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="13">
         <v>0</v>
@@ -8615,37 +8615,37 @@
         <v>0</v>
       </c>
       <c r="AO64" s="13">
-        <v>0</v>
+        <v>101423</v>
       </c>
       <c r="AP64" s="13">
-        <v>101423</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="13">
-        <v>0</v>
+        <v>8965</v>
       </c>
       <c r="AR64" s="13">
-        <v>8965</v>
+        <v>165849</v>
       </c>
       <c r="AS64" s="13">
-        <v>165849</v>
+        <v>227136</v>
       </c>
       <c r="AT64" s="13">
-        <v>227136</v>
+        <v>92935</v>
       </c>
       <c r="AU64" s="13">
-        <v>92935</v>
+        <v>5294</v>
       </c>
       <c r="AV64" s="13">
-        <v>5294</v>
+        <v>17529</v>
       </c>
       <c r="AW64" s="13">
-        <v>17529</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>0</v>
+        <v>35055</v>
       </c>
       <c r="AY64" s="13">
-        <v>35055</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="13">
         <v>0</v>
@@ -8698,8 +8698,8 @@
       <c r="O65" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P65" s="11" t="s">
-        <v>62</v>
+      <c r="P65" s="11">
+        <v>0</v>
       </c>
       <c r="Q65" s="11">
         <v>0</v>
@@ -8732,10 +8732,10 @@
         <v>0</v>
       </c>
       <c r="AA65" s="11">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="AB65" s="11">
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="11">
         <v>0</v>
@@ -8750,10 +8750,10 @@
         <v>0</v>
       </c>
       <c r="AG65" s="11">
-        <v>0</v>
+        <v>166208</v>
       </c>
       <c r="AH65" s="11">
-        <v>166208</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="11">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="AM65" s="11">
-        <v>0</v>
+        <v>1046639</v>
       </c>
       <c r="AN65" s="11">
-        <v>1046639</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="11">
         <v>0</v>
@@ -8780,40 +8780,40 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="11">
-        <v>0</v>
+        <v>106996</v>
       </c>
       <c r="AR65" s="11">
-        <v>106996</v>
+        <v>550188</v>
       </c>
       <c r="AS65" s="11">
-        <v>550188</v>
+        <v>128490</v>
       </c>
       <c r="AT65" s="11">
-        <v>128490</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
-        <v>0</v>
+        <v>368587</v>
       </c>
       <c r="AV65" s="11">
-        <v>368587</v>
+        <v>196807</v>
       </c>
       <c r="AW65" s="11">
-        <v>196807</v>
+        <v>89199</v>
       </c>
       <c r="AX65" s="11">
-        <v>89199</v>
+        <v>943449</v>
       </c>
       <c r="AY65" s="11">
-        <v>943449</v>
+        <v>227228</v>
       </c>
       <c r="AZ65" s="11">
-        <v>227228</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>392631</v>
+        <v>275490</v>
       </c>
       <c r="BB65" s="11">
-        <v>275490</v>
+        <v>167013</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -9001,11 +9001,11 @@
       <c r="AR67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AS67" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT67" s="11">
+      <c r="AS67" s="11">
         <v>12945991</v>
+      </c>
+      <c r="AT67" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AU67" s="11" t="s">
         <v>62</v>
@@ -9100,8 +9100,8 @@
       <c r="X68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Y68" s="15" t="s">
-        <v>62</v>
+      <c r="Y68" s="15">
+        <v>0</v>
       </c>
       <c r="Z68" s="15">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="AS68" s="15">
-        <v>0</v>
+        <v>12945991</v>
       </c>
       <c r="AT68" s="15">
-        <v>12945991</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="15">
         <v>0</v>
@@ -9316,8 +9316,8 @@
       <c r="X70" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y70" s="17" t="s">
-        <v>62</v>
+      <c r="Y70" s="17">
+        <v>0</v>
       </c>
       <c r="Z70" s="17">
         <v>0</v>
@@ -9532,8 +9532,8 @@
       <c r="X72" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y72" s="11" t="s">
-        <v>62</v>
+      <c r="Y72" s="11">
+        <v>0</v>
       </c>
       <c r="Z72" s="11">
         <v>0</v>
@@ -9630,154 +9630,154 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>5169591</v>
+        <v>5959837</v>
       </c>
       <c r="F73" s="15">
-        <v>5959837</v>
+        <v>7305855</v>
       </c>
       <c r="G73" s="15">
-        <v>7305855</v>
+        <v>8391198</v>
       </c>
       <c r="H73" s="15">
-        <v>8391198</v>
+        <v>5011519</v>
       </c>
       <c r="I73" s="15">
-        <v>5011519</v>
+        <v>7239736</v>
       </c>
       <c r="J73" s="15">
-        <v>7239736</v>
+        <v>6818197</v>
       </c>
       <c r="K73" s="15">
-        <v>6818197</v>
+        <v>6942969</v>
       </c>
       <c r="L73" s="15">
-        <v>6942969</v>
+        <v>7086026</v>
       </c>
       <c r="M73" s="15">
-        <v>7086026</v>
+        <v>10606183</v>
       </c>
       <c r="N73" s="15">
-        <v>10606183</v>
+        <v>8022906</v>
       </c>
       <c r="O73" s="15">
-        <v>8022906</v>
+        <v>6659178</v>
       </c>
       <c r="P73" s="15">
-        <v>6659178</v>
+        <v>6281935</v>
       </c>
       <c r="Q73" s="15">
-        <v>6281935</v>
+        <v>7625875</v>
       </c>
       <c r="R73" s="15">
-        <v>7625875</v>
+        <v>6049313</v>
       </c>
       <c r="S73" s="15">
-        <v>6049313</v>
+        <v>8787545</v>
       </c>
       <c r="T73" s="15">
-        <v>8787545</v>
+        <v>10174857</v>
       </c>
       <c r="U73" s="15">
-        <v>10174857</v>
+        <v>7772908</v>
       </c>
       <c r="V73" s="15">
-        <v>7772908</v>
+        <v>4947052</v>
       </c>
       <c r="W73" s="15">
-        <v>4947052</v>
+        <v>7825011</v>
       </c>
       <c r="X73" s="15">
-        <v>7825011</v>
+        <v>8555821</v>
       </c>
       <c r="Y73" s="15">
-        <v>8555821</v>
+        <v>10998896</v>
       </c>
       <c r="Z73" s="15">
-        <v>10998896</v>
+        <v>16447195</v>
       </c>
       <c r="AA73" s="15">
-        <v>16447195</v>
+        <v>14417623</v>
       </c>
       <c r="AB73" s="15">
-        <v>14417623</v>
+        <v>25647943</v>
       </c>
       <c r="AC73" s="15">
-        <v>25647943</v>
+        <v>26296502</v>
       </c>
       <c r="AD73" s="15">
-        <v>26296502</v>
+        <v>25966902</v>
       </c>
       <c r="AE73" s="15">
-        <v>25966902</v>
+        <v>27488275</v>
       </c>
       <c r="AF73" s="15">
-        <v>27488275</v>
+        <v>39141148</v>
       </c>
       <c r="AG73" s="15">
-        <v>39141148</v>
+        <v>32204223</v>
       </c>
       <c r="AH73" s="15">
-        <v>32204223</v>
+        <v>25463099</v>
       </c>
       <c r="AI73" s="15">
-        <v>25463099</v>
+        <v>26102257</v>
       </c>
       <c r="AJ73" s="15">
-        <v>26102257</v>
+        <v>36618592</v>
       </c>
       <c r="AK73" s="15">
-        <v>36618592</v>
+        <v>31939521</v>
       </c>
       <c r="AL73" s="15">
-        <v>31939521</v>
+        <v>40621148</v>
       </c>
       <c r="AM73" s="15">
-        <v>40621148</v>
+        <v>40328687</v>
       </c>
       <c r="AN73" s="15">
-        <v>40328687</v>
+        <v>40002482</v>
       </c>
       <c r="AO73" s="15">
-        <v>40002482</v>
+        <v>37165595</v>
       </c>
       <c r="AP73" s="15">
-        <v>37165595</v>
+        <v>38767384</v>
       </c>
       <c r="AQ73" s="15">
-        <v>38767384</v>
+        <v>37582793</v>
       </c>
       <c r="AR73" s="15">
-        <v>37582793</v>
+        <v>31372014</v>
       </c>
       <c r="AS73" s="15">
-        <v>31372014</v>
+        <v>51906870</v>
       </c>
       <c r="AT73" s="15">
-        <v>51906870</v>
+        <v>39060492</v>
       </c>
       <c r="AU73" s="15">
-        <v>39060492</v>
+        <v>41824885</v>
       </c>
       <c r="AV73" s="15">
-        <v>41824885</v>
+        <v>43175714</v>
       </c>
       <c r="AW73" s="15">
-        <v>43175714</v>
+        <v>34860234</v>
       </c>
       <c r="AX73" s="15">
-        <v>34860234</v>
+        <v>16252496</v>
       </c>
       <c r="AY73" s="15">
-        <v>16252496</v>
+        <v>31531315</v>
       </c>
       <c r="AZ73" s="15">
-        <v>31531315</v>
+        <v>31298941</v>
       </c>
       <c r="BA73" s="15">
-        <v>31691572</v>
+        <v>42901434</v>
       </c>
       <c r="BB73" s="15">
-        <v>37511544</v>
+        <v>29906496</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10223,37 +10223,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>734213</v>
+        <v>1166738</v>
       </c>
       <c r="F80" s="11">
-        <v>1166738</v>
+        <v>3481092</v>
       </c>
       <c r="G80" s="11">
-        <v>3481092</v>
+        <v>1848540</v>
       </c>
       <c r="H80" s="11">
-        <v>1848540</v>
+        <v>1500028</v>
       </c>
       <c r="I80" s="11">
-        <v>1500028</v>
+        <v>0</v>
       </c>
       <c r="J80" s="11">
-        <v>0</v>
+        <v>1499982</v>
       </c>
       <c r="K80" s="11">
-        <v>1499982</v>
+        <v>1911555</v>
       </c>
       <c r="L80" s="11">
-        <v>1911555</v>
+        <v>950000</v>
       </c>
       <c r="M80" s="11">
-        <v>950000</v>
+        <v>2500014</v>
       </c>
       <c r="N80" s="11">
-        <v>2500014</v>
+        <v>2500052</v>
       </c>
       <c r="O80" s="11">
-        <v>2500052</v>
+        <v>0</v>
       </c>
       <c r="P80" s="11">
         <v>0</v>
@@ -10268,14 +10268,14 @@
         <v>0</v>
       </c>
       <c r="T80" s="11">
-        <v>0</v>
+        <v>2572090</v>
       </c>
       <c r="U80" s="11">
-        <v>2572090</v>
-      </c>
-      <c r="V80" s="11">
         <v>3101575</v>
       </c>
+      <c r="V80" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="W80" s="11" t="s">
         <v>62</v>
       </c>
@@ -10285,27 +10285,27 @@
       <c r="Y80" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Z80" s="11" t="s">
-        <v>62</v>
+      <c r="Z80" s="11">
+        <v>4459534</v>
       </c>
       <c r="AA80" s="11">
-        <v>4459534</v>
+        <v>4459544</v>
       </c>
       <c r="AB80" s="11">
-        <v>4459544</v>
+        <v>4459547</v>
       </c>
       <c r="AC80" s="11">
-        <v>4459547</v>
+        <v>4459541</v>
       </c>
       <c r="AD80" s="11">
-        <v>4459541</v>
+        <v>4459504</v>
       </c>
       <c r="AE80" s="11">
-        <v>4459504</v>
-      </c>
-      <c r="AF80" s="11">
         <v>12009286</v>
       </c>
+      <c r="AF80" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AG80" s="11" t="s">
         <v>62</v>
       </c>
@@ -10327,23 +10327,23 @@
       <c r="AM80" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AN80" s="11" t="s">
-        <v>62</v>
+      <c r="AN80" s="11">
+        <v>17835498</v>
       </c>
       <c r="AO80" s="11">
-        <v>17835498</v>
-      </c>
-      <c r="AP80" s="11">
         <v>18414333</v>
       </c>
-      <c r="AQ80" s="11" t="s">
-        <v>62</v>
+      <c r="AP80" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ80" s="11">
+        <v>17000000</v>
       </c>
       <c r="AR80" s="11">
-        <v>17000000</v>
-      </c>
-      <c r="AS80" s="11">
         <v>56353</v>
+      </c>
+      <c r="AS80" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AT80" s="11" t="s">
         <v>62</v>
@@ -10382,154 +10382,154 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>5699046</v>
+        <v>5848787</v>
       </c>
       <c r="F81" s="13">
-        <v>5848787</v>
+        <v>8678304</v>
       </c>
       <c r="G81" s="13">
+        <v>8678294</v>
+      </c>
+      <c r="H81" s="13">
         <v>8678304</v>
       </c>
-      <c r="H81" s="13">
-        <v>8678294</v>
-      </c>
       <c r="I81" s="13">
-        <v>8678304</v>
+        <v>8678316</v>
       </c>
       <c r="J81" s="13">
-        <v>8678316</v>
+        <v>8677882</v>
       </c>
       <c r="K81" s="13">
-        <v>8677882</v>
+        <v>8678274</v>
       </c>
       <c r="L81" s="13">
-        <v>8678274</v>
+        <v>8985427</v>
       </c>
       <c r="M81" s="13">
-        <v>8985427</v>
+        <v>8695013</v>
       </c>
       <c r="N81" s="13">
-        <v>8695013</v>
+        <v>8710872</v>
       </c>
       <c r="O81" s="13">
-        <v>8710872</v>
+        <v>9796582</v>
       </c>
       <c r="P81" s="13">
-        <v>9796582</v>
+        <v>10286141</v>
       </c>
       <c r="Q81" s="13">
-        <v>10286141</v>
+        <v>9410413</v>
       </c>
       <c r="R81" s="13">
-        <v>9410413</v>
+        <v>9242841</v>
       </c>
       <c r="S81" s="13">
-        <v>9242841</v>
+        <v>9858069</v>
       </c>
       <c r="T81" s="13">
-        <v>9858069</v>
+        <v>9868063</v>
       </c>
       <c r="U81" s="13">
-        <v>9868063</v>
+        <v>10925871</v>
       </c>
       <c r="V81" s="13">
-        <v>10925871</v>
+        <v>12042670</v>
       </c>
       <c r="W81" s="13">
-        <v>12042670</v>
+        <v>12042703</v>
       </c>
       <c r="X81" s="13">
-        <v>12042703</v>
+        <v>12403205</v>
       </c>
       <c r="Y81" s="13">
-        <v>12403205</v>
+        <v>14594640</v>
       </c>
       <c r="Z81" s="13">
-        <v>14594640</v>
+        <v>14599476</v>
       </c>
       <c r="AA81" s="13">
-        <v>14599476</v>
+        <v>16614066</v>
       </c>
       <c r="AB81" s="13">
-        <v>16614066</v>
+        <v>25160421</v>
       </c>
       <c r="AC81" s="13">
-        <v>25160421</v>
+        <v>27312399</v>
       </c>
       <c r="AD81" s="13">
-        <v>27312399</v>
+        <v>26520626</v>
       </c>
       <c r="AE81" s="13">
-        <v>26520626</v>
+        <v>29432889</v>
       </c>
       <c r="AF81" s="13">
-        <v>29432889</v>
+        <v>31074721</v>
       </c>
       <c r="AG81" s="13">
-        <v>31074721</v>
+        <v>31291082</v>
       </c>
       <c r="AH81" s="13">
-        <v>31291082</v>
+        <v>31291015</v>
       </c>
       <c r="AI81" s="13">
-        <v>31291015</v>
+        <v>34251040</v>
       </c>
       <c r="AJ81" s="13">
-        <v>34251040</v>
+        <v>35630976</v>
       </c>
       <c r="AK81" s="13">
-        <v>35630976</v>
+        <v>39789865</v>
       </c>
       <c r="AL81" s="13">
-        <v>39789865</v>
+        <v>42815593</v>
       </c>
       <c r="AM81" s="13">
-        <v>42815593</v>
+        <v>44392169</v>
       </c>
       <c r="AN81" s="13">
-        <v>44392169</v>
+        <v>41617257</v>
       </c>
       <c r="AO81" s="13">
-        <v>41617257</v>
+        <v>42966607</v>
       </c>
       <c r="AP81" s="13">
-        <v>42966607</v>
+        <v>41998835</v>
       </c>
       <c r="AQ81" s="13">
-        <v>41998835</v>
+        <v>41312398</v>
       </c>
       <c r="AR81" s="13">
-        <v>41312398</v>
+        <v>38720509</v>
       </c>
       <c r="AS81" s="13">
-        <v>38720509</v>
+        <v>40013870</v>
       </c>
       <c r="AT81" s="13">
-        <v>40013870</v>
+        <v>41327066</v>
       </c>
       <c r="AU81" s="13">
-        <v>41327066</v>
+        <v>43679008</v>
       </c>
       <c r="AV81" s="13">
-        <v>43679008</v>
+        <v>41073684</v>
       </c>
       <c r="AW81" s="13">
-        <v>41073684</v>
+        <v>40775677</v>
       </c>
       <c r="AX81" s="13">
-        <v>40775677</v>
+        <v>26721419</v>
       </c>
       <c r="AY81" s="13">
-        <v>26721419</v>
+        <v>29319775</v>
       </c>
       <c r="AZ81" s="13">
-        <v>29319775</v>
+        <v>27699967</v>
       </c>
       <c r="BA81" s="13">
-        <v>27699967</v>
+        <v>29539882</v>
       </c>
       <c r="BB81" s="13">
-        <v>29222034</v>
+        <v>30360870</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10541,154 +10541,154 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>3493437</v>
+        <v>3493436</v>
       </c>
       <c r="F82" s="11">
-        <v>3493436</v>
+        <v>5578179</v>
       </c>
       <c r="G82" s="11">
-        <v>5578179</v>
+        <v>5662380</v>
       </c>
       <c r="H82" s="11">
-        <v>5662380</v>
+        <v>5659592</v>
       </c>
       <c r="I82" s="11">
-        <v>5659592</v>
+        <v>5637666</v>
       </c>
       <c r="J82" s="11">
-        <v>5637666</v>
+        <v>5698241</v>
       </c>
       <c r="K82" s="11">
-        <v>5698241</v>
+        <v>5665658</v>
       </c>
       <c r="L82" s="11">
-        <v>5665658</v>
+        <v>5591530</v>
       </c>
       <c r="M82" s="11">
-        <v>5591530</v>
+        <v>5403762</v>
       </c>
       <c r="N82" s="11">
-        <v>5403762</v>
+        <v>5423503</v>
       </c>
       <c r="O82" s="11">
-        <v>5423503</v>
+        <v>6460502</v>
       </c>
       <c r="P82" s="11">
-        <v>6460502</v>
+        <v>6717447</v>
       </c>
       <c r="Q82" s="11">
-        <v>6717447</v>
+        <v>6145553</v>
       </c>
       <c r="R82" s="11">
-        <v>6145553</v>
+        <v>6059025</v>
       </c>
       <c r="S82" s="11">
-        <v>6059025</v>
+        <v>6444528</v>
       </c>
       <c r="T82" s="11">
-        <v>6444528</v>
+        <v>6444716</v>
       </c>
       <c r="U82" s="11">
-        <v>6444716</v>
+        <v>7142307</v>
       </c>
       <c r="V82" s="11">
-        <v>7142307</v>
+        <v>7888480</v>
       </c>
       <c r="W82" s="11">
-        <v>7888480</v>
+        <v>7864558</v>
       </c>
       <c r="X82" s="11">
-        <v>7864558</v>
+        <v>8100168</v>
       </c>
       <c r="Y82" s="11">
-        <v>8100168</v>
+        <v>9524851</v>
       </c>
       <c r="Z82" s="11">
-        <v>9524851</v>
+        <v>9434698</v>
       </c>
       <c r="AA82" s="11">
-        <v>9434698</v>
+        <v>11414812</v>
       </c>
       <c r="AB82" s="11">
-        <v>11414812</v>
+        <v>16840821</v>
       </c>
       <c r="AC82" s="11">
-        <v>16840821</v>
+        <v>18265756</v>
       </c>
       <c r="AD82" s="11">
-        <v>18265756</v>
+        <v>17754028</v>
       </c>
       <c r="AE82" s="11">
-        <v>17754028</v>
+        <v>19732752</v>
       </c>
       <c r="AF82" s="11">
-        <v>19732752</v>
+        <v>20635759</v>
       </c>
       <c r="AG82" s="11">
-        <v>20635759</v>
+        <v>20751798</v>
       </c>
       <c r="AH82" s="11">
-        <v>20751798</v>
+        <v>21697693</v>
       </c>
       <c r="AI82" s="11">
-        <v>21697693</v>
+        <v>22737982</v>
       </c>
       <c r="AJ82" s="11">
-        <v>22737982</v>
+        <v>25450442</v>
       </c>
       <c r="AK82" s="11">
-        <v>25450442</v>
+        <v>28421239</v>
       </c>
       <c r="AL82" s="11">
-        <v>28421239</v>
+        <v>30582623</v>
       </c>
       <c r="AM82" s="11">
-        <v>30582623</v>
+        <v>31072772</v>
       </c>
       <c r="AN82" s="11">
-        <v>31072772</v>
+        <v>29726523</v>
       </c>
       <c r="AO82" s="11">
-        <v>29726523</v>
+        <v>30690510</v>
       </c>
       <c r="AP82" s="11">
-        <v>30690510</v>
+        <v>29630234</v>
       </c>
       <c r="AQ82" s="11">
-        <v>29630234</v>
+        <v>29508828</v>
       </c>
       <c r="AR82" s="11">
-        <v>29508828</v>
+        <v>27368622</v>
       </c>
       <c r="AS82" s="11">
-        <v>27368622</v>
+        <v>28581335</v>
       </c>
       <c r="AT82" s="11">
-        <v>28581335</v>
+        <v>28043259</v>
       </c>
       <c r="AU82" s="11">
-        <v>28043259</v>
+        <v>32546896</v>
       </c>
       <c r="AV82" s="11">
-        <v>32546896</v>
+        <v>32479015</v>
       </c>
       <c r="AW82" s="11">
-        <v>32479015</v>
+        <v>30888249</v>
       </c>
       <c r="AX82" s="11">
-        <v>30888249</v>
+        <v>25023168</v>
       </c>
       <c r="AY82" s="11">
-        <v>25023168</v>
+        <v>26800207</v>
       </c>
       <c r="AZ82" s="11">
-        <v>26800207</v>
+        <v>23166859</v>
       </c>
       <c r="BA82" s="11">
-        <v>23166859</v>
+        <v>27286750</v>
       </c>
       <c r="BB82" s="11">
-        <v>24862875</v>
+        <v>26881346</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10700,154 +10700,154 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>2145833</v>
+        <v>2419355</v>
       </c>
       <c r="F83" s="13">
-        <v>2419355</v>
+        <v>2986883</v>
       </c>
       <c r="G83" s="13">
-        <v>2986883</v>
+        <v>3000000</v>
       </c>
       <c r="H83" s="13">
+        <v>2997579</v>
+      </c>
+      <c r="I83" s="13">
         <v>3000000</v>
       </c>
-      <c r="I83" s="13">
-        <v>2997579</v>
-      </c>
       <c r="J83" s="13">
-        <v>3000000</v>
+        <v>3003610</v>
       </c>
       <c r="K83" s="13">
-        <v>3003610</v>
+        <v>3004926</v>
       </c>
       <c r="L83" s="13">
-        <v>3004926</v>
+        <v>3521195</v>
       </c>
       <c r="M83" s="13">
-        <v>3521195</v>
+        <v>3531270</v>
       </c>
       <c r="N83" s="13">
-        <v>3531270</v>
+        <v>3645038</v>
       </c>
       <c r="O83" s="13">
-        <v>3645038</v>
+        <v>3601480</v>
       </c>
       <c r="P83" s="13">
-        <v>3601480</v>
+        <v>3770992</v>
       </c>
       <c r="Q83" s="13">
-        <v>3770992</v>
+        <v>3649943</v>
       </c>
       <c r="R83" s="13">
-        <v>3649943</v>
+        <v>0</v>
       </c>
       <c r="S83" s="13">
         <v>0</v>
       </c>
       <c r="T83" s="13">
-        <v>0</v>
+        <v>3618852</v>
       </c>
       <c r="U83" s="13">
-        <v>3618852</v>
+        <v>3617346</v>
       </c>
       <c r="V83" s="13">
-        <v>3617346</v>
-      </c>
-      <c r="W83" s="13">
         <v>4288355</v>
       </c>
-      <c r="X83" s="13" t="s">
-        <v>62</v>
+      <c r="W83" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X83" s="13">
+        <v>3638424</v>
       </c>
       <c r="Y83" s="13">
-        <v>3638424</v>
+        <v>7154902</v>
       </c>
       <c r="Z83" s="13">
-        <v>7154902</v>
+        <v>4008333</v>
       </c>
       <c r="AA83" s="13">
-        <v>4008333</v>
-      </c>
-      <c r="AB83" s="13">
         <v>3599830</v>
       </c>
-      <c r="AC83" s="13" t="s">
-        <v>62</v>
+      <c r="AB83" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC83" s="13">
+        <v>7201966</v>
       </c>
       <c r="AD83" s="13">
-        <v>7201966</v>
+        <v>5924177</v>
       </c>
       <c r="AE83" s="13">
-        <v>5924177</v>
+        <v>21000312</v>
       </c>
       <c r="AF83" s="13">
-        <v>21000312</v>
+        <v>20996405</v>
       </c>
       <c r="AG83" s="13">
-        <v>20996405</v>
+        <v>21000000</v>
       </c>
       <c r="AH83" s="13">
         <v>21000000</v>
       </c>
       <c r="AI83" s="13">
-        <v>21000000</v>
-      </c>
-      <c r="AJ83" s="13">
         <v>14906863</v>
       </c>
-      <c r="AK83" s="13" t="s">
-        <v>62</v>
+      <c r="AJ83" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK83" s="13">
+        <v>21000604</v>
       </c>
       <c r="AL83" s="13">
-        <v>21000604</v>
+        <v>21007241</v>
       </c>
       <c r="AM83" s="13">
-        <v>21007241</v>
+        <v>18341416</v>
       </c>
       <c r="AN83" s="13">
-        <v>18341416</v>
+        <v>21000022</v>
       </c>
       <c r="AO83" s="13">
-        <v>21000022</v>
+        <v>18844961</v>
       </c>
       <c r="AP83" s="13">
-        <v>18844961</v>
+        <v>16598578</v>
       </c>
       <c r="AQ83" s="13">
-        <v>16598578</v>
+        <v>18054537</v>
       </c>
       <c r="AR83" s="13">
-        <v>18054537</v>
+        <v>17270332</v>
       </c>
       <c r="AS83" s="13">
-        <v>17270332</v>
+        <v>32459815</v>
       </c>
       <c r="AT83" s="13">
-        <v>32459815</v>
+        <v>17149068</v>
       </c>
       <c r="AU83" s="13">
-        <v>17149068</v>
+        <v>20743259</v>
       </c>
       <c r="AV83" s="13">
-        <v>20743259</v>
+        <v>24202288</v>
       </c>
       <c r="AW83" s="13">
-        <v>24202288</v>
+        <v>20870168</v>
       </c>
       <c r="AX83" s="13">
-        <v>20870168</v>
+        <v>22424240</v>
       </c>
       <c r="AY83" s="13">
-        <v>22424240</v>
+        <v>22311535</v>
       </c>
       <c r="AZ83" s="13">
-        <v>22311535</v>
+        <v>21173622</v>
       </c>
       <c r="BA83" s="13">
-        <v>21173622</v>
-      </c>
-      <c r="BB83" s="13">
-        <v>21342716</v>
+        <v>26102089</v>
+      </c>
+      <c r="BB83" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10859,154 +10859,154 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>36206122</v>
+        <v>35167856</v>
       </c>
       <c r="F84" s="11">
-        <v>35167856</v>
+        <v>34318834</v>
       </c>
       <c r="G84" s="11">
-        <v>34318834</v>
+        <v>27938795</v>
       </c>
       <c r="H84" s="11">
-        <v>27938795</v>
+        <v>28614226</v>
       </c>
       <c r="I84" s="11">
-        <v>28614226</v>
+        <v>36372884</v>
       </c>
       <c r="J84" s="11">
-        <v>36372884</v>
+        <v>38973701</v>
       </c>
       <c r="K84" s="11">
-        <v>38973701</v>
+        <v>40268233</v>
       </c>
       <c r="L84" s="11">
-        <v>40268233</v>
+        <v>38498625</v>
       </c>
       <c r="M84" s="11">
-        <v>38498625</v>
+        <v>39895086</v>
       </c>
       <c r="N84" s="11">
-        <v>39895086</v>
+        <v>37277874</v>
       </c>
       <c r="O84" s="11">
-        <v>37277874</v>
+        <v>37474614</v>
       </c>
       <c r="P84" s="11">
-        <v>37474614</v>
+        <v>34572416</v>
       </c>
       <c r="Q84" s="11">
-        <v>34572416</v>
+        <v>35548010</v>
       </c>
       <c r="R84" s="11">
-        <v>35548010</v>
+        <v>36906816</v>
       </c>
       <c r="S84" s="11">
-        <v>36906816</v>
+        <v>40022588</v>
       </c>
       <c r="T84" s="11">
-        <v>40022588</v>
+        <v>44943256</v>
       </c>
       <c r="U84" s="11">
-        <v>44943256</v>
+        <v>46960287</v>
       </c>
       <c r="V84" s="11">
-        <v>46960287</v>
+        <v>45991493</v>
       </c>
       <c r="W84" s="11">
-        <v>45991493</v>
+        <v>45474838</v>
       </c>
       <c r="X84" s="11">
-        <v>45474838</v>
+        <v>53070864</v>
       </c>
       <c r="Y84" s="11">
-        <v>53070864</v>
+        <v>60578165</v>
       </c>
       <c r="Z84" s="11">
-        <v>60578165</v>
+        <v>70559053</v>
       </c>
       <c r="AA84" s="11">
-        <v>70559053</v>
+        <v>83895323</v>
       </c>
       <c r="AB84" s="11">
-        <v>83895323</v>
+        <v>93452926</v>
       </c>
       <c r="AC84" s="11">
-        <v>93452926</v>
+        <v>101508309</v>
       </c>
       <c r="AD84" s="11">
-        <v>101508309</v>
+        <v>103221264</v>
       </c>
       <c r="AE84" s="11">
-        <v>103221264</v>
+        <v>106738916</v>
       </c>
       <c r="AF84" s="11">
-        <v>106738916</v>
+        <v>116513641</v>
       </c>
       <c r="AG84" s="11">
-        <v>116513641</v>
+        <v>118331530</v>
       </c>
       <c r="AH84" s="11">
-        <v>118331530</v>
+        <v>107901657</v>
       </c>
       <c r="AI84" s="11">
-        <v>107901657</v>
+        <v>111494722</v>
       </c>
       <c r="AJ84" s="11">
-        <v>111494722</v>
+        <v>121739574</v>
       </c>
       <c r="AK84" s="11">
-        <v>121739574</v>
+        <v>127352398</v>
       </c>
       <c r="AL84" s="11">
-        <v>127352398</v>
+        <v>129023132</v>
       </c>
       <c r="AM84" s="11">
-        <v>129023132</v>
+        <v>132650046</v>
       </c>
       <c r="AN84" s="11">
-        <v>132650046</v>
+        <v>127938229</v>
       </c>
       <c r="AO84" s="11">
-        <v>127938229</v>
+        <v>136372727</v>
       </c>
       <c r="AP84" s="11">
-        <v>136372727</v>
+        <v>138931860</v>
       </c>
       <c r="AQ84" s="11">
-        <v>138931860</v>
+        <v>130019239</v>
       </c>
       <c r="AR84" s="11">
-        <v>130019239</v>
+        <v>129945998</v>
       </c>
       <c r="AS84" s="11">
-        <v>129945998</v>
+        <v>133194608</v>
       </c>
       <c r="AT84" s="11">
-        <v>133194608</v>
+        <v>141851290</v>
       </c>
       <c r="AU84" s="11">
-        <v>141851290</v>
+        <v>156685300</v>
       </c>
       <c r="AV84" s="11">
-        <v>156685300</v>
+        <v>155999014</v>
       </c>
       <c r="AW84" s="11">
-        <v>155999014</v>
+        <v>146351519</v>
       </c>
       <c r="AX84" s="11">
-        <v>146351519</v>
+        <v>136049065</v>
       </c>
       <c r="AY84" s="11">
-        <v>136049065</v>
+        <v>134132262</v>
       </c>
       <c r="AZ84" s="11">
-        <v>134132262</v>
+        <v>133212722</v>
       </c>
       <c r="BA84" s="11">
-        <v>133212722</v>
+        <v>136692370</v>
       </c>
       <c r="BB84" s="11">
-        <v>136695529</v>
+        <v>141036932</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11032,140 +11032,140 @@
       <c r="I85" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J85" s="13" t="s">
-        <v>62</v>
+      <c r="J85" s="13">
+        <v>15218360</v>
       </c>
       <c r="K85" s="13">
-        <v>15218360</v>
+        <v>13499560</v>
       </c>
       <c r="L85" s="13">
-        <v>13499560</v>
+        <v>16991057</v>
       </c>
       <c r="M85" s="13">
-        <v>16991057</v>
+        <v>16675202</v>
       </c>
       <c r="N85" s="13">
-        <v>16675202</v>
+        <v>16592984</v>
       </c>
       <c r="O85" s="13">
-        <v>16592984</v>
+        <v>16483117</v>
       </c>
       <c r="P85" s="13">
-        <v>16483117</v>
+        <v>18720792</v>
       </c>
       <c r="Q85" s="13">
-        <v>18720792</v>
+        <v>17582234</v>
       </c>
       <c r="R85" s="13">
-        <v>17582234</v>
+        <v>18779569</v>
       </c>
       <c r="S85" s="13">
-        <v>18779569</v>
+        <v>21248626</v>
       </c>
       <c r="T85" s="13">
-        <v>21248626</v>
+        <v>22516502</v>
       </c>
       <c r="U85" s="13">
-        <v>22516502</v>
+        <v>25300500</v>
       </c>
       <c r="V85" s="13">
-        <v>25300500</v>
+        <v>27998932</v>
       </c>
       <c r="W85" s="13">
-        <v>27998932</v>
+        <v>26850683</v>
       </c>
       <c r="X85" s="13">
-        <v>26850683</v>
+        <v>25800816</v>
       </c>
       <c r="Y85" s="13">
-        <v>25800816</v>
+        <v>29524702</v>
       </c>
       <c r="Z85" s="13">
-        <v>29524702</v>
+        <v>46041667</v>
       </c>
       <c r="AA85" s="13">
-        <v>46041667</v>
+        <v>37832462</v>
       </c>
       <c r="AB85" s="13">
-        <v>37832462</v>
+        <v>40267450</v>
       </c>
       <c r="AC85" s="13">
-        <v>40267450</v>
+        <v>40402438</v>
       </c>
       <c r="AD85" s="13">
-        <v>40402438</v>
+        <v>50684696</v>
       </c>
       <c r="AE85" s="13">
-        <v>50684696</v>
+        <v>51030624</v>
       </c>
       <c r="AF85" s="13">
-        <v>51030624</v>
+        <v>51968822</v>
       </c>
       <c r="AG85" s="13">
-        <v>51968822</v>
+        <v>61853466</v>
       </c>
       <c r="AH85" s="13">
-        <v>61853466</v>
+        <v>67508947</v>
       </c>
       <c r="AI85" s="13">
-        <v>67508947</v>
+        <v>68040353</v>
       </c>
       <c r="AJ85" s="13">
-        <v>68040353</v>
+        <v>72566191</v>
       </c>
       <c r="AK85" s="13">
-        <v>72566191</v>
+        <v>80152215</v>
       </c>
       <c r="AL85" s="13">
-        <v>80152215</v>
+        <v>76484013</v>
       </c>
       <c r="AM85" s="13">
-        <v>76484013</v>
+        <v>82405311</v>
       </c>
       <c r="AN85" s="13">
-        <v>82405311</v>
+        <v>80519799</v>
       </c>
       <c r="AO85" s="13">
-        <v>80519799</v>
+        <v>78558085</v>
       </c>
       <c r="AP85" s="13">
-        <v>78558085</v>
+        <v>79598813</v>
       </c>
       <c r="AQ85" s="13">
-        <v>79598813</v>
+        <v>82891618</v>
       </c>
       <c r="AR85" s="13">
-        <v>82891618</v>
-      </c>
-      <c r="AS85" s="13">
         <v>-56599</v>
       </c>
+      <c r="AS85" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AT85" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AU85" s="13" t="s">
-        <v>62</v>
+      <c r="AU85" s="13">
+        <v>93980714</v>
       </c>
       <c r="AV85" s="13">
-        <v>93980714</v>
+        <v>93964884</v>
       </c>
       <c r="AW85" s="13">
-        <v>93964884</v>
+        <v>0</v>
       </c>
       <c r="AX85" s="13">
         <v>0</v>
       </c>
       <c r="AY85" s="13">
-        <v>0</v>
+        <v>75773167</v>
       </c>
       <c r="AZ85" s="13">
-        <v>75773167</v>
+        <v>74035198</v>
       </c>
       <c r="BA85" s="13">
-        <v>74035198</v>
+        <v>75407902</v>
       </c>
       <c r="BB85" s="13">
-        <v>74163034</v>
+        <v>74473518</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11296,29 +11296,29 @@
       <c r="AR86" s="11">
         <v>0</v>
       </c>
-      <c r="AS86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT86" s="11" t="s">
-        <v>62</v>
+      <c r="AS86" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT86" s="11">
+        <v>0</v>
       </c>
       <c r="AU86" s="11">
         <v>0</v>
       </c>
-      <c r="AV86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW86" s="11" t="s">
-        <v>62</v>
+      <c r="AV86" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW86" s="11">
+        <v>0</v>
       </c>
       <c r="AX86" s="11">
         <v>0</v>
       </c>
-      <c r="AY86" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ86" s="11" t="s">
-        <v>62</v>
+      <c r="AY86" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ86" s="11">
+        <v>0</v>
       </c>
       <c r="BA86" s="11">
         <v>0</v>
@@ -11350,8 +11350,8 @@
       <c r="I87" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J87" s="13" t="s">
-        <v>62</v>
+      <c r="J87" s="13">
+        <v>0</v>
       </c>
       <c r="K87" s="13">
         <v>0</v>
@@ -11455,29 +11455,29 @@
       <c r="AR87" s="13">
         <v>0</v>
       </c>
-      <c r="AS87" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT87" s="13" t="s">
-        <v>62</v>
+      <c r="AS87" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT87" s="13">
+        <v>0</v>
       </c>
       <c r="AU87" s="13">
         <v>0</v>
       </c>
-      <c r="AV87" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW87" s="13" t="s">
-        <v>62</v>
+      <c r="AV87" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW87" s="13">
+        <v>0</v>
       </c>
       <c r="AX87" s="13">
         <v>0</v>
       </c>
-      <c r="AY87" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ87" s="13" t="s">
-        <v>62</v>
+      <c r="AY87" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ87" s="13">
+        <v>0</v>
       </c>
       <c r="BA87" s="13">
         <v>0</v>
@@ -11518,11 +11518,11 @@
       <c r="L88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M88" s="11" t="s">
-        <v>62</v>
+      <c r="M88" s="11">
+        <v>4493683</v>
       </c>
       <c r="N88" s="11">
-        <v>4493683</v>
+        <v>0</v>
       </c>
       <c r="O88" s="11">
         <v>0</v>
@@ -11545,8 +11545,8 @@
       <c r="U88" s="11">
         <v>0</v>
       </c>
-      <c r="V88" s="11">
-        <v>0</v>
+      <c r="V88" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="W88" s="11" t="s">
         <v>62</v>
@@ -11581,59 +11581,59 @@
       <c r="AG88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AH88" s="11" t="s">
-        <v>62</v>
+      <c r="AH88" s="11">
+        <v>12492958</v>
       </c>
       <c r="AI88" s="11">
-        <v>12492958</v>
-      </c>
-      <c r="AJ88" s="11">
         <v>12500036</v>
       </c>
-      <c r="AK88" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL88" s="11">
+      <c r="AJ88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK88" s="11">
         <v>12500055</v>
       </c>
+      <c r="AL88" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AM88" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AN88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AO88" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP88" s="11">
+      <c r="AO88" s="11">
         <v>12501294</v>
       </c>
-      <c r="AQ88" s="11" t="s">
-        <v>62</v>
+      <c r="AP88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ88" s="11">
+        <v>14506472</v>
       </c>
       <c r="AR88" s="11">
-        <v>14506472</v>
+        <v>14500703</v>
       </c>
       <c r="AS88" s="11">
-        <v>14500703</v>
+        <v>12071429</v>
       </c>
       <c r="AT88" s="11">
-        <v>12071429</v>
+        <v>16396436</v>
       </c>
       <c r="AU88" s="11">
-        <v>16396436</v>
+        <v>12870859</v>
       </c>
       <c r="AV88" s="11">
-        <v>12870859</v>
+        <v>21481618</v>
       </c>
       <c r="AW88" s="11">
-        <v>21481618</v>
+        <v>0</v>
       </c>
       <c r="AX88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY88" s="11">
         <v>16468285</v>
+      </c>
+      <c r="AY88" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AZ88" s="11" t="s">
         <v>62</v>
@@ -11686,8 +11686,8 @@
       <c r="O89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P89" s="13" t="s">
-        <v>62</v>
+      <c r="P89" s="13">
+        <v>0</v>
       </c>
       <c r="Q89" s="13">
         <v>0</v>
@@ -11704,8 +11704,8 @@
       <c r="U89" s="13">
         <v>0</v>
       </c>
-      <c r="V89" s="13">
-        <v>0</v>
+      <c r="V89" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="W89" s="13" t="s">
         <v>62</v>
@@ -11719,12 +11719,12 @@
       <c r="Z89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB89" s="13">
+      <c r="AA89" s="13">
         <v>667728</v>
       </c>
+      <c r="AB89" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AC89" s="13" t="s">
         <v>62</v>
       </c>
@@ -11737,12 +11737,12 @@
       <c r="AF89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AG89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH89" s="13">
+      <c r="AG89" s="13">
         <v>499872</v>
       </c>
+      <c r="AH89" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AI89" s="13" t="s">
         <v>62</v>
       </c>
@@ -11767,41 +11767,41 @@
       <c r="AP89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AQ89" s="13" t="s">
-        <v>62</v>
+      <c r="AQ89" s="13">
+        <v>698932</v>
       </c>
       <c r="AR89" s="13">
-        <v>698932</v>
+        <v>948563</v>
       </c>
       <c r="AS89" s="13">
-        <v>948563</v>
-      </c>
-      <c r="AT89" s="13">
         <v>85098</v>
       </c>
-      <c r="AU89" s="13" t="s">
-        <v>62</v>
+      <c r="AT89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU89" s="13">
+        <v>0</v>
       </c>
       <c r="AV89" s="13">
-        <v>0</v>
+        <v>1294757</v>
       </c>
       <c r="AW89" s="13">
-        <v>1294757</v>
+        <v>4230</v>
       </c>
       <c r="AX89" s="13">
-        <v>4230</v>
+        <v>1806029</v>
       </c>
       <c r="AY89" s="13">
-        <v>1806029</v>
-      </c>
-      <c r="AZ89" s="13">
         <v>1331123</v>
       </c>
+      <c r="AZ89" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="BA89" s="13">
-        <v>-347574</v>
+        <v>1270863</v>
       </c>
       <c r="BB89" s="13">
-        <v>1270863</v>
+        <v>1048458</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11989,11 +11989,11 @@
       <c r="AR91" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AS91" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT91" s="11">
-        <v>0</v>
+      <c r="AS91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AU91" s="11" t="s">
         <v>62</v>

--- a/database/industries/folad/kechad/product/monthly.xlsx
+++ b/database/industries/folad/kechad/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE905A29-5FEC-442F-8AF5-DB38532EB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D4AE0-72AC-4B76-BE90-B613DC8621C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سنگ دانه بندی</t>
@@ -760,12 +760,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -820,7 +820,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -989,7 +989,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1436,82 +1436,82 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>30180</v>
+        <v>31875</v>
       </c>
       <c r="F11" s="11">
-        <v>40205</v>
+        <v>24225</v>
       </c>
       <c r="G11" s="11">
-        <v>31875</v>
+        <v>25500</v>
       </c>
       <c r="H11" s="11">
-        <v>24225</v>
+        <v>17000</v>
       </c>
       <c r="I11" s="11">
-        <v>25500</v>
+        <v>35700</v>
       </c>
       <c r="J11" s="11">
-        <v>17000</v>
+        <v>35700</v>
       </c>
       <c r="K11" s="11">
-        <v>35700</v>
+        <v>54570</v>
       </c>
       <c r="L11" s="11">
-        <v>35700</v>
+        <v>15825</v>
       </c>
       <c r="M11" s="11">
-        <v>54570</v>
+        <v>27900</v>
       </c>
       <c r="N11" s="11">
-        <v>15825</v>
+        <v>33975</v>
       </c>
       <c r="O11" s="11">
-        <v>27900</v>
+        <v>33375</v>
       </c>
       <c r="P11" s="11">
-        <v>33975</v>
+        <v>30000</v>
       </c>
       <c r="Q11" s="11">
-        <v>33375</v>
+        <v>27225</v>
       </c>
       <c r="R11" s="11">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="S11" s="11">
-        <v>27225</v>
+        <v>160130</v>
       </c>
       <c r="T11" s="11">
-        <v>48000</v>
+        <v>15525</v>
       </c>
       <c r="U11" s="11">
-        <v>160130</v>
+        <v>31500</v>
       </c>
       <c r="V11" s="11">
-        <v>15525</v>
+        <v>31500</v>
       </c>
       <c r="W11" s="11">
+        <v>30750</v>
+      </c>
+      <c r="X11" s="11">
+        <v>30825</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>31575</v>
+      </c>
+      <c r="Z11" s="11">
         <v>31500</v>
       </c>
-      <c r="X11" s="11">
+      <c r="AA11" s="11">
         <v>31500</v>
       </c>
-      <c r="Y11" s="11">
-        <v>30750</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>30825</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>31575</v>
-      </c>
       <c r="AB11" s="11">
-        <v>31500</v>
+        <v>19472</v>
       </c>
       <c r="AC11" s="11">
-        <v>31500</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>19472</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="11">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1595,157 +1595,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>282080</v>
+        <v>317836</v>
       </c>
       <c r="F12" s="13">
-        <v>324266</v>
+        <v>289649</v>
       </c>
       <c r="G12" s="13">
-        <v>317836</v>
+        <v>328616</v>
       </c>
       <c r="H12" s="13">
-        <v>289649</v>
+        <v>339399</v>
       </c>
       <c r="I12" s="13">
-        <v>328616</v>
+        <v>365223</v>
       </c>
       <c r="J12" s="13">
-        <v>339399</v>
+        <v>307434</v>
       </c>
       <c r="K12" s="13">
-        <v>365223</v>
+        <v>354855</v>
       </c>
       <c r="L12" s="13">
-        <v>307434</v>
+        <v>340180</v>
       </c>
       <c r="M12" s="13">
-        <v>354855</v>
+        <v>0</v>
       </c>
       <c r="N12" s="13">
-        <v>340180</v>
+        <v>228822</v>
       </c>
       <c r="O12" s="13">
-        <v>0</v>
+        <v>350202</v>
       </c>
       <c r="P12" s="13">
-        <v>228822</v>
+        <v>334843</v>
       </c>
       <c r="Q12" s="13">
-        <v>350202</v>
+        <v>293356</v>
       </c>
       <c r="R12" s="13">
-        <v>334843</v>
+        <v>333177</v>
       </c>
       <c r="S12" s="13">
-        <v>293356</v>
+        <v>277380</v>
       </c>
       <c r="T12" s="13">
-        <v>333177</v>
+        <v>331301</v>
       </c>
       <c r="U12" s="13">
-        <v>277380</v>
+        <v>194569</v>
       </c>
       <c r="V12" s="13">
-        <v>331301</v>
+        <v>344676</v>
       </c>
       <c r="W12" s="13">
-        <v>194569</v>
+        <v>328099</v>
       </c>
       <c r="X12" s="13">
-        <v>344676</v>
+        <v>334795</v>
       </c>
       <c r="Y12" s="13">
-        <v>328099</v>
+        <v>341465</v>
       </c>
       <c r="Z12" s="13">
-        <v>334795</v>
+        <v>306003</v>
       </c>
       <c r="AA12" s="13">
-        <v>341465</v>
+        <v>278359</v>
       </c>
       <c r="AB12" s="13">
-        <v>306003</v>
+        <v>295020</v>
       </c>
       <c r="AC12" s="13">
-        <v>278359</v>
+        <v>329188</v>
       </c>
       <c r="AD12" s="13">
-        <v>295020</v>
+        <v>335894</v>
       </c>
       <c r="AE12" s="13">
-        <v>329188</v>
+        <v>310803</v>
       </c>
       <c r="AF12" s="13">
-        <v>335894</v>
+        <v>278428</v>
       </c>
       <c r="AG12" s="13">
-        <v>310803</v>
+        <v>343838</v>
       </c>
       <c r="AH12" s="13">
-        <v>278428</v>
+        <v>68654</v>
       </c>
       <c r="AI12" s="13">
-        <v>343838</v>
+        <v>286498</v>
       </c>
       <c r="AJ12" s="13">
-        <v>68654</v>
+        <v>367954</v>
       </c>
       <c r="AK12" s="13">
-        <v>286498</v>
+        <v>368522</v>
       </c>
       <c r="AL12" s="13">
-        <v>367954</v>
+        <v>370603</v>
       </c>
       <c r="AM12" s="13">
-        <v>368522</v>
+        <v>344629</v>
       </c>
       <c r="AN12" s="13">
-        <v>370603</v>
+        <v>334942</v>
       </c>
       <c r="AO12" s="13">
-        <v>344629</v>
+        <v>388118</v>
       </c>
       <c r="AP12" s="13">
-        <v>334942</v>
+        <v>332414</v>
       </c>
       <c r="AQ12" s="13">
-        <v>388118</v>
+        <v>324997</v>
       </c>
       <c r="AR12" s="13">
-        <v>332414</v>
+        <v>393264</v>
       </c>
       <c r="AS12" s="13">
-        <v>324997</v>
+        <v>395162</v>
       </c>
       <c r="AT12" s="13">
-        <v>393264</v>
+        <v>396524</v>
       </c>
       <c r="AU12" s="13">
-        <v>395162</v>
+        <v>690</v>
       </c>
       <c r="AV12" s="13">
-        <v>396524</v>
+        <v>250670</v>
       </c>
       <c r="AW12" s="13">
-        <v>690</v>
+        <v>393617</v>
       </c>
       <c r="AX12" s="13">
-        <v>250670</v>
+        <v>381018</v>
       </c>
       <c r="AY12" s="13">
-        <v>393617</v>
+        <v>374932</v>
       </c>
       <c r="AZ12" s="13">
-        <v>381018</v>
+        <v>366624</v>
       </c>
       <c r="BA12" s="13">
-        <v>374932</v>
+        <v>309373</v>
       </c>
       <c r="BB12" s="13">
-        <v>366624</v>
+        <v>133510</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1754,157 +1754,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>795302</v>
+        <v>812679</v>
       </c>
       <c r="F13" s="11">
-        <v>736016</v>
+        <v>672117</v>
       </c>
       <c r="G13" s="11">
-        <v>812679</v>
+        <v>670749</v>
       </c>
       <c r="H13" s="11">
-        <v>672117</v>
+        <v>847800</v>
       </c>
       <c r="I13" s="11">
-        <v>670749</v>
+        <v>831969</v>
       </c>
       <c r="J13" s="11">
-        <v>847800</v>
+        <v>696861</v>
       </c>
       <c r="K13" s="11">
-        <v>831969</v>
+        <v>700883</v>
       </c>
       <c r="L13" s="11">
-        <v>696861</v>
+        <v>791952</v>
       </c>
       <c r="M13" s="11">
-        <v>700883</v>
+        <v>766088</v>
       </c>
       <c r="N13" s="11">
-        <v>791952</v>
+        <v>626101</v>
       </c>
       <c r="O13" s="11">
-        <v>766088</v>
+        <v>596493</v>
       </c>
       <c r="P13" s="11">
-        <v>626101</v>
+        <v>562837</v>
       </c>
       <c r="Q13" s="11">
-        <v>596493</v>
+        <v>810477</v>
       </c>
       <c r="R13" s="11">
-        <v>562837</v>
+        <v>845176</v>
       </c>
       <c r="S13" s="11">
-        <v>810477</v>
+        <v>678333</v>
       </c>
       <c r="T13" s="11">
-        <v>845176</v>
+        <v>668253</v>
       </c>
       <c r="U13" s="11">
-        <v>678333</v>
+        <v>910592</v>
       </c>
       <c r="V13" s="11">
-        <v>668253</v>
+        <v>804246</v>
       </c>
       <c r="W13" s="11">
-        <v>910592</v>
+        <v>890890</v>
       </c>
       <c r="X13" s="11">
-        <v>804246</v>
+        <v>957594</v>
       </c>
       <c r="Y13" s="11">
-        <v>890890</v>
+        <v>795743</v>
       </c>
       <c r="Z13" s="11">
-        <v>957594</v>
+        <v>859658</v>
       </c>
       <c r="AA13" s="11">
-        <v>795743</v>
+        <v>1003908</v>
       </c>
       <c r="AB13" s="11">
-        <v>859658</v>
+        <v>883640</v>
       </c>
       <c r="AC13" s="11">
-        <v>1003908</v>
+        <v>886252</v>
       </c>
       <c r="AD13" s="11">
-        <v>883640</v>
+        <v>895984</v>
       </c>
       <c r="AE13" s="11">
-        <v>886252</v>
+        <v>879248</v>
       </c>
       <c r="AF13" s="11">
-        <v>895984</v>
+        <v>862967</v>
       </c>
       <c r="AG13" s="11">
-        <v>879248</v>
+        <v>925235</v>
       </c>
       <c r="AH13" s="11">
-        <v>862967</v>
+        <v>1039936</v>
       </c>
       <c r="AI13" s="11">
-        <v>925235</v>
+        <v>928134</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1039936</v>
+        <v>919854</v>
       </c>
       <c r="AK13" s="11">
-        <v>928134</v>
+        <v>940094</v>
       </c>
       <c r="AL13" s="11">
-        <v>919854</v>
+        <v>896262</v>
       </c>
       <c r="AM13" s="11">
-        <v>940094</v>
+        <v>945244</v>
       </c>
       <c r="AN13" s="11">
-        <v>896262</v>
+        <v>885132</v>
       </c>
       <c r="AO13" s="11">
-        <v>945244</v>
+        <v>877087</v>
       </c>
       <c r="AP13" s="11">
-        <v>885132</v>
+        <v>925572</v>
       </c>
       <c r="AQ13" s="11">
-        <v>877087</v>
+        <v>876760</v>
       </c>
       <c r="AR13" s="11">
-        <v>925572</v>
+        <v>916434</v>
       </c>
       <c r="AS13" s="11">
-        <v>876760</v>
+        <v>961840</v>
       </c>
       <c r="AT13" s="11">
-        <v>916434</v>
+        <v>794876</v>
       </c>
       <c r="AU13" s="11">
-        <v>970646</v>
+        <v>653562</v>
       </c>
       <c r="AV13" s="11">
-        <v>794876</v>
+        <v>790247</v>
       </c>
       <c r="AW13" s="11">
-        <v>653562</v>
+        <v>767240</v>
       </c>
       <c r="AX13" s="11">
-        <v>790247</v>
+        <v>863908</v>
       </c>
       <c r="AY13" s="11">
-        <v>767240</v>
+        <v>867784</v>
       </c>
       <c r="AZ13" s="11">
-        <v>863908</v>
+        <v>934499</v>
       </c>
       <c r="BA13" s="11">
-        <v>867784</v>
+        <v>796500</v>
       </c>
       <c r="BB13" s="11">
-        <v>934499</v>
+        <v>861717</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1913,157 +1913,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1570</v>
+        <v>1632</v>
       </c>
       <c r="F14" s="13">
-        <v>3004</v>
+        <v>437</v>
       </c>
       <c r="G14" s="13">
-        <v>1632</v>
+        <v>431</v>
       </c>
       <c r="H14" s="13">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
-        <v>431</v>
+        <v>1546</v>
       </c>
       <c r="J14" s="13">
-        <v>0</v>
+        <v>1948</v>
       </c>
       <c r="K14" s="13">
-        <v>1546</v>
+        <v>4027</v>
       </c>
       <c r="L14" s="13">
-        <v>1948</v>
+        <v>4784</v>
       </c>
       <c r="M14" s="13">
-        <v>4027</v>
+        <v>6059</v>
       </c>
       <c r="N14" s="13">
-        <v>4784</v>
+        <v>6084</v>
       </c>
       <c r="O14" s="13">
-        <v>6059</v>
+        <v>4062</v>
       </c>
       <c r="P14" s="13">
-        <v>6084</v>
+        <v>2437</v>
       </c>
       <c r="Q14" s="13">
-        <v>4062</v>
+        <v>8095</v>
       </c>
       <c r="R14" s="13">
-        <v>2437</v>
+        <v>7472</v>
       </c>
       <c r="S14" s="13">
-        <v>8095</v>
+        <v>0</v>
       </c>
       <c r="T14" s="13">
-        <v>7472</v>
+        <v>1973</v>
       </c>
       <c r="U14" s="13">
-        <v>0</v>
+        <v>5207</v>
       </c>
       <c r="V14" s="13">
-        <v>1973</v>
+        <v>0</v>
       </c>
       <c r="W14" s="13">
-        <v>5207</v>
+        <v>3822</v>
       </c>
       <c r="X14" s="13">
-        <v>0</v>
+        <v>9439</v>
       </c>
       <c r="Y14" s="13">
-        <v>3822</v>
+        <v>5730</v>
       </c>
       <c r="Z14" s="13">
-        <v>9439</v>
+        <v>6341</v>
       </c>
       <c r="AA14" s="13">
-        <v>5730</v>
+        <v>7281</v>
       </c>
       <c r="AB14" s="13">
-        <v>6341</v>
+        <v>2632</v>
       </c>
       <c r="AC14" s="13">
-        <v>7281</v>
+        <v>8109</v>
       </c>
       <c r="AD14" s="13">
-        <v>2632</v>
+        <v>4435</v>
       </c>
       <c r="AE14" s="13">
-        <v>8109</v>
+        <v>3983</v>
       </c>
       <c r="AF14" s="13">
-        <v>4435</v>
+        <v>843</v>
       </c>
       <c r="AG14" s="13">
-        <v>3983</v>
+        <v>4668</v>
       </c>
       <c r="AH14" s="13">
-        <v>843</v>
+        <v>10867</v>
       </c>
       <c r="AI14" s="13">
-        <v>4668</v>
+        <v>10227</v>
       </c>
       <c r="AJ14" s="13">
-        <v>10867</v>
+        <v>9582</v>
       </c>
       <c r="AK14" s="13">
-        <v>10227</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="13">
-        <v>9582</v>
+        <v>2544</v>
       </c>
       <c r="AM14" s="13">
-        <v>0</v>
+        <v>3773</v>
       </c>
       <c r="AN14" s="13">
-        <v>2544</v>
+        <v>1597</v>
       </c>
       <c r="AO14" s="13">
-        <v>3773</v>
+        <v>5913</v>
       </c>
       <c r="AP14" s="13">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5913</v>
+        <v>30998</v>
       </c>
       <c r="AR14" s="13">
-        <v>0</v>
+        <v>3352</v>
       </c>
       <c r="AS14" s="13">
-        <v>30998</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
-        <v>3352</v>
+        <v>6437</v>
       </c>
       <c r="AU14" s="13">
-        <v>655</v>
+        <v>4238</v>
       </c>
       <c r="AV14" s="13">
-        <v>6437</v>
+        <v>5858</v>
       </c>
       <c r="AW14" s="13">
-        <v>4238</v>
+        <v>5666</v>
       </c>
       <c r="AX14" s="13">
-        <v>5858</v>
+        <v>5809</v>
       </c>
       <c r="AY14" s="13">
-        <v>5666</v>
+        <v>5765</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5809</v>
+        <v>15419</v>
       </c>
       <c r="BA14" s="13">
-        <v>4339</v>
+        <v>6786</v>
       </c>
       <c r="BB14" s="13">
-        <v>15419</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>60</v>
       </c>
@@ -2072,157 +2072,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>80311</v>
+        <v>84588</v>
       </c>
       <c r="F15" s="11">
-        <v>83411</v>
+        <v>70055</v>
       </c>
       <c r="G15" s="11">
-        <v>84588</v>
+        <v>65965</v>
       </c>
       <c r="H15" s="11">
-        <v>70055</v>
+        <v>87626</v>
       </c>
       <c r="I15" s="11">
-        <v>65965</v>
+        <v>87762</v>
       </c>
       <c r="J15" s="11">
-        <v>87626</v>
+        <v>86655</v>
       </c>
       <c r="K15" s="11">
-        <v>87762</v>
+        <v>83000</v>
       </c>
       <c r="L15" s="11">
-        <v>86655</v>
+        <v>62853</v>
       </c>
       <c r="M15" s="11">
-        <v>83000</v>
+        <v>88291</v>
       </c>
       <c r="N15" s="11">
-        <v>62853</v>
+        <v>75591</v>
       </c>
       <c r="O15" s="11">
-        <v>88291</v>
+        <v>90845</v>
       </c>
       <c r="P15" s="11">
-        <v>75591</v>
+        <v>87538</v>
       </c>
       <c r="Q15" s="11">
-        <v>90845</v>
+        <v>90862</v>
       </c>
       <c r="R15" s="11">
-        <v>87538</v>
+        <v>91552</v>
       </c>
       <c r="S15" s="11">
-        <v>90862</v>
+        <v>88924</v>
       </c>
       <c r="T15" s="11">
-        <v>91552</v>
+        <v>88910</v>
       </c>
       <c r="U15" s="11">
-        <v>88924</v>
+        <v>78412</v>
       </c>
       <c r="V15" s="11">
-        <v>88910</v>
+        <v>86843</v>
       </c>
       <c r="W15" s="11">
-        <v>78412</v>
+        <v>73984</v>
       </c>
       <c r="X15" s="11">
-        <v>86843</v>
+        <v>65365</v>
       </c>
       <c r="Y15" s="11">
-        <v>73984</v>
+        <v>85628</v>
       </c>
       <c r="Z15" s="11">
-        <v>65365</v>
+        <v>78693</v>
       </c>
       <c r="AA15" s="11">
-        <v>85628</v>
+        <v>94386</v>
       </c>
       <c r="AB15" s="11">
-        <v>78693</v>
+        <v>93249</v>
       </c>
       <c r="AC15" s="11">
-        <v>94386</v>
+        <v>87025</v>
       </c>
       <c r="AD15" s="11">
-        <v>93249</v>
+        <v>95122</v>
       </c>
       <c r="AE15" s="11">
-        <v>87025</v>
+        <v>97881</v>
       </c>
       <c r="AF15" s="11">
-        <v>95122</v>
+        <v>105435</v>
       </c>
       <c r="AG15" s="11">
-        <v>97881</v>
+        <v>99174</v>
       </c>
       <c r="AH15" s="11">
-        <v>105435</v>
+        <v>101603</v>
       </c>
       <c r="AI15" s="11">
-        <v>99174</v>
+        <v>49773</v>
       </c>
       <c r="AJ15" s="11">
-        <v>101603</v>
+        <v>36472</v>
       </c>
       <c r="AK15" s="11">
-        <v>49773</v>
+        <v>63803</v>
       </c>
       <c r="AL15" s="11">
-        <v>36472</v>
+        <v>94137</v>
       </c>
       <c r="AM15" s="11">
-        <v>63803</v>
+        <v>101456</v>
       </c>
       <c r="AN15" s="11">
-        <v>94137</v>
+        <v>107576</v>
       </c>
       <c r="AO15" s="11">
-        <v>101456</v>
+        <v>102471</v>
       </c>
       <c r="AP15" s="11">
-        <v>107576</v>
+        <v>88471</v>
       </c>
       <c r="AQ15" s="11">
-        <v>102471</v>
+        <v>104427</v>
       </c>
       <c r="AR15" s="11">
-        <v>88471</v>
+        <v>108137</v>
       </c>
       <c r="AS15" s="11">
-        <v>104427</v>
+        <v>112234</v>
       </c>
       <c r="AT15" s="11">
-        <v>108137</v>
+        <v>101579</v>
       </c>
       <c r="AU15" s="11">
-        <v>112234</v>
+        <v>95146</v>
       </c>
       <c r="AV15" s="11">
-        <v>101579</v>
+        <v>63630</v>
       </c>
       <c r="AW15" s="11">
-        <v>95146</v>
+        <v>110792</v>
       </c>
       <c r="AX15" s="11">
-        <v>63630</v>
+        <v>106024</v>
       </c>
       <c r="AY15" s="11">
-        <v>110792</v>
+        <v>107008</v>
       </c>
       <c r="AZ15" s="11">
-        <v>106024</v>
+        <v>103816</v>
       </c>
       <c r="BA15" s="11">
-        <v>107008</v>
+        <v>89012</v>
       </c>
       <c r="BB15" s="11">
-        <v>103816</v>
+        <v>83780</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>61</v>
       </c>
@@ -2239,149 +2239,149 @@
       <c r="G16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>62</v>
+      <c r="H16" s="13">
+        <v>118301</v>
+      </c>
+      <c r="I16" s="13">
+        <v>122424</v>
       </c>
       <c r="J16" s="13">
-        <v>118301</v>
+        <v>104633</v>
       </c>
       <c r="K16" s="13">
-        <v>122424</v>
+        <v>131336</v>
       </c>
       <c r="L16" s="13">
-        <v>104633</v>
+        <v>146305</v>
       </c>
       <c r="M16" s="13">
-        <v>131336</v>
+        <v>136552</v>
       </c>
       <c r="N16" s="13">
-        <v>146305</v>
+        <v>118231</v>
       </c>
       <c r="O16" s="13">
-        <v>136552</v>
+        <v>132818</v>
       </c>
       <c r="P16" s="13">
-        <v>118231</v>
+        <v>142503</v>
       </c>
       <c r="Q16" s="13">
-        <v>132818</v>
+        <v>149220</v>
       </c>
       <c r="R16" s="13">
-        <v>142503</v>
+        <v>142034</v>
       </c>
       <c r="S16" s="13">
-        <v>149220</v>
+        <v>137100</v>
       </c>
       <c r="T16" s="13">
-        <v>142034</v>
+        <v>138219</v>
       </c>
       <c r="U16" s="13">
-        <v>137100</v>
+        <v>138617</v>
       </c>
       <c r="V16" s="13">
-        <v>138219</v>
+        <v>144545</v>
       </c>
       <c r="W16" s="13">
-        <v>138617</v>
+        <v>138241</v>
       </c>
       <c r="X16" s="13">
-        <v>144545</v>
+        <v>147473</v>
       </c>
       <c r="Y16" s="13">
-        <v>138241</v>
+        <v>125260</v>
       </c>
       <c r="Z16" s="13">
-        <v>147473</v>
+        <v>76829</v>
       </c>
       <c r="AA16" s="13">
-        <v>125260</v>
+        <v>144233</v>
       </c>
       <c r="AB16" s="13">
-        <v>76829</v>
+        <v>140137</v>
       </c>
       <c r="AC16" s="13">
-        <v>144233</v>
+        <v>125206</v>
       </c>
       <c r="AD16" s="13">
-        <v>140137</v>
+        <v>140848</v>
       </c>
       <c r="AE16" s="13">
-        <v>125206</v>
+        <v>143235</v>
       </c>
       <c r="AF16" s="13">
-        <v>140848</v>
+        <v>155877</v>
       </c>
       <c r="AG16" s="13">
-        <v>143235</v>
+        <v>135308</v>
       </c>
       <c r="AH16" s="13">
-        <v>155877</v>
+        <v>155380</v>
       </c>
       <c r="AI16" s="13">
-        <v>135308</v>
+        <v>111591</v>
       </c>
       <c r="AJ16" s="13">
-        <v>155380</v>
+        <v>137296</v>
       </c>
       <c r="AK16" s="13">
-        <v>111591</v>
+        <v>119155</v>
       </c>
       <c r="AL16" s="13">
-        <v>137296</v>
+        <v>50166</v>
       </c>
       <c r="AM16" s="13">
-        <v>119155</v>
+        <v>134534</v>
       </c>
       <c r="AN16" s="13">
-        <v>50166</v>
+        <v>134942</v>
       </c>
       <c r="AO16" s="13">
-        <v>134534</v>
+        <v>132751</v>
       </c>
       <c r="AP16" s="13">
-        <v>134942</v>
+        <v>55848</v>
       </c>
       <c r="AQ16" s="13">
-        <v>132751</v>
+        <v>141888</v>
       </c>
       <c r="AR16" s="13">
-        <v>55848</v>
+        <v>156041</v>
       </c>
       <c r="AS16" s="13">
-        <v>141888</v>
+        <v>156503</v>
       </c>
       <c r="AT16" s="13">
-        <v>156041</v>
+        <v>152322</v>
       </c>
       <c r="AU16" s="13">
-        <v>156503</v>
+        <v>155946</v>
       </c>
       <c r="AV16" s="13">
-        <v>152322</v>
+        <v>144644</v>
       </c>
       <c r="AW16" s="13">
-        <v>155946</v>
+        <v>157360</v>
       </c>
       <c r="AX16" s="13">
-        <v>144644</v>
+        <v>152513</v>
       </c>
       <c r="AY16" s="13">
-        <v>157360</v>
+        <v>143914</v>
       </c>
       <c r="AZ16" s="13">
-        <v>152513</v>
+        <v>113966</v>
       </c>
       <c r="BA16" s="13">
-        <v>143914</v>
+        <v>78788</v>
       </c>
       <c r="BB16" s="13">
-        <v>113966</v>
+        <v>39727</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2671,11 +2671,11 @@
       <c r="AS18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>62</v>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
       </c>
       <c r="AV18" s="13">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2716,11 +2716,11 @@
       <c r="G19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>62</v>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2884,14 +2884,14 @@
       <c r="J20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>62</v>
+      <c r="K20" s="13">
+        <v>167243</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
       </c>
       <c r="M20" s="13">
-        <v>167243</v>
+        <v>0</v>
       </c>
       <c r="N20" s="13">
         <v>0</v>
@@ -2911,20 +2911,20 @@
       <c r="S20" s="13">
         <v>0</v>
       </c>
-      <c r="T20" s="13">
-        <v>0</v>
-      </c>
-      <c r="U20" s="13">
-        <v>0</v>
+      <c r="T20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="V20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>62</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
         <v>0</v>
@@ -2981,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="13">
-        <v>0</v>
+        <v>47674</v>
       </c>
       <c r="AR20" s="13">
         <v>0</v>
       </c>
       <c r="AS20" s="13">
-        <v>47674</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="13">
         <v>0</v>
@@ -2996,28 +2996,28 @@
         <v>0</v>
       </c>
       <c r="AV20" s="13">
-        <v>0</v>
+        <v>16366</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
       </c>
       <c r="AX20" s="13">
-        <v>16366</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="13">
         <v>0</v>
       </c>
       <c r="AZ20" s="13">
-        <v>0</v>
+        <v>1691</v>
       </c>
       <c r="BA20" s="13">
-        <v>7480</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
-        <v>1691</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3052,11 +3052,11 @@
       <c r="M21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>62</v>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
       </c>
       <c r="P21" s="11">
         <v>0</v>
@@ -3104,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="AE21" s="11">
-        <v>0</v>
+        <v>281933</v>
       </c>
       <c r="AF21" s="11">
         <v>0</v>
       </c>
       <c r="AG21" s="11">
-        <v>281933</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="11">
         <v>0</v>
@@ -3134,49 +3134,49 @@
         <v>0</v>
       </c>
       <c r="AO21" s="11">
-        <v>0</v>
+        <v>153085</v>
       </c>
       <c r="AP21" s="11">
-        <v>0</v>
+        <v>290605</v>
       </c>
       <c r="AQ21" s="11">
-        <v>153085</v>
+        <v>280405</v>
       </c>
       <c r="AR21" s="11">
-        <v>290605</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="11">
-        <v>280405</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
-        <v>0</v>
+        <v>288700</v>
       </c>
       <c r="AU21" s="11">
-        <v>537011</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="11">
-        <v>288700</v>
+        <v>78000</v>
       </c>
       <c r="AW21" s="11">
-        <v>0</v>
+        <v>295882</v>
       </c>
       <c r="AX21" s="11">
-        <v>593728</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="11">
-        <v>295882</v>
+        <v>290462</v>
       </c>
       <c r="AZ21" s="11">
-        <v>0</v>
+        <v>289741</v>
       </c>
       <c r="BA21" s="11">
-        <v>290462</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="11">
-        <v>289741</v>
+        <v>250557</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>69</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>64</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>70</v>
       </c>
@@ -3452,11 +3452,11 @@
       <c r="V24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="W24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="X24" s="15" t="s">
-        <v>62</v>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <v>0</v>
       </c>
       <c r="Y24" s="15">
         <v>0</v>
@@ -3549,164 +3549,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17">
-        <v>1189443</v>
+        <v>1248610</v>
       </c>
       <c r="F25" s="17">
-        <v>1186902</v>
+        <v>1056483</v>
       </c>
       <c r="G25" s="17">
-        <v>1248610</v>
+        <v>1091261</v>
       </c>
       <c r="H25" s="17">
-        <v>1056483</v>
+        <v>1410126</v>
       </c>
       <c r="I25" s="17">
-        <v>1091261</v>
+        <v>1444624</v>
       </c>
       <c r="J25" s="17">
-        <v>1410126</v>
+        <v>1233231</v>
       </c>
       <c r="K25" s="17">
-        <v>1444624</v>
+        <v>1495914</v>
       </c>
       <c r="L25" s="17">
-        <v>1233231</v>
+        <v>1361899</v>
       </c>
       <c r="M25" s="17">
-        <v>1495914</v>
+        <v>1024890</v>
       </c>
       <c r="N25" s="17">
-        <v>1361899</v>
+        <v>1088804</v>
       </c>
       <c r="O25" s="17">
-        <v>1024890</v>
+        <v>1207795</v>
       </c>
       <c r="P25" s="17">
-        <v>1088804</v>
+        <v>1160158</v>
       </c>
       <c r="Q25" s="17">
-        <v>1207795</v>
+        <v>1379235</v>
       </c>
       <c r="R25" s="17">
-        <v>1160158</v>
+        <v>1467411</v>
       </c>
       <c r="S25" s="17">
-        <v>1379235</v>
+        <v>1341867</v>
       </c>
       <c r="T25" s="17">
-        <v>1467411</v>
+        <v>1244181</v>
       </c>
       <c r="U25" s="17">
-        <v>1341867</v>
+        <v>1358897</v>
       </c>
       <c r="V25" s="17">
-        <v>1244181</v>
+        <v>1411810</v>
       </c>
       <c r="W25" s="17">
-        <v>1358897</v>
+        <v>1465786</v>
       </c>
       <c r="X25" s="17">
-        <v>1411810</v>
+        <v>1545491</v>
       </c>
       <c r="Y25" s="17">
-        <v>1465786</v>
+        <v>1385401</v>
       </c>
       <c r="Z25" s="17">
-        <v>1545491</v>
+        <v>1359024</v>
       </c>
       <c r="AA25" s="17">
-        <v>1385401</v>
+        <v>1559667</v>
       </c>
       <c r="AB25" s="17">
-        <v>1359024</v>
+        <v>1434150</v>
       </c>
       <c r="AC25" s="17">
-        <v>1559667</v>
+        <v>1435780</v>
       </c>
       <c r="AD25" s="17">
-        <v>1434150</v>
+        <v>1472283</v>
       </c>
       <c r="AE25" s="17">
-        <v>1435780</v>
+        <v>1717083</v>
       </c>
       <c r="AF25" s="17">
-        <v>1472283</v>
+        <v>1403550</v>
       </c>
       <c r="AG25" s="17">
-        <v>1717083</v>
+        <v>1508223</v>
       </c>
       <c r="AH25" s="17">
-        <v>1403550</v>
+        <v>1376440</v>
       </c>
       <c r="AI25" s="17">
-        <v>1508223</v>
+        <v>1386223</v>
       </c>
       <c r="AJ25" s="17">
-        <v>1376440</v>
+        <v>1471158</v>
       </c>
       <c r="AK25" s="17">
-        <v>1386223</v>
+        <v>1491574</v>
       </c>
       <c r="AL25" s="17">
-        <v>1471158</v>
+        <v>1413712</v>
       </c>
       <c r="AM25" s="17">
-        <v>1491574</v>
+        <v>1529636</v>
       </c>
       <c r="AN25" s="17">
-        <v>1413712</v>
+        <v>1464189</v>
       </c>
       <c r="AO25" s="17">
-        <v>1529636</v>
+        <v>1659425</v>
       </c>
       <c r="AP25" s="17">
-        <v>1464189</v>
+        <v>1692910</v>
       </c>
       <c r="AQ25" s="17">
-        <v>1659425</v>
+        <v>1807149</v>
       </c>
       <c r="AR25" s="17">
-        <v>1692910</v>
+        <v>1577228</v>
       </c>
       <c r="AS25" s="17">
-        <v>1807149</v>
+        <v>1625739</v>
       </c>
       <c r="AT25" s="17">
-        <v>1577228</v>
+        <v>1740438</v>
       </c>
       <c r="AU25" s="17">
-        <v>2172211</v>
+        <v>909582</v>
       </c>
       <c r="AV25" s="17">
-        <v>1740438</v>
+        <v>1349415</v>
       </c>
       <c r="AW25" s="17">
-        <v>909582</v>
+        <v>1730557</v>
       </c>
       <c r="AX25" s="17">
-        <v>1865143</v>
+        <v>1509272</v>
       </c>
       <c r="AY25" s="17">
-        <v>1730557</v>
+        <v>1789865</v>
       </c>
       <c r="AZ25" s="17">
-        <v>1509272</v>
+        <v>1825756</v>
       </c>
       <c r="BA25" s="17">
-        <v>1795919</v>
+        <v>1280459</v>
       </c>
       <c r="BB25" s="17">
-        <v>1825756</v>
+        <v>1369838</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3816,7 +3816,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3871,7 +3871,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>72</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4083,7 +4083,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>72</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
@@ -4149,34 +4149,34 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>62883</v>
+        <v>25406</v>
       </c>
       <c r="F32" s="11">
-        <v>476</v>
+        <v>35686</v>
       </c>
       <c r="G32" s="11">
-        <v>25406</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11">
-        <v>35686</v>
+        <v>28133</v>
       </c>
       <c r="I32" s="11">
-        <v>0</v>
+        <v>21878</v>
       </c>
       <c r="J32" s="11">
-        <v>28133</v>
+        <v>20</v>
       </c>
       <c r="K32" s="11">
-        <v>21878</v>
+        <v>35407</v>
       </c>
       <c r="L32" s="11">
-        <v>20</v>
+        <v>9613</v>
       </c>
       <c r="M32" s="11">
-        <v>35407</v>
+        <v>0</v>
       </c>
       <c r="N32" s="11">
-        <v>9613</v>
+        <v>0</v>
       </c>
       <c r="O32" s="11">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="R32" s="11">
-        <v>0</v>
+        <v>28714</v>
       </c>
       <c r="S32" s="11">
-        <v>0</v>
+        <v>31297</v>
       </c>
       <c r="T32" s="11">
-        <v>28714</v>
+        <v>0</v>
       </c>
       <c r="U32" s="11">
-        <v>31297</v>
+        <v>0</v>
       </c>
       <c r="V32" s="11">
         <v>0</v>
@@ -4206,28 +4206,28 @@
         <v>0</v>
       </c>
       <c r="X32" s="11">
-        <v>0</v>
+        <v>58320</v>
       </c>
       <c r="Y32" s="11">
-        <v>0</v>
+        <v>38153</v>
       </c>
       <c r="Z32" s="11">
-        <v>58320</v>
+        <v>20777</v>
       </c>
       <c r="AA32" s="11">
-        <v>38153</v>
+        <v>29227</v>
       </c>
       <c r="AB32" s="11">
-        <v>20777</v>
+        <v>12631</v>
       </c>
       <c r="AC32" s="11">
-        <v>29227</v>
+        <v>37367</v>
       </c>
       <c r="AD32" s="11">
-        <v>12631</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="11">
-        <v>37367</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="11">
         <v>0</v>
@@ -4248,25 +4248,25 @@
         <v>0</v>
       </c>
       <c r="AL32" s="11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AM32" s="11">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AN32" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="11">
-        <v>3000</v>
+        <v>3011</v>
       </c>
       <c r="AP32" s="11">
         <v>0</v>
       </c>
       <c r="AQ32" s="11">
-        <v>3011</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="11">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>57</v>
       </c>
@@ -4308,157 +4308,157 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>313519</v>
+        <v>227633</v>
       </c>
       <c r="F33" s="13">
-        <v>358494</v>
+        <v>147403</v>
       </c>
       <c r="G33" s="13">
-        <v>227633</v>
+        <v>147567</v>
       </c>
       <c r="H33" s="13">
-        <v>147403</v>
+        <v>193299</v>
       </c>
       <c r="I33" s="13">
-        <v>147567</v>
+        <v>130145</v>
       </c>
       <c r="J33" s="13">
-        <v>193299</v>
+        <v>154322</v>
       </c>
       <c r="K33" s="13">
-        <v>130145</v>
+        <v>174719</v>
       </c>
       <c r="L33" s="13">
-        <v>154322</v>
+        <v>139229</v>
       </c>
       <c r="M33" s="13">
-        <v>174719</v>
+        <v>7315</v>
       </c>
       <c r="N33" s="13">
-        <v>139229</v>
+        <v>52593</v>
       </c>
       <c r="O33" s="13">
-        <v>7315</v>
+        <v>138726</v>
       </c>
       <c r="P33" s="13">
-        <v>52593</v>
+        <v>132115</v>
       </c>
       <c r="Q33" s="13">
-        <v>138726</v>
+        <v>123144</v>
       </c>
       <c r="R33" s="13">
-        <v>132115</v>
+        <v>128645</v>
       </c>
       <c r="S33" s="13">
-        <v>123144</v>
+        <v>102646</v>
       </c>
       <c r="T33" s="13">
-        <v>128645</v>
+        <v>110030</v>
       </c>
       <c r="U33" s="13">
-        <v>102646</v>
+        <v>42901</v>
       </c>
       <c r="V33" s="13">
-        <v>110030</v>
+        <v>92670</v>
       </c>
       <c r="W33" s="13">
-        <v>42901</v>
+        <v>105230</v>
       </c>
       <c r="X33" s="13">
-        <v>92670</v>
+        <v>91665</v>
       </c>
       <c r="Y33" s="13">
-        <v>105230</v>
+        <v>122578</v>
       </c>
       <c r="Z33" s="13">
-        <v>91665</v>
+        <v>167229</v>
       </c>
       <c r="AA33" s="13">
-        <v>122578</v>
+        <v>134104</v>
       </c>
       <c r="AB33" s="13">
-        <v>167229</v>
+        <v>108748</v>
       </c>
       <c r="AC33" s="13">
-        <v>134104</v>
+        <v>140237</v>
       </c>
       <c r="AD33" s="13">
-        <v>108748</v>
+        <v>154133</v>
       </c>
       <c r="AE33" s="13">
-        <v>140237</v>
+        <v>149185</v>
       </c>
       <c r="AF33" s="13">
-        <v>154133</v>
+        <v>84707</v>
       </c>
       <c r="AG33" s="13">
-        <v>149185</v>
+        <v>69710</v>
       </c>
       <c r="AH33" s="13">
-        <v>84707</v>
+        <v>49780</v>
       </c>
       <c r="AI33" s="13">
-        <v>69710</v>
+        <v>37790</v>
       </c>
       <c r="AJ33" s="13">
-        <v>49780</v>
+        <v>173871</v>
       </c>
       <c r="AK33" s="13">
-        <v>37790</v>
+        <v>166349</v>
       </c>
       <c r="AL33" s="13">
-        <v>173871</v>
+        <v>254035</v>
       </c>
       <c r="AM33" s="13">
-        <v>166349</v>
+        <v>185338</v>
       </c>
       <c r="AN33" s="13">
-        <v>254035</v>
+        <v>158771</v>
       </c>
       <c r="AO33" s="13">
-        <v>185338</v>
+        <v>173801</v>
       </c>
       <c r="AP33" s="13">
-        <v>158771</v>
+        <v>247192</v>
       </c>
       <c r="AQ33" s="13">
-        <v>173801</v>
+        <v>200717</v>
       </c>
       <c r="AR33" s="13">
-        <v>247192</v>
+        <v>204234</v>
       </c>
       <c r="AS33" s="13">
-        <v>200717</v>
+        <v>145789</v>
       </c>
       <c r="AT33" s="13">
-        <v>204234</v>
+        <v>91838</v>
       </c>
       <c r="AU33" s="13">
-        <v>145789</v>
+        <v>42626</v>
       </c>
       <c r="AV33" s="13">
-        <v>91838</v>
+        <v>110817</v>
       </c>
       <c r="AW33" s="13">
-        <v>42626</v>
+        <v>150587</v>
       </c>
       <c r="AX33" s="13">
-        <v>111900</v>
+        <v>145564</v>
       </c>
       <c r="AY33" s="13">
-        <v>150587</v>
+        <v>152661</v>
       </c>
       <c r="AZ33" s="13">
-        <v>145564</v>
+        <v>78987</v>
       </c>
       <c r="BA33" s="13">
-        <v>152661</v>
+        <v>54369</v>
       </c>
       <c r="BB33" s="13">
-        <v>78987</v>
+        <v>42111</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>58</v>
       </c>
@@ -4467,157 +4467,157 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>453945</v>
+        <v>500439</v>
       </c>
       <c r="F34" s="11">
-        <v>494475</v>
+        <v>420490</v>
       </c>
       <c r="G34" s="11">
-        <v>500439</v>
+        <v>378976</v>
       </c>
       <c r="H34" s="11">
-        <v>420490</v>
+        <v>476363</v>
       </c>
       <c r="I34" s="11">
-        <v>378976</v>
+        <v>482951</v>
       </c>
       <c r="J34" s="11">
-        <v>476363</v>
+        <v>418892</v>
       </c>
       <c r="K34" s="11">
-        <v>482951</v>
+        <v>405551</v>
       </c>
       <c r="L34" s="11">
-        <v>418892</v>
+        <v>472174</v>
       </c>
       <c r="M34" s="11">
-        <v>405551</v>
+        <v>530812</v>
       </c>
       <c r="N34" s="11">
-        <v>472174</v>
+        <v>508542</v>
       </c>
       <c r="O34" s="11">
-        <v>530812</v>
+        <v>372043</v>
       </c>
       <c r="P34" s="11">
-        <v>508542</v>
+        <v>335147</v>
       </c>
       <c r="Q34" s="11">
-        <v>372043</v>
+        <v>408451</v>
       </c>
       <c r="R34" s="11">
-        <v>335147</v>
+        <v>414979</v>
       </c>
       <c r="S34" s="11">
-        <v>408451</v>
+        <v>334257</v>
       </c>
       <c r="T34" s="11">
-        <v>414979</v>
+        <v>338048</v>
       </c>
       <c r="U34" s="11">
-        <v>334257</v>
+        <v>543871</v>
       </c>
       <c r="V34" s="11">
-        <v>338048</v>
+        <v>418016</v>
       </c>
       <c r="W34" s="11">
-        <v>543871</v>
+        <v>445515</v>
       </c>
       <c r="X34" s="11">
-        <v>418016</v>
+        <v>438003</v>
       </c>
       <c r="Y34" s="11">
-        <v>445515</v>
+        <v>529527</v>
       </c>
       <c r="Z34" s="11">
-        <v>438003</v>
+        <v>651090</v>
       </c>
       <c r="AA34" s="11">
-        <v>529527</v>
+        <v>680662</v>
       </c>
       <c r="AB34" s="11">
-        <v>651090</v>
+        <v>660912</v>
       </c>
       <c r="AC34" s="11">
-        <v>680662</v>
+        <v>685654</v>
       </c>
       <c r="AD34" s="11">
-        <v>660912</v>
+        <v>818316</v>
       </c>
       <c r="AE34" s="11">
-        <v>685654</v>
+        <v>731218</v>
       </c>
       <c r="AF34" s="11">
-        <v>818316</v>
+        <v>694298</v>
       </c>
       <c r="AG34" s="11">
-        <v>731218</v>
+        <v>702417</v>
       </c>
       <c r="AH34" s="11">
-        <v>694298</v>
+        <v>729397</v>
       </c>
       <c r="AI34" s="11">
-        <v>702417</v>
+        <v>730469</v>
       </c>
       <c r="AJ34" s="11">
-        <v>729397</v>
+        <v>688770</v>
       </c>
       <c r="AK34" s="11">
-        <v>730469</v>
+        <v>708142</v>
       </c>
       <c r="AL34" s="11">
-        <v>688770</v>
+        <v>528007</v>
       </c>
       <c r="AM34" s="11">
-        <v>708142</v>
+        <v>570551</v>
       </c>
       <c r="AN34" s="11">
-        <v>528007</v>
+        <v>611278</v>
       </c>
       <c r="AO34" s="11">
-        <v>570551</v>
+        <v>569298</v>
       </c>
       <c r="AP34" s="11">
-        <v>611278</v>
+        <v>602378</v>
       </c>
       <c r="AQ34" s="11">
-        <v>569298</v>
+        <v>513064</v>
       </c>
       <c r="AR34" s="11">
-        <v>602378</v>
+        <v>562918</v>
       </c>
       <c r="AS34" s="11">
-        <v>513064</v>
+        <v>499905</v>
       </c>
       <c r="AT34" s="11">
-        <v>562918</v>
+        <v>624784</v>
       </c>
       <c r="AU34" s="11">
-        <v>500010</v>
+        <v>624301</v>
       </c>
       <c r="AV34" s="11">
-        <v>624784</v>
+        <v>445073</v>
       </c>
       <c r="AW34" s="11">
-        <v>624301</v>
+        <v>517851</v>
       </c>
       <c r="AX34" s="11">
-        <v>445033</v>
+        <v>491151</v>
       </c>
       <c r="AY34" s="11">
-        <v>517851</v>
+        <v>464380</v>
       </c>
       <c r="AZ34" s="11">
-        <v>491151</v>
+        <v>356312</v>
       </c>
       <c r="BA34" s="11">
-        <v>616125</v>
+        <v>597343</v>
       </c>
       <c r="BB34" s="11">
-        <v>356312</v>
+        <v>526893</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4626,157 +4626,157 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>1271</v>
+        <v>809</v>
       </c>
       <c r="F35" s="13">
-        <v>5184</v>
+        <v>413</v>
       </c>
       <c r="G35" s="13">
-        <v>809</v>
+        <v>773</v>
       </c>
       <c r="H35" s="13">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="I35" s="13">
-        <v>773</v>
+        <v>203</v>
       </c>
       <c r="J35" s="13">
-        <v>277</v>
+        <v>15664</v>
       </c>
       <c r="K35" s="13">
-        <v>203</v>
+        <v>9306</v>
       </c>
       <c r="L35" s="13">
-        <v>15664</v>
+        <v>786</v>
       </c>
       <c r="M35" s="13">
-        <v>9306</v>
+        <v>7164</v>
       </c>
       <c r="N35" s="13">
-        <v>786</v>
+        <v>11052</v>
       </c>
       <c r="O35" s="13">
-        <v>7164</v>
+        <v>2631</v>
       </c>
       <c r="P35" s="13">
-        <v>11052</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="13">
-        <v>2631</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13">
-        <v>0</v>
+        <v>4880</v>
       </c>
       <c r="S35" s="13">
-        <v>0</v>
+        <v>4981</v>
       </c>
       <c r="T35" s="13">
-        <v>4880</v>
+        <v>54</v>
       </c>
       <c r="U35" s="13">
-        <v>4981</v>
+        <v>0</v>
       </c>
       <c r="V35" s="13">
-        <v>54</v>
+        <v>1015</v>
       </c>
       <c r="W35" s="13">
-        <v>0</v>
+        <v>7140</v>
       </c>
       <c r="X35" s="13">
-        <v>1015</v>
+        <v>19921</v>
       </c>
       <c r="Y35" s="13">
-        <v>7140</v>
+        <v>2349</v>
       </c>
       <c r="Z35" s="13">
-        <v>19921</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="13">
-        <v>2349</v>
+        <v>1119</v>
       </c>
       <c r="AB35" s="13">
-        <v>0</v>
+        <v>6014</v>
       </c>
       <c r="AC35" s="13">
-        <v>1119</v>
+        <v>12817</v>
       </c>
       <c r="AD35" s="13">
-        <v>6014</v>
+        <v>1947</v>
       </c>
       <c r="AE35" s="13">
-        <v>12817</v>
+        <v>810</v>
       </c>
       <c r="AF35" s="13">
-        <v>1947</v>
+        <v>664</v>
       </c>
       <c r="AG35" s="13">
-        <v>810</v>
+        <v>22805</v>
       </c>
       <c r="AH35" s="13">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="13">
-        <v>22805</v>
+        <v>9940</v>
       </c>
       <c r="AJ35" s="13">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="AK35" s="13">
-        <v>9940</v>
+        <v>2062</v>
       </c>
       <c r="AL35" s="13">
-        <v>1243</v>
+        <v>9229</v>
       </c>
       <c r="AM35" s="13">
-        <v>2062</v>
+        <v>2967</v>
       </c>
       <c r="AN35" s="13">
-        <v>9229</v>
+        <v>9566</v>
       </c>
       <c r="AO35" s="13">
-        <v>2967</v>
+        <v>13202</v>
       </c>
       <c r="AP35" s="13">
         <v>9566</v>
       </c>
       <c r="AQ35" s="13">
-        <v>13202</v>
+        <v>2812</v>
       </c>
       <c r="AR35" s="13">
-        <v>9566</v>
+        <v>161</v>
       </c>
       <c r="AS35" s="13">
-        <v>2812</v>
+        <v>5897</v>
       </c>
       <c r="AT35" s="13">
-        <v>161</v>
+        <v>6031</v>
       </c>
       <c r="AU35" s="13">
-        <v>5897</v>
+        <v>4036</v>
       </c>
       <c r="AV35" s="13">
-        <v>6031</v>
+        <v>19819</v>
       </c>
       <c r="AW35" s="13">
-        <v>4036</v>
+        <v>10169</v>
       </c>
       <c r="AX35" s="13">
-        <v>19819</v>
+        <v>11047</v>
       </c>
       <c r="AY35" s="13">
-        <v>10169</v>
+        <v>3837</v>
       </c>
       <c r="AZ35" s="13">
-        <v>11047</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="13">
-        <v>3830</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="13">
-        <v>0</v>
+        <v>6577</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4785,157 +4785,157 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>70060</v>
+        <v>126443</v>
       </c>
       <c r="F36" s="11">
-        <v>41357</v>
+        <v>45353</v>
       </c>
       <c r="G36" s="11">
-        <v>126443</v>
+        <v>105030</v>
       </c>
       <c r="H36" s="11">
-        <v>45353</v>
+        <v>58557</v>
       </c>
       <c r="I36" s="11">
-        <v>105030</v>
+        <v>73082</v>
       </c>
       <c r="J36" s="11">
-        <v>58557</v>
+        <v>70913</v>
       </c>
       <c r="K36" s="11">
-        <v>73082</v>
+        <v>140677</v>
       </c>
       <c r="L36" s="11">
-        <v>70913</v>
+        <v>79921</v>
       </c>
       <c r="M36" s="11">
-        <v>140677</v>
+        <v>73466</v>
       </c>
       <c r="N36" s="11">
-        <v>79921</v>
+        <v>50500</v>
       </c>
       <c r="O36" s="11">
-        <v>73466</v>
+        <v>95064</v>
       </c>
       <c r="P36" s="11">
-        <v>50500</v>
+        <v>60493</v>
       </c>
       <c r="Q36" s="11">
-        <v>95064</v>
+        <v>98150</v>
       </c>
       <c r="R36" s="11">
-        <v>60493</v>
+        <v>124400</v>
       </c>
       <c r="S36" s="11">
-        <v>98150</v>
+        <v>73905</v>
       </c>
       <c r="T36" s="11">
-        <v>124400</v>
+        <v>15635</v>
       </c>
       <c r="U36" s="11">
-        <v>73905</v>
+        <v>57527</v>
       </c>
       <c r="V36" s="11">
-        <v>15635</v>
+        <v>62218</v>
       </c>
       <c r="W36" s="11">
-        <v>57527</v>
+        <v>77803</v>
       </c>
       <c r="X36" s="11">
-        <v>62218</v>
+        <v>150340</v>
       </c>
       <c r="Y36" s="11">
-        <v>77803</v>
+        <v>56784</v>
       </c>
       <c r="Z36" s="11">
-        <v>150340</v>
+        <v>100756</v>
       </c>
       <c r="AA36" s="11">
-        <v>56784</v>
+        <v>80097</v>
       </c>
       <c r="AB36" s="11">
-        <v>100756</v>
+        <v>92925</v>
       </c>
       <c r="AC36" s="11">
-        <v>80097</v>
+        <v>79147</v>
       </c>
       <c r="AD36" s="11">
-        <v>92925</v>
+        <v>142621</v>
       </c>
       <c r="AE36" s="11">
-        <v>79147</v>
+        <v>92055</v>
       </c>
       <c r="AF36" s="11">
-        <v>142621</v>
+        <v>60584</v>
       </c>
       <c r="AG36" s="11">
-        <v>92055</v>
+        <v>54380</v>
       </c>
       <c r="AH36" s="11">
-        <v>60584</v>
+        <v>126846</v>
       </c>
       <c r="AI36" s="11">
-        <v>54380</v>
+        <v>59447</v>
       </c>
       <c r="AJ36" s="11">
-        <v>126846</v>
+        <v>75784</v>
       </c>
       <c r="AK36" s="11">
-        <v>59447</v>
+        <v>59022</v>
       </c>
       <c r="AL36" s="11">
-        <v>75784</v>
+        <v>86189</v>
       </c>
       <c r="AM36" s="11">
-        <v>59022</v>
+        <v>70231</v>
       </c>
       <c r="AN36" s="11">
-        <v>86189</v>
+        <v>98856</v>
       </c>
       <c r="AO36" s="11">
-        <v>70231</v>
+        <v>98548</v>
       </c>
       <c r="AP36" s="11">
-        <v>98856</v>
+        <v>109015</v>
       </c>
       <c r="AQ36" s="11">
-        <v>98548</v>
+        <v>118762</v>
       </c>
       <c r="AR36" s="11">
-        <v>109015</v>
+        <v>103900</v>
       </c>
       <c r="AS36" s="11">
-        <v>118762</v>
+        <v>92852</v>
       </c>
       <c r="AT36" s="11">
-        <v>103900</v>
+        <v>111548</v>
       </c>
       <c r="AU36" s="11">
-        <v>92852</v>
+        <v>93372</v>
       </c>
       <c r="AV36" s="11">
-        <v>111548</v>
+        <v>65747</v>
       </c>
       <c r="AW36" s="11">
-        <v>93372</v>
+        <v>80303</v>
       </c>
       <c r="AX36" s="11">
-        <v>65747</v>
+        <v>98236</v>
       </c>
       <c r="AY36" s="11">
-        <v>80303</v>
+        <v>129835</v>
       </c>
       <c r="AZ36" s="11">
-        <v>98236</v>
+        <v>121441</v>
       </c>
       <c r="BA36" s="11">
-        <v>129838</v>
+        <v>90905</v>
       </c>
       <c r="BB36" s="11">
-        <v>121441</v>
+        <v>108030</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
@@ -4952,149 +4952,149 @@
       <c r="G37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>62</v>
+      <c r="H37" s="13">
+        <v>6645</v>
+      </c>
+      <c r="I37" s="13">
+        <v>6814</v>
       </c>
       <c r="J37" s="13">
-        <v>6645</v>
+        <v>33659</v>
       </c>
       <c r="K37" s="13">
-        <v>6814</v>
+        <v>24603</v>
       </c>
       <c r="L37" s="13">
-        <v>33659</v>
+        <v>74916</v>
       </c>
       <c r="M37" s="13">
-        <v>24603</v>
+        <v>23011</v>
       </c>
       <c r="N37" s="13">
-        <v>74916</v>
+        <v>28699</v>
       </c>
       <c r="O37" s="13">
-        <v>23011</v>
+        <v>36688</v>
       </c>
       <c r="P37" s="13">
-        <v>28699</v>
+        <v>30082</v>
       </c>
       <c r="Q37" s="13">
-        <v>36688</v>
+        <v>47678</v>
       </c>
       <c r="R37" s="13">
-        <v>30082</v>
+        <v>24360</v>
       </c>
       <c r="S37" s="13">
-        <v>47678</v>
+        <v>26812</v>
       </c>
       <c r="T37" s="13">
-        <v>24360</v>
+        <v>8429</v>
       </c>
       <c r="U37" s="13">
-        <v>26812</v>
+        <v>15457</v>
       </c>
       <c r="V37" s="13">
-        <v>8429</v>
+        <v>27703</v>
       </c>
       <c r="W37" s="13">
-        <v>15457</v>
+        <v>15424</v>
       </c>
       <c r="X37" s="13">
-        <v>27703</v>
+        <v>624</v>
       </c>
       <c r="Y37" s="13">
-        <v>15424</v>
+        <v>33282</v>
       </c>
       <c r="Z37" s="13">
-        <v>624</v>
+        <v>24012</v>
       </c>
       <c r="AA37" s="13">
-        <v>33282</v>
+        <v>47821</v>
       </c>
       <c r="AB37" s="13">
-        <v>24012</v>
+        <v>32854</v>
       </c>
       <c r="AC37" s="13">
-        <v>47821</v>
+        <v>13029</v>
       </c>
       <c r="AD37" s="13">
-        <v>32854</v>
+        <v>15524</v>
       </c>
       <c r="AE37" s="13">
-        <v>13029</v>
+        <v>20787</v>
       </c>
       <c r="AF37" s="13">
-        <v>15524</v>
+        <v>17715</v>
       </c>
       <c r="AG37" s="13">
-        <v>20787</v>
+        <v>9417</v>
       </c>
       <c r="AH37" s="13">
-        <v>17715</v>
+        <v>11565</v>
       </c>
       <c r="AI37" s="13">
-        <v>9417</v>
+        <v>18014</v>
       </c>
       <c r="AJ37" s="13">
-        <v>11565</v>
+        <v>30181</v>
       </c>
       <c r="AK37" s="13">
-        <v>18014</v>
+        <v>24591</v>
       </c>
       <c r="AL37" s="13">
-        <v>30181</v>
+        <v>31214</v>
       </c>
       <c r="AM37" s="13">
-        <v>24591</v>
+        <v>24206</v>
       </c>
       <c r="AN37" s="13">
-        <v>31214</v>
+        <v>1179</v>
       </c>
       <c r="AO37" s="13">
-        <v>24206</v>
+        <v>4641</v>
       </c>
       <c r="AP37" s="13">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="13">
-        <v>4641</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="13">
         <v>0</v>
       </c>
       <c r="AS37" s="13">
-        <v>0</v>
+        <v>11874</v>
       </c>
       <c r="AT37" s="13">
-        <v>0</v>
+        <v>8116</v>
       </c>
       <c r="AU37" s="13">
-        <v>11874</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="13">
-        <v>8116</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="13">
-        <v>0</v>
+        <v>25662</v>
       </c>
       <c r="AX37" s="13">
-        <v>0</v>
+        <v>34689</v>
       </c>
       <c r="AY37" s="13">
-        <v>25662</v>
+        <v>45837</v>
       </c>
       <c r="AZ37" s="13">
-        <v>34689</v>
+        <v>8534</v>
       </c>
       <c r="BA37" s="13">
-        <v>45837</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="13">
-        <v>8534</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
@@ -5103,157 +5103,157 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>281097</v>
+        <v>270659</v>
       </c>
       <c r="F38" s="11">
-        <v>275241</v>
+        <v>248756</v>
       </c>
       <c r="G38" s="11">
-        <v>270659</v>
+        <v>270469</v>
       </c>
       <c r="H38" s="11">
-        <v>248756</v>
+        <v>318025</v>
       </c>
       <c r="I38" s="11">
-        <v>270469</v>
+        <v>316929</v>
       </c>
       <c r="J38" s="11">
-        <v>318025</v>
+        <v>291054</v>
       </c>
       <c r="K38" s="11">
-        <v>316929</v>
+        <v>254476</v>
       </c>
       <c r="L38" s="11">
-        <v>291054</v>
+        <v>281607</v>
       </c>
       <c r="M38" s="11">
-        <v>254476</v>
+        <v>179086</v>
       </c>
       <c r="N38" s="11">
-        <v>281607</v>
+        <v>169177</v>
       </c>
       <c r="O38" s="11">
-        <v>179086</v>
+        <v>275391</v>
       </c>
       <c r="P38" s="11">
-        <v>169177</v>
+        <v>263758</v>
       </c>
       <c r="Q38" s="11">
-        <v>275391</v>
+        <v>324577</v>
       </c>
       <c r="R38" s="11">
-        <v>263758</v>
+        <v>311216</v>
       </c>
       <c r="S38" s="11">
-        <v>324577</v>
+        <v>285832</v>
       </c>
       <c r="T38" s="11">
-        <v>311216</v>
+        <v>315365</v>
       </c>
       <c r="U38" s="11">
-        <v>285832</v>
+        <v>198207</v>
       </c>
       <c r="V38" s="11">
-        <v>315365</v>
+        <v>285127</v>
       </c>
       <c r="W38" s="11">
-        <v>198207</v>
+        <v>290751</v>
       </c>
       <c r="X38" s="11">
-        <v>285127</v>
+        <v>299857</v>
       </c>
       <c r="Y38" s="11">
-        <v>290751</v>
+        <v>268548</v>
       </c>
       <c r="Z38" s="11">
-        <v>299857</v>
+        <v>282113</v>
       </c>
       <c r="AA38" s="11">
-        <v>268548</v>
+        <v>232510</v>
       </c>
       <c r="AB38" s="11">
-        <v>282113</v>
+        <v>337728</v>
       </c>
       <c r="AC38" s="11">
-        <v>232510</v>
+        <v>288745</v>
       </c>
       <c r="AD38" s="11">
-        <v>337728</v>
+        <v>214681</v>
       </c>
       <c r="AE38" s="11">
-        <v>288745</v>
+        <v>281536</v>
       </c>
       <c r="AF38" s="11">
-        <v>214681</v>
+        <v>301556</v>
       </c>
       <c r="AG38" s="11">
-        <v>281536</v>
+        <v>288973</v>
       </c>
       <c r="AH38" s="11">
-        <v>301556</v>
+        <v>210163</v>
       </c>
       <c r="AI38" s="11">
-        <v>288973</v>
+        <v>207067</v>
       </c>
       <c r="AJ38" s="11">
-        <v>210163</v>
+        <v>259349</v>
       </c>
       <c r="AK38" s="11">
-        <v>207067</v>
+        <v>495271</v>
       </c>
       <c r="AL38" s="11">
-        <v>259349</v>
+        <v>351184</v>
       </c>
       <c r="AM38" s="11">
-        <v>495271</v>
+        <v>351003</v>
       </c>
       <c r="AN38" s="11">
-        <v>351184</v>
+        <v>387527</v>
       </c>
       <c r="AO38" s="11">
-        <v>351003</v>
+        <v>348139</v>
       </c>
       <c r="AP38" s="11">
-        <v>387527</v>
+        <v>406156</v>
       </c>
       <c r="AQ38" s="11">
-        <v>348139</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="11">
-        <v>406156</v>
+        <v>367788</v>
       </c>
       <c r="AS38" s="11">
-        <v>0</v>
+        <v>408019</v>
       </c>
       <c r="AT38" s="11">
-        <v>367788</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="11">
-        <v>408019</v>
+        <v>60861</v>
       </c>
       <c r="AV38" s="11">
-        <v>0</v>
+        <v>311357</v>
       </c>
       <c r="AW38" s="11">
-        <v>60861</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="11">
-        <v>311357</v>
+        <v>413449</v>
       </c>
       <c r="AY38" s="11">
-        <v>0</v>
+        <v>398718</v>
       </c>
       <c r="AZ38" s="11">
-        <v>413449</v>
+        <v>335681</v>
       </c>
       <c r="BA38" s="11">
-        <v>1022427</v>
+        <v>143190</v>
       </c>
       <c r="BB38" s="11">
-        <v>335681</v>
+        <v>248556</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>64</v>
       </c>
@@ -5384,11 +5384,11 @@
       <c r="AS39" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AT39" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU39" s="13" t="s">
-        <v>62</v>
+      <c r="AT39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>0</v>
       </c>
       <c r="AV39" s="13">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
@@ -5429,149 +5429,149 @@
       <c r="G40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>62</v>
+      <c r="H40" s="11">
+        <v>147804</v>
+      </c>
+      <c r="I40" s="11">
+        <v>151258</v>
       </c>
       <c r="J40" s="11">
-        <v>147804</v>
+        <v>130124</v>
       </c>
       <c r="K40" s="11">
-        <v>151258</v>
+        <v>163284</v>
       </c>
       <c r="L40" s="11">
-        <v>130124</v>
+        <v>197250</v>
       </c>
       <c r="M40" s="11">
-        <v>163284</v>
+        <v>180716</v>
       </c>
       <c r="N40" s="11">
-        <v>197250</v>
+        <v>165080</v>
       </c>
       <c r="O40" s="11">
-        <v>180716</v>
+        <v>184478</v>
       </c>
       <c r="P40" s="11">
-        <v>165080</v>
+        <v>192382</v>
       </c>
       <c r="Q40" s="11">
-        <v>184478</v>
+        <v>201492</v>
       </c>
       <c r="R40" s="11">
-        <v>192382</v>
+        <v>194945</v>
       </c>
       <c r="S40" s="11">
-        <v>201492</v>
+        <v>189990</v>
       </c>
       <c r="T40" s="11">
-        <v>194945</v>
+        <v>191978</v>
       </c>
       <c r="U40" s="11">
-        <v>189990</v>
+        <v>193346</v>
       </c>
       <c r="V40" s="11">
-        <v>191978</v>
+        <v>197376</v>
       </c>
       <c r="W40" s="11">
-        <v>193346</v>
+        <v>188922</v>
       </c>
       <c r="X40" s="11">
-        <v>197376</v>
+        <v>199944</v>
       </c>
       <c r="Y40" s="11">
-        <v>188922</v>
+        <v>159346</v>
       </c>
       <c r="Z40" s="11">
-        <v>199944</v>
+        <v>114432</v>
       </c>
       <c r="AA40" s="11">
-        <v>159346</v>
+        <v>191179</v>
       </c>
       <c r="AB40" s="11">
-        <v>114432</v>
+        <v>186668</v>
       </c>
       <c r="AC40" s="11">
-        <v>191179</v>
+        <v>169712</v>
       </c>
       <c r="AD40" s="11">
-        <v>186668</v>
+        <v>190368</v>
       </c>
       <c r="AE40" s="11">
-        <v>169712</v>
+        <v>188484</v>
       </c>
       <c r="AF40" s="11">
-        <v>190368</v>
+        <v>207458</v>
       </c>
       <c r="AG40" s="11">
-        <v>188484</v>
+        <v>178326</v>
       </c>
       <c r="AH40" s="11">
-        <v>207458</v>
+        <v>202029</v>
       </c>
       <c r="AI40" s="11">
-        <v>178326</v>
+        <v>151836</v>
       </c>
       <c r="AJ40" s="11">
-        <v>202029</v>
+        <v>188924</v>
       </c>
       <c r="AK40" s="11">
-        <v>151836</v>
+        <v>157515</v>
       </c>
       <c r="AL40" s="11">
-        <v>188924</v>
+        <v>76458</v>
       </c>
       <c r="AM40" s="11">
-        <v>157515</v>
+        <v>168846</v>
       </c>
       <c r="AN40" s="11">
-        <v>76458</v>
+        <v>185188</v>
       </c>
       <c r="AO40" s="11">
-        <v>168846</v>
+        <v>175966</v>
       </c>
       <c r="AP40" s="11">
-        <v>185188</v>
+        <v>72996</v>
       </c>
       <c r="AQ40" s="11">
-        <v>175966</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="11">
-        <v>72996</v>
+        <v>208018</v>
       </c>
       <c r="AS40" s="11">
-        <v>0</v>
+        <v>206162</v>
       </c>
       <c r="AT40" s="11">
-        <v>208018</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="11">
-        <v>206162</v>
+        <v>204652</v>
       </c>
       <c r="AV40" s="11">
-        <v>0</v>
+        <v>194176</v>
       </c>
       <c r="AW40" s="11">
-        <v>204652</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="11">
-        <v>194176</v>
+        <v>197586</v>
       </c>
       <c r="AY40" s="11">
-        <v>0</v>
+        <v>189932</v>
       </c>
       <c r="AZ40" s="11">
-        <v>197586</v>
+        <v>149124</v>
       </c>
       <c r="BA40" s="11">
-        <v>592496</v>
+        <v>94924</v>
       </c>
       <c r="BB40" s="11">
-        <v>149124</v>
+        <v>70480</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>66</v>
       </c>
@@ -5597,14 +5597,14 @@
       <c r="J41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>62</v>
+      <c r="K41" s="13">
+        <v>167243</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
       </c>
       <c r="M41" s="13">
-        <v>167243</v>
+        <v>0</v>
       </c>
       <c r="N41" s="13">
         <v>0</v>
@@ -5624,20 +5624,20 @@
       <c r="S41" s="13">
         <v>0</v>
       </c>
-      <c r="T41" s="13">
-        <v>0</v>
-      </c>
-      <c r="U41" s="13">
-        <v>0</v>
+      <c r="T41" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="V41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="W41" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X41" s="13" t="s">
-        <v>62</v>
+      <c r="W41" s="13">
+        <v>0</v>
+      </c>
+      <c r="X41" s="13">
+        <v>0</v>
       </c>
       <c r="Y41" s="13">
         <v>0</v>
@@ -5661,61 +5661,61 @@
         <v>0</v>
       </c>
       <c r="AF41" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AG41" s="13">
-        <v>0</v>
+        <v>55944</v>
       </c>
       <c r="AH41" s="13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="13">
-        <v>55944</v>
+        <v>36136</v>
       </c>
       <c r="AJ41" s="13">
         <v>0</v>
       </c>
       <c r="AK41" s="13">
-        <v>36136</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="13">
         <v>0</v>
       </c>
       <c r="AM41" s="13">
-        <v>0</v>
+        <v>8113</v>
       </c>
       <c r="AN41" s="13">
         <v>0</v>
       </c>
       <c r="AO41" s="13">
-        <v>8113</v>
+        <v>618</v>
       </c>
       <c r="AP41" s="13">
-        <v>0</v>
+        <v>11437</v>
       </c>
       <c r="AQ41" s="13">
-        <v>618</v>
+        <v>18816</v>
       </c>
       <c r="AR41" s="13">
-        <v>11439</v>
+        <v>5668</v>
       </c>
       <c r="AS41" s="13">
-        <v>18816</v>
+        <v>248</v>
       </c>
       <c r="AT41" s="13">
-        <v>5668</v>
+        <v>816</v>
       </c>
       <c r="AU41" s="13">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="13">
-        <v>816</v>
+        <v>497</v>
       </c>
       <c r="AW41" s="13">
         <v>0</v>
       </c>
       <c r="AX41" s="13">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="13">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
@@ -5765,11 +5765,11 @@
       <c r="M42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>62</v>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
       </c>
       <c r="P42" s="11">
         <v>0</v>
@@ -5799,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="Y42" s="11">
-        <v>0</v>
+        <v>202178</v>
       </c>
       <c r="Z42" s="11">
         <v>0</v>
       </c>
       <c r="AA42" s="11">
-        <v>202178</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="11">
         <v>0</v>
@@ -5817,13 +5817,13 @@
         <v>0</v>
       </c>
       <c r="AE42" s="11">
-        <v>0</v>
+        <v>332501</v>
       </c>
       <c r="AF42" s="11">
         <v>0</v>
       </c>
       <c r="AG42" s="11">
-        <v>332501</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="11">
         <v>0</v>
@@ -5847,49 +5847,49 @@
         <v>0</v>
       </c>
       <c r="AO42" s="11">
-        <v>0</v>
+        <v>153085</v>
       </c>
       <c r="AP42" s="11">
-        <v>0</v>
+        <v>162543</v>
       </c>
       <c r="AQ42" s="11">
-        <v>153085</v>
+        <v>1509910</v>
       </c>
       <c r="AR42" s="11">
-        <v>162543</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="11">
-        <v>1509910</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="11">
-        <v>0</v>
+        <v>152003</v>
       </c>
       <c r="AU42" s="11">
-        <v>444063</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="11">
-        <v>152003</v>
+        <v>162655</v>
       </c>
       <c r="AW42" s="11">
-        <v>90974</v>
+        <v>170704</v>
       </c>
       <c r="AX42" s="11">
-        <v>265812</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="11">
-        <v>170704</v>
+        <v>216774</v>
       </c>
       <c r="AZ42" s="11">
-        <v>0</v>
+        <v>159294</v>
       </c>
       <c r="BA42" s="11">
-        <v>216774</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="11">
-        <v>159294</v>
+        <v>127318</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>69</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>64</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>70</v>
       </c>
@@ -6165,11 +6165,11 @@
       <c r="V45" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="W45" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>62</v>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0</v>
       </c>
       <c r="Y45" s="15">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>73</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>74</v>
       </c>
@@ -6379,11 +6379,11 @@
       <c r="V47" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W47" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X47" s="17" t="s">
-        <v>62</v>
+      <c r="W47" s="17">
+        <v>0</v>
+      </c>
+      <c r="X47" s="17">
+        <v>0</v>
       </c>
       <c r="Y47" s="17">
         <v>0</v>
@@ -6476,164 +6476,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>1182775</v>
+        <v>1151389</v>
       </c>
       <c r="F48" s="15">
-        <v>1175227</v>
+        <v>898101</v>
       </c>
       <c r="G48" s="15">
-        <v>1151389</v>
+        <v>902815</v>
       </c>
       <c r="H48" s="15">
-        <v>898101</v>
+        <v>1229103</v>
       </c>
       <c r="I48" s="15">
-        <v>902815</v>
+        <v>1183260</v>
       </c>
       <c r="J48" s="15">
-        <v>1229103</v>
+        <v>1114648</v>
       </c>
       <c r="K48" s="15">
-        <v>1183260</v>
+        <v>1375266</v>
       </c>
       <c r="L48" s="15">
-        <v>1114648</v>
+        <v>1255496</v>
       </c>
       <c r="M48" s="15">
-        <v>1375266</v>
+        <v>1001570</v>
       </c>
       <c r="N48" s="15">
-        <v>1255496</v>
+        <v>985643</v>
       </c>
       <c r="O48" s="15">
-        <v>1001570</v>
+        <v>1105021</v>
       </c>
       <c r="P48" s="15">
-        <v>985643</v>
+        <v>1013977</v>
       </c>
       <c r="Q48" s="15">
-        <v>1105021</v>
+        <v>1203492</v>
       </c>
       <c r="R48" s="15">
-        <v>1013977</v>
+        <v>1232139</v>
       </c>
       <c r="S48" s="15">
-        <v>1203492</v>
+        <v>1049720</v>
       </c>
       <c r="T48" s="15">
-        <v>1232139</v>
+        <v>979539</v>
       </c>
       <c r="U48" s="15">
-        <v>1049720</v>
+        <v>1051309</v>
       </c>
       <c r="V48" s="15">
-        <v>979539</v>
+        <v>1084125</v>
       </c>
       <c r="W48" s="15">
-        <v>1051309</v>
+        <v>1130785</v>
       </c>
       <c r="X48" s="15">
-        <v>1084125</v>
+        <v>1258674</v>
       </c>
       <c r="Y48" s="15">
-        <v>1130785</v>
+        <v>1412745</v>
       </c>
       <c r="Z48" s="15">
-        <v>1258674</v>
+        <v>1360409</v>
       </c>
       <c r="AA48" s="15">
-        <v>1412745</v>
+        <v>1396719</v>
       </c>
       <c r="AB48" s="15">
-        <v>1360409</v>
+        <v>1438480</v>
       </c>
       <c r="AC48" s="15">
-        <v>1396719</v>
+        <v>1426708</v>
       </c>
       <c r="AD48" s="15">
-        <v>1438480</v>
+        <v>1537590</v>
       </c>
       <c r="AE48" s="15">
-        <v>1426708</v>
+        <v>1796576</v>
       </c>
       <c r="AF48" s="15">
-        <v>1537590</v>
+        <v>1367053</v>
       </c>
       <c r="AG48" s="15">
-        <v>1796576</v>
+        <v>1381972</v>
       </c>
       <c r="AH48" s="15">
-        <v>1367053</v>
+        <v>1329780</v>
       </c>
       <c r="AI48" s="15">
-        <v>1381972</v>
+        <v>1250699</v>
       </c>
       <c r="AJ48" s="15">
-        <v>1329780</v>
+        <v>1418122</v>
       </c>
       <c r="AK48" s="15">
-        <v>1250699</v>
+        <v>1612952</v>
       </c>
       <c r="AL48" s="15">
-        <v>1418122</v>
+        <v>1336339</v>
       </c>
       <c r="AM48" s="15">
-        <v>1612952</v>
+        <v>1384255</v>
       </c>
       <c r="AN48" s="15">
-        <v>1336339</v>
+        <v>1452365</v>
       </c>
       <c r="AO48" s="15">
-        <v>1384255</v>
+        <v>1540309</v>
       </c>
       <c r="AP48" s="15">
-        <v>1452365</v>
+        <v>1621283</v>
       </c>
       <c r="AQ48" s="15">
-        <v>1540309</v>
+        <v>2364081</v>
       </c>
       <c r="AR48" s="15">
-        <v>1621279</v>
+        <v>1452687</v>
       </c>
       <c r="AS48" s="15">
-        <v>2364081</v>
+        <v>1370746</v>
       </c>
       <c r="AT48" s="15">
-        <v>1452687</v>
+        <v>995136</v>
       </c>
       <c r="AU48" s="15">
-        <v>1814914</v>
+        <v>1029848</v>
       </c>
       <c r="AV48" s="15">
-        <v>995136</v>
+        <v>1310141</v>
       </c>
       <c r="AW48" s="15">
-        <v>1120822</v>
+        <v>955276</v>
       </c>
       <c r="AX48" s="15">
-        <v>1414341</v>
+        <v>1391722</v>
       </c>
       <c r="AY48" s="15">
-        <v>955276</v>
+        <v>1601974</v>
       </c>
       <c r="AZ48" s="15">
-        <v>1391722</v>
+        <v>1209373</v>
       </c>
       <c r="BA48" s="15">
-        <v>2779988</v>
+        <v>980731</v>
       </c>
       <c r="BB48" s="15">
-        <v>1209373</v>
+        <v>1129965</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6688,7 +6688,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6743,7 +6743,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6798,7 +6798,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>75</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7010,7 +7010,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>75</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>55</v>
       </c>
@@ -7076,34 +7076,34 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>73368</v>
+        <v>46964</v>
       </c>
       <c r="F55" s="11">
-        <v>1657</v>
+        <v>53530</v>
       </c>
       <c r="G55" s="11">
-        <v>46964</v>
+        <v>0</v>
       </c>
       <c r="H55" s="11">
-        <v>53530</v>
+        <v>42199</v>
       </c>
       <c r="I55" s="11">
-        <v>0</v>
+        <v>41821</v>
       </c>
       <c r="J55" s="11">
-        <v>42199</v>
+        <v>19</v>
       </c>
       <c r="K55" s="11">
-        <v>41821</v>
+        <v>88518</v>
       </c>
       <c r="L55" s="11">
-        <v>19</v>
+        <v>24033</v>
       </c>
       <c r="M55" s="11">
-        <v>88518</v>
+        <v>0</v>
       </c>
       <c r="N55" s="11">
-        <v>24033</v>
+        <v>0</v>
       </c>
       <c r="O55" s="11">
         <v>0</v>
@@ -7115,16 +7115,16 @@
         <v>0</v>
       </c>
       <c r="R55" s="11">
-        <v>0</v>
+        <v>73855</v>
       </c>
       <c r="S55" s="11">
-        <v>0</v>
+        <v>97070</v>
       </c>
       <c r="T55" s="11">
-        <v>73855</v>
+        <v>0</v>
       </c>
       <c r="U55" s="11">
-        <v>97070</v>
+        <v>0</v>
       </c>
       <c r="V55" s="11">
         <v>0</v>
@@ -7133,28 +7133,28 @@
         <v>0</v>
       </c>
       <c r="X55" s="11">
-        <v>0</v>
+        <v>260080</v>
       </c>
       <c r="Y55" s="11">
-        <v>0</v>
+        <v>170145</v>
       </c>
       <c r="Z55" s="11">
-        <v>260080</v>
+        <v>92656</v>
       </c>
       <c r="AA55" s="11">
-        <v>170145</v>
+        <v>130339</v>
       </c>
       <c r="AB55" s="11">
-        <v>92656</v>
+        <v>56328</v>
       </c>
       <c r="AC55" s="11">
-        <v>130339</v>
+        <v>448751</v>
       </c>
       <c r="AD55" s="11">
-        <v>56328</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="11">
-        <v>448751</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="11">
         <v>0</v>
@@ -7175,25 +7175,25 @@
         <v>0</v>
       </c>
       <c r="AL55" s="11">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="AM55" s="11">
-        <v>0</v>
+        <v>55243</v>
       </c>
       <c r="AN55" s="11">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="11">
-        <v>55243</v>
+        <v>51187</v>
       </c>
       <c r="AP55" s="11">
         <v>0</v>
       </c>
       <c r="AQ55" s="11">
-        <v>51187</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="11">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="11">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>57</v>
       </c>
@@ -7235,157 +7235,157 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>1833706</v>
+        <v>1975466</v>
       </c>
       <c r="F56" s="13">
-        <v>3111120</v>
+        <v>1279208</v>
       </c>
       <c r="G56" s="13">
-        <v>1975466</v>
+        <v>1280633</v>
       </c>
       <c r="H56" s="13">
-        <v>1279208</v>
+        <v>1677426</v>
       </c>
       <c r="I56" s="13">
-        <v>1280633</v>
+        <v>1129434</v>
       </c>
       <c r="J56" s="13">
-        <v>1677426</v>
+        <v>1386649</v>
       </c>
       <c r="K56" s="13">
-        <v>1129434</v>
+        <v>1519184</v>
       </c>
       <c r="L56" s="13">
-        <v>1386649</v>
+        <v>1212806</v>
       </c>
       <c r="M56" s="13">
-        <v>1519184</v>
+        <v>71662</v>
       </c>
       <c r="N56" s="13">
-        <v>1212806</v>
+        <v>540979</v>
       </c>
       <c r="O56" s="13">
-        <v>71662</v>
+        <v>1305469</v>
       </c>
       <c r="P56" s="13">
-        <v>540979</v>
+        <v>1221118</v>
       </c>
       <c r="Q56" s="13">
-        <v>1305469</v>
+        <v>1213962</v>
       </c>
       <c r="R56" s="13">
-        <v>1221118</v>
+        <v>1269477</v>
       </c>
       <c r="S56" s="13">
-        <v>1213962</v>
+        <v>1121497</v>
       </c>
       <c r="T56" s="13">
-        <v>1269477</v>
+        <v>1325055</v>
       </c>
       <c r="U56" s="13">
-        <v>1121497</v>
+        <v>516644</v>
       </c>
       <c r="V56" s="13">
-        <v>1325055</v>
+        <v>1149405</v>
       </c>
       <c r="W56" s="13">
-        <v>516644</v>
+        <v>1535794</v>
       </c>
       <c r="X56" s="13">
-        <v>1149405</v>
+        <v>1338261</v>
       </c>
       <c r="Y56" s="13">
-        <v>1535794</v>
+        <v>2036519</v>
       </c>
       <c r="Z56" s="13">
-        <v>1338261</v>
+        <v>4207552</v>
       </c>
       <c r="AA56" s="13">
-        <v>2036519</v>
+        <v>3662702</v>
       </c>
       <c r="AB56" s="13">
-        <v>4207552</v>
+        <v>2884065</v>
       </c>
       <c r="AC56" s="13">
-        <v>3662702</v>
+        <v>4127580</v>
       </c>
       <c r="AD56" s="13">
-        <v>2884065</v>
+        <v>4789640</v>
       </c>
       <c r="AE56" s="13">
-        <v>4127580</v>
+        <v>4668160</v>
       </c>
       <c r="AF56" s="13">
-        <v>4789640</v>
+        <v>2650568</v>
       </c>
       <c r="AG56" s="13">
-        <v>4668160</v>
+        <v>2387640</v>
       </c>
       <c r="AH56" s="13">
-        <v>2650568</v>
+        <v>1773710</v>
       </c>
       <c r="AI56" s="13">
-        <v>2387640</v>
+        <v>1503659</v>
       </c>
       <c r="AJ56" s="13">
-        <v>1773710</v>
+        <v>7444390</v>
       </c>
       <c r="AK56" s="13">
-        <v>1503659</v>
+        <v>7384593</v>
       </c>
       <c r="AL56" s="13">
-        <v>7444390</v>
+        <v>10572240</v>
       </c>
       <c r="AM56" s="13">
-        <v>7384593</v>
+        <v>7963345</v>
       </c>
       <c r="AN56" s="13">
-        <v>10572240</v>
+        <v>6668197</v>
       </c>
       <c r="AO56" s="13">
-        <v>7963345</v>
+        <v>7180136</v>
       </c>
       <c r="AP56" s="13">
-        <v>6668197</v>
+        <v>9927062</v>
       </c>
       <c r="AQ56" s="13">
-        <v>7180136</v>
+        <v>8031464</v>
       </c>
       <c r="AR56" s="13">
-        <v>7623034</v>
+        <v>8440392</v>
       </c>
       <c r="AS56" s="13">
-        <v>8031464</v>
+        <v>6022081</v>
       </c>
       <c r="AT56" s="13">
-        <v>8440392</v>
+        <v>3772125</v>
       </c>
       <c r="AU56" s="13">
-        <v>6852399</v>
+        <v>1738104</v>
       </c>
       <c r="AV56" s="13">
-        <v>3772125</v>
+        <v>3534615</v>
       </c>
       <c r="AW56" s="13">
-        <v>1738104</v>
+        <v>4415177</v>
       </c>
       <c r="AX56" s="13">
-        <v>492860</v>
+        <v>4032118</v>
       </c>
       <c r="AY56" s="13">
-        <v>4415177</v>
+        <v>4461065</v>
       </c>
       <c r="AZ56" s="13">
-        <v>4032118</v>
+        <v>2398114</v>
       </c>
       <c r="BA56" s="13">
-        <v>4509588</v>
+        <v>1700374</v>
       </c>
       <c r="BB56" s="13">
-        <v>2398114</v>
+        <v>1366469</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>58</v>
       </c>
@@ -7394,157 +7394,157 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>1585828</v>
+        <v>2833676</v>
       </c>
       <c r="F57" s="11">
-        <v>2758270</v>
+        <v>2379802</v>
       </c>
       <c r="G57" s="11">
-        <v>2833676</v>
+        <v>2136540</v>
       </c>
       <c r="H57" s="11">
-        <v>2379802</v>
+        <v>2714431</v>
       </c>
       <c r="I57" s="11">
-        <v>2136540</v>
+        <v>2736235</v>
       </c>
       <c r="J57" s="11">
-        <v>2714431</v>
+        <v>2342247</v>
       </c>
       <c r="K57" s="11">
-        <v>2736235</v>
+        <v>2191501</v>
       </c>
       <c r="L57" s="11">
-        <v>2342247</v>
+        <v>2560837</v>
       </c>
       <c r="M57" s="11">
-        <v>2191501</v>
+        <v>3429312</v>
       </c>
       <c r="N57" s="11">
-        <v>2560837</v>
+        <v>3416104</v>
       </c>
       <c r="O57" s="11">
-        <v>3429312</v>
+        <v>2286410</v>
       </c>
       <c r="P57" s="11">
-        <v>3416104</v>
+        <v>2030664</v>
       </c>
       <c r="Q57" s="11">
-        <v>2286410</v>
+        <v>2632274</v>
       </c>
       <c r="R57" s="11">
-        <v>2030664</v>
+        <v>2674422</v>
       </c>
       <c r="S57" s="11">
-        <v>2632274</v>
+        <v>2387366</v>
       </c>
       <c r="T57" s="11">
-        <v>2674422</v>
+        <v>2666685</v>
       </c>
       <c r="U57" s="11">
-        <v>2387366</v>
+        <v>4277305</v>
       </c>
       <c r="V57" s="11">
-        <v>2666685</v>
+        <v>3386000</v>
       </c>
       <c r="W57" s="11">
-        <v>4277305</v>
+        <v>4243464</v>
       </c>
       <c r="X57" s="11">
-        <v>3386000</v>
+        <v>4132426</v>
       </c>
       <c r="Y57" s="11">
-        <v>4243464</v>
+        <v>6044451</v>
       </c>
       <c r="Z57" s="11">
-        <v>4132426</v>
+        <v>10964890</v>
       </c>
       <c r="AA57" s="11">
-        <v>6044451</v>
+        <v>12432806</v>
       </c>
       <c r="AB57" s="11">
-        <v>10964890</v>
+        <v>11733850</v>
       </c>
       <c r="AC57" s="11">
-        <v>12432806</v>
+        <v>13529840</v>
       </c>
       <c r="AD57" s="11">
-        <v>11733850</v>
+        <v>16886572</v>
       </c>
       <c r="AE57" s="11">
-        <v>13529840</v>
+        <v>15174088</v>
       </c>
       <c r="AF57" s="11">
-        <v>16886572</v>
+        <v>15064665</v>
       </c>
       <c r="AG57" s="11">
-        <v>15174088</v>
+        <v>15971545</v>
       </c>
       <c r="AH57" s="11">
-        <v>15064665</v>
+        <v>18563476</v>
       </c>
       <c r="AI57" s="11">
-        <v>15971545</v>
+        <v>20760834</v>
       </c>
       <c r="AJ57" s="11">
-        <v>18563476</v>
+        <v>21064393</v>
       </c>
       <c r="AK57" s="11">
-        <v>20760834</v>
+        <v>22003935</v>
       </c>
       <c r="AL57" s="11">
-        <v>21064393</v>
+        <v>15695812</v>
       </c>
       <c r="AM57" s="11">
-        <v>22003935</v>
+        <v>17510501</v>
       </c>
       <c r="AN57" s="11">
-        <v>15695812</v>
+        <v>18112310</v>
       </c>
       <c r="AO57" s="11">
-        <v>17510501</v>
+        <v>16799317</v>
       </c>
       <c r="AP57" s="11">
-        <v>18112310</v>
+        <v>17200342</v>
       </c>
       <c r="AQ57" s="11">
-        <v>16799317</v>
+        <v>14664054</v>
       </c>
       <c r="AR57" s="11">
-        <v>8711103</v>
+        <v>15786055</v>
       </c>
       <c r="AS57" s="11">
-        <v>14664054</v>
+        <v>14012076</v>
       </c>
       <c r="AT57" s="11">
-        <v>15786055</v>
+        <v>20292369</v>
       </c>
       <c r="AU57" s="11">
-        <v>18816710</v>
+        <v>19283565</v>
       </c>
       <c r="AV57" s="11">
-        <v>20292369</v>
+        <v>12246545</v>
       </c>
       <c r="AW57" s="11">
-        <v>19283565</v>
+        <v>13878514</v>
       </c>
       <c r="AX57" s="11">
-        <v>5372957</v>
+        <v>11378426</v>
       </c>
       <c r="AY57" s="11">
-        <v>13878514</v>
+        <v>11545822</v>
       </c>
       <c r="AZ57" s="11">
-        <v>11378426</v>
+        <v>9578146</v>
       </c>
       <c r="BA57" s="11">
-        <v>16812049</v>
+        <v>15170901</v>
       </c>
       <c r="BB57" s="11">
-        <v>9578146</v>
+        <v>14875653</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7553,157 +7553,157 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>3075</v>
+        <v>2427</v>
       </c>
       <c r="F58" s="13">
-        <v>15484</v>
+        <v>1238</v>
       </c>
       <c r="G58" s="13">
-        <v>2427</v>
+        <v>2319</v>
       </c>
       <c r="H58" s="13">
-        <v>1238</v>
+        <v>832</v>
       </c>
       <c r="I58" s="13">
-        <v>2319</v>
+        <v>610</v>
       </c>
       <c r="J58" s="13">
-        <v>832</v>
+        <v>55156</v>
       </c>
       <c r="K58" s="13">
-        <v>610</v>
+        <v>32862</v>
       </c>
       <c r="L58" s="13">
-        <v>55156</v>
+        <v>2865</v>
       </c>
       <c r="M58" s="13">
-        <v>32862</v>
+        <v>25801</v>
       </c>
       <c r="N58" s="13">
-        <v>2865</v>
+        <v>41677</v>
       </c>
       <c r="O58" s="13">
-        <v>25801</v>
+        <v>9603</v>
       </c>
       <c r="P58" s="13">
-        <v>41677</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="13">
-        <v>9603</v>
+        <v>0</v>
       </c>
       <c r="R58" s="13">
-        <v>0</v>
+        <v>17660</v>
       </c>
       <c r="S58" s="13">
-        <v>0</v>
+        <v>18018</v>
       </c>
       <c r="T58" s="13">
-        <v>17660</v>
+        <v>232</v>
       </c>
       <c r="U58" s="13">
-        <v>18018</v>
+        <v>0</v>
       </c>
       <c r="V58" s="13">
-        <v>232</v>
+        <v>3693</v>
       </c>
       <c r="W58" s="13">
-        <v>0</v>
+        <v>51086</v>
       </c>
       <c r="X58" s="13">
-        <v>3693</v>
+        <v>79850</v>
       </c>
       <c r="Y58" s="13">
-        <v>51086</v>
+        <v>8456</v>
       </c>
       <c r="Z58" s="13">
-        <v>79850</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="13">
-        <v>8456</v>
+        <v>8059</v>
       </c>
       <c r="AB58" s="13">
-        <v>0</v>
+        <v>35628</v>
       </c>
       <c r="AC58" s="13">
-        <v>8059</v>
+        <v>269161</v>
       </c>
       <c r="AD58" s="13">
-        <v>35628</v>
+        <v>40880</v>
       </c>
       <c r="AE58" s="13">
-        <v>269161</v>
+        <v>17010</v>
       </c>
       <c r="AF58" s="13">
-        <v>40880</v>
+        <v>13944</v>
       </c>
       <c r="AG58" s="13">
-        <v>17010</v>
+        <v>339951</v>
       </c>
       <c r="AH58" s="13">
-        <v>13944</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="13">
-        <v>339951</v>
+        <v>208746</v>
       </c>
       <c r="AJ58" s="13">
-        <v>0</v>
+        <v>26112</v>
       </c>
       <c r="AK58" s="13">
-        <v>208746</v>
+        <v>37820</v>
       </c>
       <c r="AL58" s="13">
-        <v>26112</v>
+        <v>193805</v>
       </c>
       <c r="AM58" s="13">
-        <v>37820</v>
+        <v>55913</v>
       </c>
       <c r="AN58" s="13">
-        <v>193805</v>
+        <v>158782</v>
       </c>
       <c r="AO58" s="13">
-        <v>55913</v>
+        <v>238356</v>
       </c>
       <c r="AP58" s="13">
-        <v>158782</v>
+        <v>165208</v>
       </c>
       <c r="AQ58" s="13">
-        <v>238356</v>
+        <v>91277</v>
       </c>
       <c r="AR58" s="13">
-        <v>165208</v>
+        <v>2761</v>
       </c>
       <c r="AS58" s="13">
-        <v>91277</v>
+        <v>122323</v>
       </c>
       <c r="AT58" s="13">
-        <v>2761</v>
+        <v>145964</v>
       </c>
       <c r="AU58" s="13">
-        <v>122323</v>
+        <v>84232</v>
       </c>
       <c r="AV58" s="13">
-        <v>145964</v>
+        <v>421157</v>
       </c>
       <c r="AW58" s="13">
-        <v>84232</v>
+        <v>226886</v>
       </c>
       <c r="AX58" s="13">
-        <v>463358</v>
+        <v>233905</v>
       </c>
       <c r="AY58" s="13">
-        <v>226886</v>
+        <v>81892</v>
       </c>
       <c r="AZ58" s="13">
-        <v>233905</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="13">
-        <v>99971</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="13">
-        <v>0</v>
+        <v>197366</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7712,157 +7712,157 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>2463860</v>
+        <v>3532665</v>
       </c>
       <c r="F59" s="11">
-        <v>1419324</v>
+        <v>1297741</v>
       </c>
       <c r="G59" s="11">
-        <v>3532665</v>
+        <v>3820244</v>
       </c>
       <c r="H59" s="11">
-        <v>1297741</v>
+        <v>2282183</v>
       </c>
       <c r="I59" s="11">
-        <v>3820244</v>
+        <v>2942883</v>
       </c>
       <c r="J59" s="11">
-        <v>2282183</v>
+        <v>2730053</v>
       </c>
       <c r="K59" s="11">
-        <v>2942883</v>
+        <v>5612321</v>
       </c>
       <c r="L59" s="11">
-        <v>2730053</v>
+        <v>2979285</v>
       </c>
       <c r="M59" s="11">
-        <v>5612321</v>
+        <v>2753110</v>
       </c>
       <c r="N59" s="11">
-        <v>2979285</v>
+        <v>1745907</v>
       </c>
       <c r="O59" s="11">
-        <v>2753110</v>
+        <v>3379336</v>
       </c>
       <c r="P59" s="11">
-        <v>1745907</v>
+        <v>2232604</v>
       </c>
       <c r="Q59" s="11">
-        <v>3379336</v>
+        <v>3928217</v>
       </c>
       <c r="R59" s="11">
-        <v>2232604</v>
+        <v>5590941</v>
       </c>
       <c r="S59" s="11">
-        <v>3928217</v>
+        <v>3470600</v>
       </c>
       <c r="T59" s="11">
-        <v>5590941</v>
+        <v>719077</v>
       </c>
       <c r="U59" s="11">
-        <v>3470600</v>
+        <v>2616031</v>
       </c>
       <c r="V59" s="11">
-        <v>719077</v>
+        <v>3301963</v>
       </c>
       <c r="W59" s="11">
-        <v>2616031</v>
+        <v>4713163</v>
       </c>
       <c r="X59" s="11">
-        <v>3301963</v>
+        <v>10607848</v>
       </c>
       <c r="Y59" s="11">
-        <v>4713163</v>
+        <v>4763912</v>
       </c>
       <c r="Z59" s="11">
-        <v>10607848</v>
+        <v>9415943</v>
       </c>
       <c r="AA59" s="11">
-        <v>4763912</v>
+        <v>8130511</v>
       </c>
       <c r="AB59" s="11">
-        <v>9415943</v>
+        <v>9591836</v>
       </c>
       <c r="AC59" s="11">
-        <v>8130511</v>
+        <v>8448065</v>
       </c>
       <c r="AD59" s="11">
-        <v>9591836</v>
+        <v>16617292</v>
       </c>
       <c r="AE59" s="11">
-        <v>8448065</v>
+        <v>10893009</v>
       </c>
       <c r="AF59" s="11">
-        <v>16617292</v>
+        <v>6537114</v>
       </c>
       <c r="AG59" s="11">
-        <v>10893009</v>
+        <v>6063083</v>
       </c>
       <c r="AH59" s="11">
-        <v>6537114</v>
+        <v>15442178</v>
       </c>
       <c r="AI59" s="11">
-        <v>6063083</v>
+        <v>7570718</v>
       </c>
       <c r="AJ59" s="11">
-        <v>15442178</v>
+        <v>9777889</v>
       </c>
       <c r="AK59" s="11">
-        <v>7570718</v>
+        <v>7829271</v>
       </c>
       <c r="AL59" s="11">
-        <v>9777889</v>
+        <v>11026868</v>
       </c>
       <c r="AM59" s="11">
-        <v>7829271</v>
+        <v>9577593</v>
       </c>
       <c r="AN59" s="11">
-        <v>11026868</v>
+        <v>13734248</v>
       </c>
       <c r="AO59" s="11">
-        <v>9577593</v>
+        <v>12813136</v>
       </c>
       <c r="AP59" s="11">
-        <v>13734248</v>
+        <v>14166063</v>
       </c>
       <c r="AQ59" s="11">
-        <v>12813136</v>
+        <v>15818458</v>
       </c>
       <c r="AR59" s="11">
-        <v>14166063</v>
+        <v>14738349</v>
       </c>
       <c r="AS59" s="11">
-        <v>15818458</v>
+        <v>14552921</v>
       </c>
       <c r="AT59" s="11">
-        <v>14738349</v>
+        <v>17401378</v>
       </c>
       <c r="AU59" s="11">
-        <v>14543645</v>
+        <v>13665134</v>
       </c>
       <c r="AV59" s="11">
-        <v>17401378</v>
+        <v>8944818</v>
       </c>
       <c r="AW59" s="11">
-        <v>13665134</v>
+        <v>10771223</v>
       </c>
       <c r="AX59" s="11">
-        <v>8944817</v>
+        <v>13086285</v>
       </c>
       <c r="AY59" s="11">
-        <v>10771223</v>
+        <v>17747864</v>
       </c>
       <c r="AZ59" s="11">
-        <v>13086285</v>
+        <v>17127666</v>
       </c>
       <c r="BA59" s="11">
-        <v>17747864</v>
+        <v>12867471</v>
       </c>
       <c r="BB59" s="11">
-        <v>17127666</v>
+        <v>15681249</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -7879,149 +7879,149 @@
       <c r="G60" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>62</v>
+      <c r="H60" s="13">
+        <v>101126</v>
+      </c>
+      <c r="I60" s="13">
+        <v>91986</v>
       </c>
       <c r="J60" s="13">
-        <v>101126</v>
+        <v>571902</v>
       </c>
       <c r="K60" s="13">
-        <v>91986</v>
+        <v>410260</v>
       </c>
       <c r="L60" s="13">
-        <v>571902</v>
+        <v>1243080</v>
       </c>
       <c r="M60" s="13">
-        <v>410260</v>
+        <v>379293</v>
       </c>
       <c r="N60" s="13">
-        <v>1243080</v>
+        <v>537268</v>
       </c>
       <c r="O60" s="13">
-        <v>379293</v>
+        <v>645057</v>
       </c>
       <c r="P60" s="13">
-        <v>537268</v>
+        <v>564927</v>
       </c>
       <c r="Q60" s="13">
-        <v>645057</v>
+        <v>1013092</v>
       </c>
       <c r="R60" s="13">
-        <v>564927</v>
+        <v>548502</v>
       </c>
       <c r="S60" s="13">
-        <v>1013092</v>
+        <v>678357</v>
       </c>
       <c r="T60" s="13">
-        <v>548502</v>
+        <v>236003</v>
       </c>
       <c r="U60" s="13">
-        <v>678357</v>
+        <v>415031</v>
       </c>
       <c r="V60" s="13">
-        <v>236003</v>
+        <v>714760</v>
       </c>
       <c r="W60" s="13">
-        <v>415031</v>
+        <v>455389</v>
       </c>
       <c r="X60" s="13">
-        <v>714760</v>
+        <v>28730</v>
       </c>
       <c r="Y60" s="13">
-        <v>455389</v>
+        <v>1259140</v>
       </c>
       <c r="Z60" s="13">
-        <v>28730</v>
+        <v>966902</v>
       </c>
       <c r="AA60" s="13">
-        <v>1259140</v>
+        <v>1932085</v>
       </c>
       <c r="AB60" s="13">
-        <v>966902</v>
+        <v>1665195</v>
       </c>
       <c r="AC60" s="13">
-        <v>1932085</v>
+        <v>664878</v>
       </c>
       <c r="AD60" s="13">
-        <v>1665195</v>
+        <v>806764</v>
       </c>
       <c r="AE60" s="13">
-        <v>664878</v>
+        <v>1285748</v>
       </c>
       <c r="AF60" s="13">
-        <v>806764</v>
+        <v>1195921</v>
       </c>
       <c r="AG60" s="13">
-        <v>1285748</v>
+        <v>640736</v>
       </c>
       <c r="AH60" s="13">
-        <v>1195921</v>
+        <v>839228</v>
       </c>
       <c r="AI60" s="13">
-        <v>640736</v>
+        <v>1443862</v>
       </c>
       <c r="AJ60" s="13">
-        <v>839228</v>
+        <v>2308364</v>
       </c>
       <c r="AK60" s="13">
-        <v>1443862</v>
+        <v>2026429</v>
       </c>
       <c r="AL60" s="13">
-        <v>2308364</v>
+        <v>2513345</v>
       </c>
       <c r="AM60" s="13">
-        <v>2026429</v>
+        <v>1901577</v>
       </c>
       <c r="AN60" s="13">
-        <v>2513345</v>
+        <v>93847</v>
       </c>
       <c r="AO60" s="13">
-        <v>1901577</v>
+        <v>384700</v>
       </c>
       <c r="AP60" s="13">
-        <v>93847</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="13">
-        <v>384700</v>
+        <v>0</v>
       </c>
       <c r="AR60" s="13">
-        <v>-9776</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="13">
-        <v>0</v>
+        <v>998510</v>
       </c>
       <c r="AT60" s="13">
-        <v>0</v>
+        <v>762619</v>
       </c>
       <c r="AU60" s="13">
-        <v>1115927</v>
+        <v>0</v>
       </c>
       <c r="AV60" s="13">
-        <v>762619</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="13">
-        <v>0</v>
+        <v>1944491</v>
       </c>
       <c r="AX60" s="13">
-        <v>0</v>
+        <v>2568207</v>
       </c>
       <c r="AY60" s="13">
-        <v>1944491</v>
+        <v>3399411</v>
       </c>
       <c r="AZ60" s="13">
-        <v>2568207</v>
+        <v>635557</v>
       </c>
       <c r="BA60" s="13">
-        <v>3456472</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="13">
-        <v>635557</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>63</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>64</v>
       </c>
@@ -8311,23 +8311,23 @@
       <c r="AS62" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AT62" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU62" s="13" t="s">
-        <v>62</v>
+      <c r="AT62" s="13">
+        <v>586923</v>
+      </c>
+      <c r="AU62" s="13">
+        <v>0</v>
       </c>
       <c r="AV62" s="13">
-        <v>586923</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="13">
-        <v>0</v>
+        <v>67796</v>
       </c>
       <c r="AX62" s="13">
         <v>0</v>
       </c>
       <c r="AY62" s="13">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="13">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>65</v>
       </c>
@@ -8356,11 +8356,11 @@
       <c r="G63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>62</v>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
       </c>
       <c r="J63" s="11">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>66</v>
       </c>
@@ -8524,14 +8524,14 @@
       <c r="J64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K64" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>62</v>
+      <c r="K64" s="13">
+        <v>751537</v>
+      </c>
+      <c r="L64" s="13">
+        <v>0</v>
       </c>
       <c r="M64" s="13">
-        <v>751537</v>
+        <v>0</v>
       </c>
       <c r="N64" s="13">
         <v>0</v>
@@ -8551,20 +8551,20 @@
       <c r="S64" s="13">
         <v>0</v>
       </c>
-      <c r="T64" s="13">
-        <v>0</v>
-      </c>
-      <c r="U64" s="13">
-        <v>0</v>
+      <c r="T64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U64" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="V64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>62</v>
+      <c r="W64" s="13">
+        <v>0</v>
+      </c>
+      <c r="X64" s="13">
+        <v>0</v>
       </c>
       <c r="Y64" s="13">
         <v>0</v>
@@ -8588,61 +8588,61 @@
         <v>0</v>
       </c>
       <c r="AF64" s="13">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="AG64" s="13">
-        <v>0</v>
+        <v>699302</v>
       </c>
       <c r="AH64" s="13">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="13">
-        <v>699302</v>
+        <v>451702</v>
       </c>
       <c r="AJ64" s="13">
         <v>0</v>
       </c>
       <c r="AK64" s="13">
-        <v>451702</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="13">
         <v>0</v>
       </c>
       <c r="AM64" s="13">
-        <v>0</v>
+        <v>101423</v>
       </c>
       <c r="AN64" s="13">
         <v>0</v>
       </c>
       <c r="AO64" s="13">
-        <v>101423</v>
+        <v>8965</v>
       </c>
       <c r="AP64" s="13">
-        <v>0</v>
+        <v>165847</v>
       </c>
       <c r="AQ64" s="13">
-        <v>8965</v>
+        <v>227136</v>
       </c>
       <c r="AR64" s="13">
-        <v>165849</v>
+        <v>92935</v>
       </c>
       <c r="AS64" s="13">
-        <v>227136</v>
+        <v>3100</v>
       </c>
       <c r="AT64" s="13">
-        <v>92935</v>
+        <v>17529</v>
       </c>
       <c r="AU64" s="13">
-        <v>5294</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="13">
-        <v>17529</v>
+        <v>6201</v>
       </c>
       <c r="AW64" s="13">
         <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>35055</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="13">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>67</v>
       </c>
@@ -8692,11 +8692,11 @@
       <c r="M65" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O65" s="11" t="s">
-        <v>62</v>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+      <c r="O65" s="11">
+        <v>0</v>
       </c>
       <c r="P65" s="11">
         <v>0</v>
@@ -8726,13 +8726,13 @@
         <v>0</v>
       </c>
       <c r="Y65" s="11">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="Z65" s="11">
         <v>0</v>
       </c>
       <c r="AA65" s="11">
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="11">
         <v>0</v>
@@ -8744,13 +8744,13 @@
         <v>0</v>
       </c>
       <c r="AE65" s="11">
-        <v>0</v>
+        <v>166208</v>
       </c>
       <c r="AF65" s="11">
         <v>0</v>
       </c>
       <c r="AG65" s="11">
-        <v>166208</v>
+        <v>0</v>
       </c>
       <c r="AH65" s="11">
         <v>0</v>
@@ -8762,61 +8762,61 @@
         <v>0</v>
       </c>
       <c r="AK65" s="11">
-        <v>0</v>
+        <v>1046639</v>
       </c>
       <c r="AL65" s="11">
         <v>0</v>
       </c>
       <c r="AM65" s="11">
-        <v>1046639</v>
+        <v>0</v>
       </c>
       <c r="AN65" s="11">
         <v>0</v>
       </c>
       <c r="AO65" s="11">
-        <v>0</v>
+        <v>106996</v>
       </c>
       <c r="AP65" s="11">
-        <v>0</v>
+        <v>117311</v>
       </c>
       <c r="AQ65" s="11">
-        <v>106996</v>
+        <v>128490</v>
       </c>
       <c r="AR65" s="11">
-        <v>550188</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="11">
-        <v>128490</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="11">
-        <v>0</v>
+        <v>196807</v>
       </c>
       <c r="AU65" s="11">
-        <v>368587</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="11">
-        <v>196807</v>
+        <v>180906</v>
       </c>
       <c r="AW65" s="11">
-        <v>89199</v>
+        <v>227228</v>
       </c>
       <c r="AX65" s="11">
-        <v>943449</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="11">
-        <v>227228</v>
+        <v>275490</v>
       </c>
       <c r="AZ65" s="11">
-        <v>0</v>
+        <v>167013</v>
       </c>
       <c r="BA65" s="11">
-        <v>275490</v>
+        <v>1665</v>
       </c>
       <c r="BB65" s="11">
-        <v>167013</v>
+        <v>95381</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>77</v>
       </c>
@@ -8873,7 +8873,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
@@ -8995,14 +8995,14 @@
       <c r="AP67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AQ67" s="11" t="s">
-        <v>62</v>
+      <c r="AQ67" s="11">
+        <v>12945991</v>
       </c>
       <c r="AR67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AS67" s="11">
-        <v>12945991</v>
+      <c r="AS67" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AT67" s="11" t="s">
         <v>62</v>
@@ -9032,7 +9032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>70</v>
       </c>
@@ -9094,11 +9094,11 @@
       <c r="V68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="W68" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>62</v>
+      <c r="W68" s="15">
+        <v>0</v>
+      </c>
+      <c r="X68" s="15">
+        <v>0</v>
       </c>
       <c r="Y68" s="15">
         <v>0</v>
@@ -9155,13 +9155,13 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="15">
-        <v>0</v>
+        <v>12945991</v>
       </c>
       <c r="AR68" s="15">
         <v>0</v>
       </c>
       <c r="AS68" s="15">
-        <v>12945991</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="15">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>78</v>
       </c>
@@ -9248,7 +9248,7 @@
       <c r="BA69" s="19"/>
       <c r="BB69" s="19"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>74</v>
       </c>
@@ -9310,11 +9310,11 @@
       <c r="V70" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W70" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X70" s="17" t="s">
-        <v>62</v>
+      <c r="W70" s="17">
+        <v>0</v>
+      </c>
+      <c r="X70" s="17">
+        <v>0</v>
       </c>
       <c r="Y70" s="17">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>79</v>
       </c>
@@ -9464,7 +9464,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>80</v>
       </c>
@@ -9526,11 +9526,11 @@
       <c r="V72" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W72" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X72" s="11" t="s">
-        <v>62</v>
+      <c r="W72" s="11">
+        <v>0</v>
+      </c>
+      <c r="X72" s="11">
+        <v>0</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
@@ -9623,164 +9623,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>5959837</v>
+        <v>8391198</v>
       </c>
       <c r="F73" s="15">
-        <v>7305855</v>
+        <v>5011519</v>
       </c>
       <c r="G73" s="15">
-        <v>8391198</v>
+        <v>7239736</v>
       </c>
       <c r="H73" s="15">
-        <v>5011519</v>
+        <v>6818197</v>
       </c>
       <c r="I73" s="15">
-        <v>7239736</v>
+        <v>6942969</v>
       </c>
       <c r="J73" s="15">
-        <v>6818197</v>
+        <v>7086026</v>
       </c>
       <c r="K73" s="15">
-        <v>6942969</v>
+        <v>10606183</v>
       </c>
       <c r="L73" s="15">
-        <v>7086026</v>
+        <v>8022906</v>
       </c>
       <c r="M73" s="15">
-        <v>10606183</v>
+        <v>6659178</v>
       </c>
       <c r="N73" s="15">
-        <v>8022906</v>
+        <v>6281935</v>
       </c>
       <c r="O73" s="15">
-        <v>6659178</v>
+        <v>7625875</v>
       </c>
       <c r="P73" s="15">
-        <v>6281935</v>
+        <v>6049313</v>
       </c>
       <c r="Q73" s="15">
-        <v>7625875</v>
+        <v>8787545</v>
       </c>
       <c r="R73" s="15">
-        <v>6049313</v>
+        <v>10174857</v>
       </c>
       <c r="S73" s="15">
-        <v>8787545</v>
+        <v>7772908</v>
       </c>
       <c r="T73" s="15">
-        <v>10174857</v>
+        <v>4947052</v>
       </c>
       <c r="U73" s="15">
-        <v>7772908</v>
+        <v>7825011</v>
       </c>
       <c r="V73" s="15">
-        <v>4947052</v>
+        <v>8555821</v>
       </c>
       <c r="W73" s="15">
-        <v>7825011</v>
+        <v>10998896</v>
       </c>
       <c r="X73" s="15">
-        <v>8555821</v>
+        <v>16447195</v>
       </c>
       <c r="Y73" s="15">
-        <v>10998896</v>
+        <v>14417623</v>
       </c>
       <c r="Z73" s="15">
-        <v>16447195</v>
+        <v>25647943</v>
       </c>
       <c r="AA73" s="15">
-        <v>14417623</v>
+        <v>26296502</v>
       </c>
       <c r="AB73" s="15">
-        <v>25647943</v>
+        <v>25966902</v>
       </c>
       <c r="AC73" s="15">
-        <v>26296502</v>
+        <v>27488275</v>
       </c>
       <c r="AD73" s="15">
-        <v>25966902</v>
+        <v>39141148</v>
       </c>
       <c r="AE73" s="15">
-        <v>27488275</v>
+        <v>32204223</v>
       </c>
       <c r="AF73" s="15">
-        <v>39141148</v>
+        <v>25463099</v>
       </c>
       <c r="AG73" s="15">
-        <v>32204223</v>
+        <v>26102257</v>
       </c>
       <c r="AH73" s="15">
-        <v>25463099</v>
+        <v>36618592</v>
       </c>
       <c r="AI73" s="15">
-        <v>26102257</v>
+        <v>31939521</v>
       </c>
       <c r="AJ73" s="15">
-        <v>36618592</v>
+        <v>40621148</v>
       </c>
       <c r="AK73" s="15">
-        <v>31939521</v>
+        <v>40328687</v>
       </c>
       <c r="AL73" s="15">
-        <v>40621148</v>
+        <v>40002482</v>
       </c>
       <c r="AM73" s="15">
-        <v>40328687</v>
+        <v>37165595</v>
       </c>
       <c r="AN73" s="15">
-        <v>40002482</v>
+        <v>38767384</v>
       </c>
       <c r="AO73" s="15">
-        <v>37165595</v>
+        <v>37582793</v>
       </c>
       <c r="AP73" s="15">
-        <v>38767384</v>
+        <v>41741833</v>
       </c>
       <c r="AQ73" s="15">
-        <v>37582793</v>
+        <v>51906870</v>
       </c>
       <c r="AR73" s="15">
-        <v>31372014</v>
+        <v>39060492</v>
       </c>
       <c r="AS73" s="15">
-        <v>51906870</v>
+        <v>35711011</v>
       </c>
       <c r="AT73" s="15">
-        <v>39060492</v>
+        <v>43175714</v>
       </c>
       <c r="AU73" s="15">
-        <v>41824885</v>
+        <v>34771035</v>
       </c>
       <c r="AV73" s="15">
-        <v>43175714</v>
+        <v>25334242</v>
       </c>
       <c r="AW73" s="15">
-        <v>34860234</v>
+        <v>31531315</v>
       </c>
       <c r="AX73" s="15">
-        <v>16252496</v>
+        <v>31298941</v>
       </c>
       <c r="AY73" s="15">
-        <v>31531315</v>
+        <v>37511544</v>
       </c>
       <c r="AZ73" s="15">
-        <v>31298941</v>
+        <v>29906496</v>
       </c>
       <c r="BA73" s="15">
-        <v>42901434</v>
+        <v>29740411</v>
       </c>
       <c r="BB73" s="15">
-        <v>29906496</v>
+        <v>32216118</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9835,7 +9835,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9890,7 +9890,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9945,7 +9945,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>81</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10157,7 +10157,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>82</v>
       </c>
@@ -10214,7 +10214,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>55</v>
       </c>
@@ -10223,34 +10223,34 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>1166738</v>
+        <v>1848540</v>
       </c>
       <c r="F80" s="11">
-        <v>3481092</v>
+        <v>1500028</v>
       </c>
       <c r="G80" s="11">
-        <v>1848540</v>
+        <v>0</v>
       </c>
       <c r="H80" s="11">
-        <v>1500028</v>
+        <v>1499982</v>
       </c>
       <c r="I80" s="11">
-        <v>0</v>
+        <v>1911555</v>
       </c>
       <c r="J80" s="11">
-        <v>1499982</v>
+        <v>950000</v>
       </c>
       <c r="K80" s="11">
-        <v>1911555</v>
+        <v>2500014</v>
       </c>
       <c r="L80" s="11">
-        <v>950000</v>
+        <v>2500052</v>
       </c>
       <c r="M80" s="11">
-        <v>2500014</v>
+        <v>0</v>
       </c>
       <c r="N80" s="11">
-        <v>2500052</v>
+        <v>0</v>
       </c>
       <c r="O80" s="11">
         <v>0</v>
@@ -10262,47 +10262,47 @@
         <v>0</v>
       </c>
       <c r="R80" s="11">
-        <v>0</v>
+        <v>2572090</v>
       </c>
       <c r="S80" s="11">
-        <v>0</v>
-      </c>
-      <c r="T80" s="11">
-        <v>2572090</v>
-      </c>
-      <c r="U80" s="11">
         <v>3101575</v>
       </c>
+      <c r="T80" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U80" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="V80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W80" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="X80" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y80" s="11" t="s">
-        <v>62</v>
+      <c r="X80" s="11">
+        <v>4459534</v>
+      </c>
+      <c r="Y80" s="11">
+        <v>4459544</v>
       </c>
       <c r="Z80" s="11">
-        <v>4459534</v>
+        <v>4459547</v>
       </c>
       <c r="AA80" s="11">
-        <v>4459544</v>
+        <v>4459541</v>
       </c>
       <c r="AB80" s="11">
-        <v>4459547</v>
+        <v>4459504</v>
       </c>
       <c r="AC80" s="11">
-        <v>4459541</v>
-      </c>
-      <c r="AD80" s="11">
-        <v>4459504</v>
-      </c>
-      <c r="AE80" s="11">
         <v>12009286</v>
       </c>
+      <c r="AD80" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE80" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AF80" s="11" t="s">
         <v>62</v>
       </c>
@@ -10321,26 +10321,26 @@
       <c r="AK80" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AL80" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM80" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN80" s="11">
+      <c r="AL80" s="11">
         <v>17835498</v>
       </c>
+      <c r="AM80" s="11">
+        <v>18414333</v>
+      </c>
+      <c r="AN80" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AO80" s="11">
-        <v>18414333</v>
+        <v>17000000</v>
       </c>
       <c r="AP80" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AQ80" s="11">
-        <v>17000000</v>
-      </c>
-      <c r="AR80" s="11">
-        <v>56353</v>
+      <c r="AQ80" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR80" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AS80" s="11" t="s">
         <v>62</v>
@@ -10373,7 +10373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>57</v>
       </c>
@@ -10382,157 +10382,157 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>5848787</v>
+        <v>8678294</v>
       </c>
       <c r="F81" s="13">
         <v>8678304</v>
       </c>
       <c r="G81" s="13">
-        <v>8678294</v>
+        <v>8678316</v>
       </c>
       <c r="H81" s="13">
-        <v>8678304</v>
+        <v>8677882</v>
       </c>
       <c r="I81" s="13">
-        <v>8678316</v>
+        <v>8678274</v>
       </c>
       <c r="J81" s="13">
-        <v>8677882</v>
+        <v>8985427</v>
       </c>
       <c r="K81" s="13">
-        <v>8678274</v>
+        <v>8695013</v>
       </c>
       <c r="L81" s="13">
-        <v>8985427</v>
+        <v>8710872</v>
       </c>
       <c r="M81" s="13">
-        <v>8695013</v>
+        <v>9796582</v>
       </c>
       <c r="N81" s="13">
-        <v>8710872</v>
+        <v>10286141</v>
       </c>
       <c r="O81" s="13">
-        <v>9796582</v>
+        <v>9410413</v>
       </c>
       <c r="P81" s="13">
-        <v>10286141</v>
+        <v>9242841</v>
       </c>
       <c r="Q81" s="13">
-        <v>9410413</v>
+        <v>9858069</v>
       </c>
       <c r="R81" s="13">
-        <v>9242841</v>
+        <v>9868063</v>
       </c>
       <c r="S81" s="13">
-        <v>9858069</v>
+        <v>10925871</v>
       </c>
       <c r="T81" s="13">
-        <v>9868063</v>
+        <v>12042670</v>
       </c>
       <c r="U81" s="13">
-        <v>10925871</v>
+        <v>12042703</v>
       </c>
       <c r="V81" s="13">
-        <v>12042670</v>
+        <v>12403205</v>
       </c>
       <c r="W81" s="13">
-        <v>12042703</v>
+        <v>14594640</v>
       </c>
       <c r="X81" s="13">
-        <v>12403205</v>
+        <v>14599476</v>
       </c>
       <c r="Y81" s="13">
-        <v>14594640</v>
+        <v>16614066</v>
       </c>
       <c r="Z81" s="13">
-        <v>14599476</v>
+        <v>25160421</v>
       </c>
       <c r="AA81" s="13">
-        <v>16614066</v>
+        <v>27312399</v>
       </c>
       <c r="AB81" s="13">
-        <v>25160421</v>
+        <v>26520626</v>
       </c>
       <c r="AC81" s="13">
-        <v>27312399</v>
+        <v>29432889</v>
       </c>
       <c r="AD81" s="13">
-        <v>26520626</v>
+        <v>31074721</v>
       </c>
       <c r="AE81" s="13">
-        <v>29432889</v>
+        <v>31291082</v>
       </c>
       <c r="AF81" s="13">
-        <v>31074721</v>
+        <v>31291015</v>
       </c>
       <c r="AG81" s="13">
-        <v>31291082</v>
+        <v>34251040</v>
       </c>
       <c r="AH81" s="13">
-        <v>31291015</v>
+        <v>35630976</v>
       </c>
       <c r="AI81" s="13">
-        <v>34251040</v>
+        <v>39789865</v>
       </c>
       <c r="AJ81" s="13">
-        <v>35630976</v>
+        <v>42815593</v>
       </c>
       <c r="AK81" s="13">
-        <v>39789865</v>
+        <v>44392169</v>
       </c>
       <c r="AL81" s="13">
-        <v>42815593</v>
+        <v>41617257</v>
       </c>
       <c r="AM81" s="13">
-        <v>44392169</v>
+        <v>42966607</v>
       </c>
       <c r="AN81" s="13">
-        <v>41617257</v>
+        <v>41998835</v>
       </c>
       <c r="AO81" s="13">
-        <v>42966607</v>
+        <v>41312398</v>
       </c>
       <c r="AP81" s="13">
-        <v>41998835</v>
+        <v>40159317</v>
       </c>
       <c r="AQ81" s="13">
-        <v>41312398</v>
+        <v>40013870</v>
       </c>
       <c r="AR81" s="13">
-        <v>38720509</v>
+        <v>41327066</v>
       </c>
       <c r="AS81" s="13">
-        <v>40013870</v>
+        <v>41306827</v>
       </c>
       <c r="AT81" s="13">
-        <v>41327066</v>
+        <v>41073684</v>
       </c>
       <c r="AU81" s="13">
-        <v>43679008</v>
+        <v>40775677</v>
       </c>
       <c r="AV81" s="13">
-        <v>41073684</v>
+        <v>31895964</v>
       </c>
       <c r="AW81" s="13">
-        <v>40775677</v>
+        <v>29319775</v>
       </c>
       <c r="AX81" s="13">
-        <v>26721419</v>
+        <v>27699967</v>
       </c>
       <c r="AY81" s="13">
-        <v>29319775</v>
+        <v>29222034</v>
       </c>
       <c r="AZ81" s="13">
-        <v>27699967</v>
+        <v>30360870</v>
       </c>
       <c r="BA81" s="13">
-        <v>29539882</v>
+        <v>31274697</v>
       </c>
       <c r="BB81" s="13">
-        <v>30360870</v>
+        <v>32449218</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>58</v>
       </c>
@@ -10541,157 +10541,157 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>3493436</v>
+        <v>5662380</v>
       </c>
       <c r="F82" s="11">
-        <v>5578179</v>
+        <v>5659592</v>
       </c>
       <c r="G82" s="11">
-        <v>5662380</v>
+        <v>5637666</v>
       </c>
       <c r="H82" s="11">
-        <v>5659592</v>
+        <v>5698241</v>
       </c>
       <c r="I82" s="11">
-        <v>5637666</v>
+        <v>5665658</v>
       </c>
       <c r="J82" s="11">
-        <v>5698241</v>
+        <v>5591530</v>
       </c>
       <c r="K82" s="11">
-        <v>5665658</v>
+        <v>5403762</v>
       </c>
       <c r="L82" s="11">
-        <v>5591530</v>
+        <v>5423503</v>
       </c>
       <c r="M82" s="11">
-        <v>5403762</v>
+        <v>6460502</v>
       </c>
       <c r="N82" s="11">
-        <v>5423503</v>
+        <v>6717447</v>
       </c>
       <c r="O82" s="11">
-        <v>6460502</v>
+        <v>6145553</v>
       </c>
       <c r="P82" s="11">
-        <v>6717447</v>
+        <v>6059025</v>
       </c>
       <c r="Q82" s="11">
-        <v>6145553</v>
+        <v>6444528</v>
       </c>
       <c r="R82" s="11">
-        <v>6059025</v>
+        <v>6444716</v>
       </c>
       <c r="S82" s="11">
-        <v>6444528</v>
+        <v>7142307</v>
       </c>
       <c r="T82" s="11">
-        <v>6444716</v>
+        <v>7888480</v>
       </c>
       <c r="U82" s="11">
-        <v>7142307</v>
+        <v>7864558</v>
       </c>
       <c r="V82" s="11">
-        <v>7888480</v>
+        <v>8100168</v>
       </c>
       <c r="W82" s="11">
-        <v>7864558</v>
+        <v>9524851</v>
       </c>
       <c r="X82" s="11">
-        <v>8100168</v>
+        <v>9434698</v>
       </c>
       <c r="Y82" s="11">
-        <v>9524851</v>
+        <v>11414812</v>
       </c>
       <c r="Z82" s="11">
-        <v>9434698</v>
+        <v>16840821</v>
       </c>
       <c r="AA82" s="11">
-        <v>11414812</v>
+        <v>18265756</v>
       </c>
       <c r="AB82" s="11">
-        <v>16840821</v>
+        <v>17754028</v>
       </c>
       <c r="AC82" s="11">
-        <v>18265756</v>
+        <v>19732752</v>
       </c>
       <c r="AD82" s="11">
-        <v>17754028</v>
+        <v>20635759</v>
       </c>
       <c r="AE82" s="11">
-        <v>19732752</v>
+        <v>20751798</v>
       </c>
       <c r="AF82" s="11">
-        <v>20635759</v>
+        <v>21697693</v>
       </c>
       <c r="AG82" s="11">
-        <v>20751798</v>
+        <v>22737982</v>
       </c>
       <c r="AH82" s="11">
-        <v>21697693</v>
+        <v>25450442</v>
       </c>
       <c r="AI82" s="11">
-        <v>22737982</v>
+        <v>28421239</v>
       </c>
       <c r="AJ82" s="11">
-        <v>25450442</v>
+        <v>30582623</v>
       </c>
       <c r="AK82" s="11">
-        <v>28421239</v>
+        <v>31072772</v>
       </c>
       <c r="AL82" s="11">
-        <v>30582623</v>
+        <v>29726523</v>
       </c>
       <c r="AM82" s="11">
-        <v>31072772</v>
+        <v>30690510</v>
       </c>
       <c r="AN82" s="11">
-        <v>29726523</v>
+        <v>29630234</v>
       </c>
       <c r="AO82" s="11">
-        <v>30690510</v>
+        <v>29508828</v>
       </c>
       <c r="AP82" s="11">
-        <v>29630234</v>
+        <v>28554067</v>
       </c>
       <c r="AQ82" s="11">
-        <v>29508828</v>
+        <v>28581335</v>
       </c>
       <c r="AR82" s="11">
-        <v>27368622</v>
+        <v>28043259</v>
       </c>
       <c r="AS82" s="11">
-        <v>28581335</v>
+        <v>28029478</v>
       </c>
       <c r="AT82" s="11">
-        <v>28043259</v>
+        <v>32479015</v>
       </c>
       <c r="AU82" s="11">
-        <v>32546896</v>
+        <v>30888249</v>
       </c>
       <c r="AV82" s="11">
-        <v>32479015</v>
+        <v>27515812</v>
       </c>
       <c r="AW82" s="11">
-        <v>30888249</v>
+        <v>26800207</v>
       </c>
       <c r="AX82" s="11">
-        <v>25023168</v>
+        <v>23166859</v>
       </c>
       <c r="AY82" s="11">
-        <v>26800207</v>
+        <v>24862875</v>
       </c>
       <c r="AZ82" s="11">
-        <v>23166859</v>
+        <v>26881346</v>
       </c>
       <c r="BA82" s="11">
-        <v>27286750</v>
+        <v>25397303</v>
       </c>
       <c r="BB82" s="11">
-        <v>26881346</v>
+        <v>28232778</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -10700,157 +10700,157 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>2419355</v>
+        <v>3000000</v>
       </c>
       <c r="F83" s="13">
-        <v>2986883</v>
+        <v>2997579</v>
       </c>
       <c r="G83" s="13">
         <v>3000000</v>
       </c>
       <c r="H83" s="13">
-        <v>2997579</v>
+        <v>3003610</v>
       </c>
       <c r="I83" s="13">
-        <v>3000000</v>
+        <v>3004926</v>
       </c>
       <c r="J83" s="13">
-        <v>3003610</v>
+        <v>3521195</v>
       </c>
       <c r="K83" s="13">
-        <v>3004926</v>
+        <v>3531270</v>
       </c>
       <c r="L83" s="13">
-        <v>3521195</v>
+        <v>3645038</v>
       </c>
       <c r="M83" s="13">
-        <v>3531270</v>
+        <v>3601480</v>
       </c>
       <c r="N83" s="13">
-        <v>3645038</v>
+        <v>3770992</v>
       </c>
       <c r="O83" s="13">
-        <v>3601480</v>
+        <v>3649943</v>
       </c>
       <c r="P83" s="13">
-        <v>3770992</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="13">
-        <v>3649943</v>
+        <v>0</v>
       </c>
       <c r="R83" s="13">
-        <v>0</v>
+        <v>3618852</v>
       </c>
       <c r="S83" s="13">
-        <v>0</v>
+        <v>3617346</v>
       </c>
       <c r="T83" s="13">
-        <v>3618852</v>
-      </c>
-      <c r="U83" s="13">
-        <v>3617346</v>
+        <v>4288355</v>
+      </c>
+      <c r="U83" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="V83" s="13">
-        <v>4288355</v>
-      </c>
-      <c r="W83" s="13" t="s">
-        <v>62</v>
+        <v>3638424</v>
+      </c>
+      <c r="W83" s="13">
+        <v>7154902</v>
       </c>
       <c r="X83" s="13">
-        <v>3638424</v>
+        <v>4008333</v>
       </c>
       <c r="Y83" s="13">
-        <v>7154902</v>
-      </c>
-      <c r="Z83" s="13">
-        <v>4008333</v>
+        <v>3599830</v>
+      </c>
+      <c r="Z83" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AA83" s="13">
-        <v>3599830</v>
-      </c>
-      <c r="AB83" s="13" t="s">
-        <v>62</v>
+        <v>7201966</v>
+      </c>
+      <c r="AB83" s="13">
+        <v>5924177</v>
       </c>
       <c r="AC83" s="13">
-        <v>7201966</v>
+        <v>21000312</v>
       </c>
       <c r="AD83" s="13">
-        <v>5924177</v>
+        <v>20996405</v>
       </c>
       <c r="AE83" s="13">
-        <v>21000312</v>
+        <v>21000000</v>
       </c>
       <c r="AF83" s="13">
-        <v>20996405</v>
+        <v>21000000</v>
       </c>
       <c r="AG83" s="13">
-        <v>21000000</v>
-      </c>
-      <c r="AH83" s="13">
-        <v>21000000</v>
+        <v>14906863</v>
+      </c>
+      <c r="AH83" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AI83" s="13">
-        <v>14906863</v>
-      </c>
-      <c r="AJ83" s="13" t="s">
-        <v>62</v>
+        <v>21000604</v>
+      </c>
+      <c r="AJ83" s="13">
+        <v>21007241</v>
       </c>
       <c r="AK83" s="13">
-        <v>21000604</v>
+        <v>18341416</v>
       </c>
       <c r="AL83" s="13">
-        <v>21007241</v>
+        <v>21000022</v>
       </c>
       <c r="AM83" s="13">
-        <v>18341416</v>
+        <v>18844961</v>
       </c>
       <c r="AN83" s="13">
-        <v>21000022</v>
+        <v>16598578</v>
       </c>
       <c r="AO83" s="13">
-        <v>18844961</v>
+        <v>18054537</v>
       </c>
       <c r="AP83" s="13">
-        <v>16598578</v>
+        <v>17270332</v>
       </c>
       <c r="AQ83" s="13">
-        <v>18054537</v>
+        <v>32459815</v>
       </c>
       <c r="AR83" s="13">
-        <v>17270332</v>
+        <v>17149068</v>
       </c>
       <c r="AS83" s="13">
-        <v>32459815</v>
+        <v>20743259</v>
       </c>
       <c r="AT83" s="13">
-        <v>17149068</v>
+        <v>24202288</v>
       </c>
       <c r="AU83" s="13">
-        <v>20743259</v>
+        <v>20870168</v>
       </c>
       <c r="AV83" s="13">
-        <v>24202288</v>
+        <v>21250164</v>
       </c>
       <c r="AW83" s="13">
-        <v>20870168</v>
+        <v>22311535</v>
       </c>
       <c r="AX83" s="13">
-        <v>22424240</v>
+        <v>21173622</v>
       </c>
       <c r="AY83" s="13">
-        <v>22311535</v>
-      </c>
-      <c r="AZ83" s="13">
-        <v>21173622</v>
-      </c>
-      <c r="BA83" s="13">
-        <v>26102089</v>
-      </c>
-      <c r="BB83" s="13" t="s">
-        <v>62</v>
+        <v>21342716</v>
+      </c>
+      <c r="AZ83" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA83" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB83" s="13">
+        <v>30008515</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>60</v>
       </c>
@@ -10859,157 +10859,157 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>35167856</v>
+        <v>27938795</v>
       </c>
       <c r="F84" s="11">
-        <v>34318834</v>
+        <v>28614226</v>
       </c>
       <c r="G84" s="11">
-        <v>27938795</v>
+        <v>36372884</v>
       </c>
       <c r="H84" s="11">
-        <v>28614226</v>
+        <v>38973701</v>
       </c>
       <c r="I84" s="11">
-        <v>36372884</v>
+        <v>40268233</v>
       </c>
       <c r="J84" s="11">
-        <v>38973701</v>
+        <v>38498625</v>
       </c>
       <c r="K84" s="11">
-        <v>40268233</v>
+        <v>39895086</v>
       </c>
       <c r="L84" s="11">
-        <v>38498625</v>
+        <v>37277874</v>
       </c>
       <c r="M84" s="11">
-        <v>39895086</v>
+        <v>37474614</v>
       </c>
       <c r="N84" s="11">
-        <v>37277874</v>
+        <v>34572416</v>
       </c>
       <c r="O84" s="11">
-        <v>37474614</v>
+        <v>35548010</v>
       </c>
       <c r="P84" s="11">
-        <v>34572416</v>
+        <v>36906816</v>
       </c>
       <c r="Q84" s="11">
-        <v>35548010</v>
+        <v>40022588</v>
       </c>
       <c r="R84" s="11">
-        <v>36906816</v>
+        <v>44943256</v>
       </c>
       <c r="S84" s="11">
-        <v>40022588</v>
+        <v>46960287</v>
       </c>
       <c r="T84" s="11">
-        <v>44943256</v>
+        <v>45991493</v>
       </c>
       <c r="U84" s="11">
-        <v>46960287</v>
+        <v>45474838</v>
       </c>
       <c r="V84" s="11">
-        <v>45991493</v>
+        <v>53070864</v>
       </c>
       <c r="W84" s="11">
-        <v>45474838</v>
+        <v>60578165</v>
       </c>
       <c r="X84" s="11">
-        <v>53070864</v>
+        <v>70559053</v>
       </c>
       <c r="Y84" s="11">
-        <v>60578165</v>
+        <v>83895323</v>
       </c>
       <c r="Z84" s="11">
-        <v>70559053</v>
+        <v>93452926</v>
       </c>
       <c r="AA84" s="11">
-        <v>83895323</v>
+        <v>101508309</v>
       </c>
       <c r="AB84" s="11">
-        <v>93452926</v>
+        <v>103221264</v>
       </c>
       <c r="AC84" s="11">
-        <v>101508309</v>
+        <v>106738916</v>
       </c>
       <c r="AD84" s="11">
-        <v>103221264</v>
+        <v>116513641</v>
       </c>
       <c r="AE84" s="11">
-        <v>106738916</v>
+        <v>118331530</v>
       </c>
       <c r="AF84" s="11">
-        <v>116513641</v>
+        <v>107901657</v>
       </c>
       <c r="AG84" s="11">
-        <v>118331530</v>
+        <v>111494722</v>
       </c>
       <c r="AH84" s="11">
-        <v>107901657</v>
+        <v>121739574</v>
       </c>
       <c r="AI84" s="11">
-        <v>111494722</v>
+        <v>127352398</v>
       </c>
       <c r="AJ84" s="11">
-        <v>121739574</v>
+        <v>129023132</v>
       </c>
       <c r="AK84" s="11">
-        <v>127352398</v>
+        <v>132650046</v>
       </c>
       <c r="AL84" s="11">
-        <v>129023132</v>
+        <v>127938229</v>
       </c>
       <c r="AM84" s="11">
-        <v>132650046</v>
+        <v>136372727</v>
       </c>
       <c r="AN84" s="11">
-        <v>127938229</v>
+        <v>138931860</v>
       </c>
       <c r="AO84" s="11">
-        <v>136372727</v>
+        <v>130019239</v>
       </c>
       <c r="AP84" s="11">
-        <v>138931860</v>
+        <v>129945998</v>
       </c>
       <c r="AQ84" s="11">
-        <v>130019239</v>
+        <v>133194608</v>
       </c>
       <c r="AR84" s="11">
-        <v>129945998</v>
+        <v>141851290</v>
       </c>
       <c r="AS84" s="11">
-        <v>133194608</v>
+        <v>156732445</v>
       </c>
       <c r="AT84" s="11">
-        <v>141851290</v>
+        <v>155999014</v>
       </c>
       <c r="AU84" s="11">
-        <v>156685300</v>
+        <v>146351519</v>
       </c>
       <c r="AV84" s="11">
-        <v>155999014</v>
+        <v>136049067</v>
       </c>
       <c r="AW84" s="11">
-        <v>146351519</v>
+        <v>134132262</v>
       </c>
       <c r="AX84" s="11">
-        <v>136049065</v>
+        <v>133212722</v>
       </c>
       <c r="AY84" s="11">
-        <v>134132262</v>
+        <v>136695529</v>
       </c>
       <c r="AZ84" s="11">
-        <v>133212722</v>
+        <v>141036932</v>
       </c>
       <c r="BA84" s="11">
-        <v>136692370</v>
+        <v>141548551</v>
       </c>
       <c r="BB84" s="11">
-        <v>141036932</v>
+        <v>145156429</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>61</v>
       </c>
@@ -11026,149 +11026,149 @@
       <c r="G85" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>62</v>
+      <c r="H85" s="13">
+        <v>15218360</v>
+      </c>
+      <c r="I85" s="13">
+        <v>13499560</v>
       </c>
       <c r="J85" s="13">
-        <v>15218360</v>
+        <v>16991057</v>
       </c>
       <c r="K85" s="13">
-        <v>13499560</v>
+        <v>16675202</v>
       </c>
       <c r="L85" s="13">
-        <v>16991057</v>
+        <v>16592984</v>
       </c>
       <c r="M85" s="13">
-        <v>16675202</v>
+        <v>16483117</v>
       </c>
       <c r="N85" s="13">
-        <v>16592984</v>
+        <v>18720792</v>
       </c>
       <c r="O85" s="13">
-        <v>16483117</v>
+        <v>17582234</v>
       </c>
       <c r="P85" s="13">
-        <v>18720792</v>
+        <v>18779569</v>
       </c>
       <c r="Q85" s="13">
-        <v>17582234</v>
+        <v>21248626</v>
       </c>
       <c r="R85" s="13">
-        <v>18779569</v>
+        <v>22516502</v>
       </c>
       <c r="S85" s="13">
-        <v>21248626</v>
+        <v>25300500</v>
       </c>
       <c r="T85" s="13">
-        <v>22516502</v>
+        <v>27998932</v>
       </c>
       <c r="U85" s="13">
-        <v>25300500</v>
+        <v>26850683</v>
       </c>
       <c r="V85" s="13">
-        <v>27998932</v>
+        <v>25800816</v>
       </c>
       <c r="W85" s="13">
-        <v>26850683</v>
+        <v>29524702</v>
       </c>
       <c r="X85" s="13">
-        <v>25800816</v>
+        <v>46041667</v>
       </c>
       <c r="Y85" s="13">
-        <v>29524702</v>
+        <v>37832462</v>
       </c>
       <c r="Z85" s="13">
-        <v>46041667</v>
+        <v>40267450</v>
       </c>
       <c r="AA85" s="13">
-        <v>37832462</v>
+        <v>40402438</v>
       </c>
       <c r="AB85" s="13">
-        <v>40267450</v>
+        <v>50684696</v>
       </c>
       <c r="AC85" s="13">
-        <v>40402438</v>
+        <v>51030624</v>
       </c>
       <c r="AD85" s="13">
-        <v>50684696</v>
+        <v>51968822</v>
       </c>
       <c r="AE85" s="13">
-        <v>51030624</v>
+        <v>61853466</v>
       </c>
       <c r="AF85" s="13">
-        <v>51968822</v>
+        <v>67508947</v>
       </c>
       <c r="AG85" s="13">
-        <v>61853466</v>
+        <v>68040353</v>
       </c>
       <c r="AH85" s="13">
-        <v>67508947</v>
+        <v>72566191</v>
       </c>
       <c r="AI85" s="13">
-        <v>68040353</v>
+        <v>80152215</v>
       </c>
       <c r="AJ85" s="13">
-        <v>72566191</v>
+        <v>76484013</v>
       </c>
       <c r="AK85" s="13">
-        <v>80152215</v>
+        <v>82405311</v>
       </c>
       <c r="AL85" s="13">
-        <v>76484013</v>
+        <v>80519799</v>
       </c>
       <c r="AM85" s="13">
-        <v>82405311</v>
+        <v>78558085</v>
       </c>
       <c r="AN85" s="13">
-        <v>80519799</v>
+        <v>79598813</v>
       </c>
       <c r="AO85" s="13">
-        <v>78558085</v>
-      </c>
-      <c r="AP85" s="13">
-        <v>79598813</v>
-      </c>
-      <c r="AQ85" s="13">
         <v>82891618</v>
       </c>
-      <c r="AR85" s="13">
-        <v>-56599</v>
-      </c>
-      <c r="AS85" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT85" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU85" s="13">
-        <v>93980714</v>
-      </c>
-      <c r="AV85" s="13">
+      <c r="AP85" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ85" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR85" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS85" s="13">
+        <v>84092134</v>
+      </c>
+      <c r="AT85" s="13">
         <v>93964884</v>
       </c>
+      <c r="AU85" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV85" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AW85" s="13">
-        <v>0</v>
+        <v>75773167</v>
       </c>
       <c r="AX85" s="13">
-        <v>0</v>
+        <v>74035198</v>
       </c>
       <c r="AY85" s="13">
-        <v>75773167</v>
+        <v>74163034</v>
       </c>
       <c r="AZ85" s="13">
-        <v>74035198</v>
-      </c>
-      <c r="BA85" s="13">
-        <v>75407902</v>
-      </c>
-      <c r="BB85" s="13">
         <v>74473518</v>
       </c>
+      <c r="BA85" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB85" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>63</v>
       </c>
@@ -11290,32 +11290,32 @@
       <c r="AP86" s="11">
         <v>0</v>
       </c>
-      <c r="AQ86" s="11">
-        <v>0</v>
+      <c r="AQ86" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AR86" s="11">
         <v>0</v>
       </c>
-      <c r="AS86" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT86" s="11">
-        <v>0</v>
+      <c r="AS86" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT86" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AU86" s="11">
         <v>0</v>
       </c>
-      <c r="AV86" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW86" s="11">
-        <v>0</v>
+      <c r="AV86" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW86" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AX86" s="11">
         <v>0</v>
       </c>
-      <c r="AY86" s="11" t="s">
-        <v>62</v>
+      <c r="AY86" s="11">
+        <v>0</v>
       </c>
       <c r="AZ86" s="11">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>65</v>
       </c>
@@ -11344,11 +11344,11 @@
       <c r="G87" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H87" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>62</v>
+      <c r="H87" s="13">
+        <v>0</v>
+      </c>
+      <c r="I87" s="13">
+        <v>0</v>
       </c>
       <c r="J87" s="13">
         <v>0</v>
@@ -11449,32 +11449,32 @@
       <c r="AP87" s="13">
         <v>0</v>
       </c>
-      <c r="AQ87" s="13">
-        <v>0</v>
+      <c r="AQ87" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AR87" s="13">
         <v>0</v>
       </c>
-      <c r="AS87" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT87" s="13">
-        <v>0</v>
+      <c r="AS87" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT87" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AU87" s="13">
         <v>0</v>
       </c>
-      <c r="AV87" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW87" s="13">
-        <v>0</v>
+      <c r="AV87" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW87" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AX87" s="13">
         <v>0</v>
       </c>
-      <c r="AY87" s="13" t="s">
-        <v>62</v>
+      <c r="AY87" s="13">
+        <v>0</v>
       </c>
       <c r="AZ87" s="13">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>66</v>
       </c>
@@ -11512,14 +11512,14 @@
       <c r="J88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K88" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L88" s="11" t="s">
-        <v>62</v>
+      <c r="K88" s="11">
+        <v>4493683</v>
+      </c>
+      <c r="L88" s="11">
+        <v>0</v>
       </c>
       <c r="M88" s="11">
-        <v>4493683</v>
+        <v>0</v>
       </c>
       <c r="N88" s="11">
         <v>0</v>
@@ -11539,11 +11539,11 @@
       <c r="S88" s="11">
         <v>0</v>
       </c>
-      <c r="T88" s="11">
-        <v>0</v>
-      </c>
-      <c r="U88" s="11">
-        <v>0</v>
+      <c r="T88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U88" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="V88" s="11" t="s">
         <v>62</v>
@@ -11575,62 +11575,62 @@
       <c r="AE88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AF88" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG88" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH88" s="11">
+      <c r="AF88" s="11">
         <v>12492958</v>
       </c>
+      <c r="AG88" s="11">
+        <v>12500036</v>
+      </c>
+      <c r="AH88" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AI88" s="11">
-        <v>12500036</v>
+        <v>12500055</v>
       </c>
       <c r="AJ88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AK88" s="11">
-        <v>12500055</v>
+      <c r="AK88" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AL88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AM88" s="11" t="s">
-        <v>62</v>
+      <c r="AM88" s="11">
+        <v>12501294</v>
       </c>
       <c r="AN88" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AO88" s="11">
-        <v>12501294</v>
-      </c>
-      <c r="AP88" s="11" t="s">
-        <v>62</v>
+        <v>14506472</v>
+      </c>
+      <c r="AP88" s="11">
+        <v>14500918</v>
       </c>
       <c r="AQ88" s="11">
-        <v>14506472</v>
+        <v>12071429</v>
       </c>
       <c r="AR88" s="11">
-        <v>14500703</v>
+        <v>16396436</v>
       </c>
       <c r="AS88" s="11">
-        <v>12071429</v>
+        <v>12500000</v>
       </c>
       <c r="AT88" s="11">
-        <v>16396436</v>
-      </c>
-      <c r="AU88" s="11">
-        <v>12870859</v>
+        <v>21481618</v>
+      </c>
+      <c r="AU88" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AV88" s="11">
-        <v>21481618</v>
-      </c>
-      <c r="AW88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX88" s="11">
-        <v>16468285</v>
+        <v>12476861</v>
+      </c>
+      <c r="AW88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX88" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AY88" s="11" t="s">
         <v>62</v>
@@ -11638,14 +11638,14 @@
       <c r="AZ88" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BA88" s="11">
-        <v>0</v>
+      <c r="BA88" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="BB88" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>67</v>
       </c>
@@ -11680,11 +11680,11 @@
       <c r="M89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O89" s="13" t="s">
-        <v>62</v>
+      <c r="N89" s="13">
+        <v>0</v>
+      </c>
+      <c r="O89" s="13">
+        <v>0</v>
       </c>
       <c r="P89" s="13">
         <v>0</v>
@@ -11698,11 +11698,11 @@
       <c r="S89" s="13">
         <v>0</v>
       </c>
-      <c r="T89" s="13">
-        <v>0</v>
-      </c>
-      <c r="U89" s="13">
-        <v>0</v>
+      <c r="T89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U89" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="V89" s="13" t="s">
         <v>62</v>
@@ -11713,14 +11713,14 @@
       <c r="X89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Y89" s="13" t="s">
-        <v>62</v>
+      <c r="Y89" s="13">
+        <v>667728</v>
       </c>
       <c r="Z89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA89" s="13">
-        <v>667728</v>
+      <c r="AA89" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AB89" s="13" t="s">
         <v>62</v>
@@ -11731,14 +11731,14 @@
       <c r="AD89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AE89" s="13" t="s">
-        <v>62</v>
+      <c r="AE89" s="13">
+        <v>499872</v>
       </c>
       <c r="AF89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AG89" s="13">
-        <v>499872</v>
+      <c r="AG89" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AH89" s="13" t="s">
         <v>62</v>
@@ -11761,50 +11761,50 @@
       <c r="AN89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AO89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP89" s="13" t="s">
-        <v>62</v>
+      <c r="AO89" s="13">
+        <v>698932</v>
+      </c>
+      <c r="AP89" s="13">
+        <v>721723</v>
       </c>
       <c r="AQ89" s="13">
-        <v>698932</v>
-      </c>
-      <c r="AR89" s="13">
-        <v>948563</v>
-      </c>
-      <c r="AS89" s="13">
         <v>85098</v>
       </c>
-      <c r="AT89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU89" s="13">
-        <v>0</v>
+      <c r="AR89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT89" s="13">
+        <v>1294757</v>
+      </c>
+      <c r="AU89" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AV89" s="13">
-        <v>1294757</v>
+        <v>1112207</v>
       </c>
       <c r="AW89" s="13">
-        <v>4230</v>
-      </c>
-      <c r="AX89" s="13">
-        <v>1806029</v>
+        <v>1331123</v>
+      </c>
+      <c r="AX89" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AY89" s="13">
-        <v>1331123</v>
-      </c>
-      <c r="AZ89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA89" s="13">
         <v>1270863</v>
       </c>
+      <c r="AZ89" s="13">
+        <v>1048458</v>
+      </c>
+      <c r="BA89" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="BB89" s="13">
-        <v>1048458</v>
+        <v>749156</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>85</v>
       </c>
@@ -11861,7 +11861,7 @@
       <c r="BA90" s="9"/>
       <c r="BB90" s="9"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>64</v>
       </c>
@@ -11983,14 +11983,14 @@
       <c r="AP91" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AQ91" s="11" t="s">
-        <v>62</v>
+      <c r="AQ91" s="11">
+        <v>0</v>
       </c>
       <c r="AR91" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AS91" s="11">
-        <v>0</v>
+      <c r="AS91" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AT91" s="11" t="s">
         <v>62</v>
